--- a/public/BOSCH_STOCK1.xlsx
+++ b/public/BOSCH_STOCK1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyus\OneDrive\Desktop\bk\stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyus\OneDrive\Desktop\bk\stock\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C08EC67-259E-4DF9-8406-9B1D8A83B895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1328D0B1-4A40-4D0A-81C4-9949C43AE0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11481,10 +11481,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11501,12 +11507,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12205,7 +12205,7 @@
   <dimension ref="A1:J440"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12222,22 +12222,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="90" t="s">
         <v>1447</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="90" t="s">
         <v>2384</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="90" t="s">
         <v>3169</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="90" t="s">
         <v>3170</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="91" t="s">
         <v>1987</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="90" t="s">
         <v>1988</v>
       </c>
     </row>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -16113,22 +16113,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="90" t="s">
         <v>1447</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="90" t="s">
         <v>2384</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="90" t="s">
         <v>3169</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="90" t="s">
         <v>3170</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="91" t="s">
         <v>1987</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="90" t="s">
         <v>1988</v>
       </c>
       <c r="G1" s="79"/>
@@ -22016,22 +22016,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="90" t="s">
         <v>1447</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="90" t="s">
         <v>2384</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="90" t="s">
         <v>3169</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="90" t="s">
         <v>3170</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="91" t="s">
         <v>1987</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="90" t="s">
         <v>1988</v>
       </c>
       <c r="G1" s="74"/>
@@ -22041,13 +22041,13 @@
       <c r="A2" s="77">
         <v>1</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="95" t="s">
         <v>3561</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="74"/>
       <c r="H2" s="74"/>
     </row>
@@ -22333,13 +22333,13 @@
       <c r="A15" s="74">
         <v>15</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="96" t="s">
         <v>3545</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="74"/>
       <c r="H15" s="76"/>
     </row>
@@ -22479,13 +22479,13 @@
       <c r="A22" s="74">
         <v>23</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="96" t="s">
         <v>3546</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
       <c r="G22" s="74"/>
       <c r="H22" s="76"/>
     </row>
@@ -22669,13 +22669,13 @@
       <c r="A31" s="77">
         <v>33</v>
       </c>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="96" t="s">
         <v>2458</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
       <c r="G31" s="74"/>
       <c r="H31" s="74"/>
     </row>
@@ -22923,13 +22923,13 @@
       <c r="A44" s="74">
         <v>47</v>
       </c>
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="96" t="s">
         <v>1342</v>
       </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
       <c r="G44" s="74"/>
       <c r="H44" s="74"/>
     </row>
@@ -31170,22 +31170,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="90" t="s">
         <v>1447</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="90" t="s">
         <v>2384</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="90" t="s">
         <v>3169</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="90" t="s">
         <v>3170</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="91" t="s">
         <v>1987</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="90" t="s">
         <v>1988</v>
       </c>
       <c r="G1" s="32"/>
@@ -32656,13 +32656,13 @@
       <c r="A73" s="88">
         <v>74</v>
       </c>
-      <c r="B73" s="95" t="s">
+      <c r="B73" s="97" t="s">
         <v>1338</v>
       </c>
-      <c r="C73" s="95"/>
-      <c r="D73" s="95"/>
-      <c r="E73" s="95"/>
-      <c r="F73" s="95"/>
+      <c r="C73" s="97"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="97"/>
       <c r="G73" s="32"/>
     </row>
     <row r="74" spans="1:7" ht="15.75">
@@ -33068,22 +33068,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="90" t="s">
         <v>1447</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="90" t="s">
         <v>2384</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="90" t="s">
         <v>3169</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="90" t="s">
         <v>3170</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="91" t="s">
         <v>1987</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="90" t="s">
         <v>1988</v>
       </c>
     </row>
@@ -34476,11 +34476,11 @@
       <c r="A72" s="22">
         <v>72</v>
       </c>
-      <c r="B72" s="96"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="96"/>
-      <c r="E72" s="96"/>
-      <c r="F72" s="96"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="98"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="22">
@@ -34683,11 +34683,11 @@
       <c r="A83" s="6">
         <v>83</v>
       </c>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
-      <c r="E83" s="96"/>
-      <c r="F83" s="96"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="98"/>
+      <c r="D83" s="98"/>
+      <c r="E83" s="98"/>
+      <c r="F83" s="98"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="22">
@@ -35843,22 +35843,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="90" t="s">
         <v>1447</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="90" t="s">
         <v>2384</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="90" t="s">
         <v>3169</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="90" t="s">
         <v>3170</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="91" t="s">
         <v>1987</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="90" t="s">
         <v>1988</v>
       </c>
     </row>
@@ -41278,22 +41278,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="90" t="s">
         <v>1447</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="90" t="s">
         <v>2384</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="90" t="s">
         <v>3169</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="90" t="s">
         <v>3170</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="91" t="s">
         <v>1987</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="90" t="s">
         <v>1988</v>
       </c>
     </row>
@@ -45338,22 +45338,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="90" t="s">
         <v>1447</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="90" t="s">
         <v>2384</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="90" t="s">
         <v>3169</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="90" t="s">
         <v>3170</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="91" t="s">
         <v>1987</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="90" t="s">
         <v>1988</v>
       </c>
     </row>
@@ -51803,22 +51803,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="90" t="s">
         <v>1447</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="90" t="s">
         <v>2384</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="90" t="s">
         <v>3169</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="90" t="s">
         <v>3170</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="91" t="s">
         <v>1987</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="90" t="s">
         <v>1988</v>
       </c>
     </row>
@@ -57485,22 +57485,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="90" t="s">
         <v>1447</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="90" t="s">
         <v>2384</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="90" t="s">
         <v>3169</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="90" t="s">
         <v>3170</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="91" t="s">
         <v>1987</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="90" t="s">
         <v>1988</v>
       </c>
       <c r="G1" s="44"/>
@@ -57509,13 +57509,13 @@
       <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="92" t="s">
         <v>2151</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:10">
@@ -58370,13 +58370,13 @@
       <c r="A49" s="33">
         <v>50</v>
       </c>
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="92" t="s">
         <v>1229</v>
       </c>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="33">
@@ -59665,13 +59665,13 @@
       <c r="A121" s="33">
         <v>126</v>
       </c>
-      <c r="B121" s="91" t="s">
+      <c r="B121" s="92" t="s">
         <v>1284</v>
       </c>
-      <c r="C121" s="91"/>
-      <c r="D121" s="91"/>
-      <c r="E121" s="91"/>
-      <c r="F121" s="91"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="92"/>
+      <c r="E121" s="92"/>
+      <c r="F121" s="92"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="33">
@@ -60216,13 +60216,13 @@
       <c r="A151" s="33">
         <v>165</v>
       </c>
-      <c r="B151" s="90" t="s">
+      <c r="B151" s="93" t="s">
         <v>1295</v>
       </c>
-      <c r="C151" s="90"/>
-      <c r="D151" s="90"/>
-      <c r="E151" s="90"/>
-      <c r="F151" s="90"/>
+      <c r="C151" s="93"/>
+      <c r="D151" s="93"/>
+      <c r="E151" s="93"/>
+      <c r="F151" s="93"/>
       <c r="G151" s="63"/>
     </row>
     <row r="152" spans="1:7">
@@ -60315,13 +60315,13 @@
       <c r="A157" s="33">
         <v>175</v>
       </c>
-      <c r="B157" s="90" t="s">
+      <c r="B157" s="93" t="s">
         <v>3368</v>
       </c>
-      <c r="C157" s="90"/>
-      <c r="D157" s="90"/>
-      <c r="E157" s="90"/>
-      <c r="F157" s="90"/>
+      <c r="C157" s="93"/>
+      <c r="D157" s="93"/>
+      <c r="E157" s="93"/>
+      <c r="F157" s="93"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="33">
@@ -60765,13 +60765,13 @@
       <c r="A180" s="33">
         <v>203</v>
       </c>
-      <c r="B180" s="90" t="s">
+      <c r="B180" s="93" t="s">
         <v>3369</v>
       </c>
-      <c r="C180" s="90"/>
-      <c r="D180" s="90"/>
-      <c r="E180" s="90"/>
-      <c r="F180" s="90"/>
+      <c r="C180" s="93"/>
+      <c r="D180" s="93"/>
+      <c r="E180" s="93"/>
+      <c r="F180" s="93"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="33">
@@ -61343,13 +61343,13 @@
       <c r="A210" s="33">
         <v>237</v>
       </c>
-      <c r="B210" s="90" t="s">
+      <c r="B210" s="93" t="s">
         <v>3370</v>
       </c>
-      <c r="C210" s="90"/>
-      <c r="D210" s="90"/>
-      <c r="E210" s="90"/>
-      <c r="F210" s="90"/>
+      <c r="C210" s="93"/>
+      <c r="D210" s="93"/>
+      <c r="E210" s="93"/>
+      <c r="F210" s="93"/>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="33">
@@ -62431,13 +62431,13 @@
       <c r="A265" s="33">
         <v>299</v>
       </c>
-      <c r="B265" s="90" t="s">
+      <c r="B265" s="93" t="s">
         <v>3371</v>
       </c>
-      <c r="C265" s="90"/>
-      <c r="D265" s="90"/>
-      <c r="E265" s="90"/>
-      <c r="F265" s="90"/>
+      <c r="C265" s="93"/>
+      <c r="D265" s="93"/>
+      <c r="E265" s="93"/>
+      <c r="F265" s="93"/>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="33">
@@ -62930,22 +62930,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="90" t="s">
         <v>1447</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="90" t="s">
         <v>2384</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="90" t="s">
         <v>3169</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="90" t="s">
         <v>3170</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="91" t="s">
         <v>1987</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="90" t="s">
         <v>1988</v>
       </c>
       <c r="G1" s="4"/>
@@ -64453,22 +64453,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="90" t="s">
         <v>1447</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="90" t="s">
         <v>2384</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="90" t="s">
         <v>3169</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="90" t="s">
         <v>3170</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="91" t="s">
         <v>1987</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="90" t="s">
         <v>1988</v>
       </c>
     </row>
@@ -65269,22 +65269,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="90" t="s">
         <v>1447</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="90" t="s">
         <v>2384</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="90" t="s">
         <v>3169</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="90" t="s">
         <v>3170</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="91" t="s">
         <v>1987</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="90" t="s">
         <v>1988</v>
       </c>
     </row>
@@ -65292,13 +65292,13 @@
       <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="94" t="s">
         <v>2201</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
       <c r="G2" t="s">
         <v>2679</v>
       </c>
@@ -66137,13 +66137,13 @@
       <c r="A50" s="33">
         <v>49</v>
       </c>
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="94" t="s">
         <v>3516</v>
       </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
     </row>
     <row r="51" spans="1:7" ht="15.95" customHeight="1">
       <c r="A51" s="33">
@@ -66232,23 +66232,23 @@
       <c r="A55" s="33">
         <v>54</v>
       </c>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="94" t="s">
         <v>2285</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="94"/>
     </row>
     <row r="56" spans="1:7" ht="15.95" customHeight="1">
       <c r="A56" s="33">
         <v>55</v>
       </c>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="92"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
     </row>
     <row r="57" spans="1:7" ht="15.95" customHeight="1">
       <c r="A57" s="33">
@@ -66314,13 +66314,13 @@
       <c r="A60" s="33">
         <v>59</v>
       </c>
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="94" t="s">
         <v>449</v>
       </c>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="33">

--- a/public/BOSCH_STOCK1.xlsx
+++ b/public/BOSCH_STOCK1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyus\OneDrive\Desktop\bk\stock\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1328D0B1-4A40-4D0A-81C4-9949C43AE0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D6615D-9B65-47B1-ABA7-960401289A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12205,7 +12205,7 @@
   <dimension ref="A1:J440"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>

--- a/public/BOSCH_STOCK1.xlsx
+++ b/public/BOSCH_STOCK1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WP\files\stock\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C586E812-12EC-47F5-9C18-4E44071E9A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C20F70-E361-4D7F-AAE2-6F1BCA4FDA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="730" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="730" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELEMENT" sheetId="1" r:id="rId1"/>
@@ -33086,9 +33086,9 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35862,8 +35862,8 @@
   </sheetPr>
   <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A126" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57117,8 +57117,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/public/BOSCH_STOCK1.xlsx
+++ b/public/BOSCH_STOCK1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WP\files\stock\public\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C20F70-E361-4D7F-AAE2-6F1BCA4FDA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="730" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="12240" windowHeight="9240" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="ELEMENT" sheetId="1" r:id="rId1"/>
@@ -48,7 +42,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'DIESEL FILTER&amp;OIL FILTER'!$A$3:$N$630</definedName>
     <definedName name="Z_8145F22A_AD74_4799_898B_BCECC4FA34F9_.wvu.PrintArea" localSheetId="5" hidden="1">'DIESEL FILTER&amp;OIL FILTER'!$A$3:$N$630</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <customWorkbookViews>
     <customWorkbookView name="pcs - Personal View" guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="800" windowHeight="379" tabRatio="628" activeSheetId="5"/>
   </customWorkbookViews>
@@ -10928,11 +10922,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_ &quot;Rs.&quot;\ * #,##0.00_ ;_ &quot;Rs.&quot;\ * \-#,##0.00_ ;_ &quot;Rs.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ &quot;Rs.&quot;\ * #,##0.00_ ;_ &quot;Rs.&quot;\ * \-#,##0.00_ ;_ &quot;Rs.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -11242,9 +11235,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11453,7 +11446,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11464,6 +11457,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11487,19 +11486,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="5" xr:uid="{05D3437F-F360-438F-8E31-206FD2870D55}"/>
+    <cellStyle name="Comma 2" xfId="5"/>
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="32">
@@ -11901,9 +11894,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11941,7 +11934,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -11975,7 +11968,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -12010,10 +12002,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12186,12 +12177,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J440"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -14812,7 +14803,7 @@
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
@@ -15186,7 +15177,7 @@
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="19">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="17"/>
@@ -16079,7 +16070,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F172" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:F172"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A104">
       <selection activeCell="G107" sqref="G107"/>
@@ -16093,12 +16085,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16305,7 +16297,7 @@
         <v>1895</v>
       </c>
       <c r="E9" s="75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="74">
         <v>3022</v>
@@ -18763,7 +18755,7 @@
         <v>2078</v>
       </c>
       <c r="E137" s="75">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F137" s="74" t="s">
         <v>2801</v>
@@ -18863,7 +18855,7 @@
         <v>824</v>
       </c>
       <c r="E142" s="75">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F142" s="74">
         <v>746</v>
@@ -19217,7 +19209,7 @@
         <v>2709</v>
       </c>
       <c r="E159" s="75">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F159" s="74">
         <v>100</v>
@@ -21982,7 +21974,8 @@
       <c r="H292" s="74"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I292" xr:uid="{00000000-0001-0000-0900-000000000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:I292"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1208">
       <selection activeCell="D1139" sqref="D1139"/>
@@ -22027,12 +22020,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H1391"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22074,13 +22067,13 @@
       <c r="A2" s="72">
         <v>1</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="92" t="s">
         <v>3558</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
     </row>
@@ -22366,13 +22359,13 @@
       <c r="A15" s="69">
         <v>15</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="93" t="s">
         <v>3542</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="69"/>
       <c r="H15" s="71"/>
     </row>
@@ -22512,13 +22505,13 @@
       <c r="A22" s="69">
         <v>23</v>
       </c>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="93" t="s">
         <v>3543</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="69"/>
       <c r="H22" s="71"/>
     </row>
@@ -22702,13 +22695,13 @@
       <c r="A31" s="72">
         <v>33</v>
       </c>
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="93" t="s">
         <v>2455</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
       <c r="G31" s="69"/>
       <c r="H31" s="69"/>
     </row>
@@ -22956,13 +22949,13 @@
       <c r="A44" s="69">
         <v>47</v>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="93" t="s">
         <v>1339</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
       <c r="G44" s="69"/>
       <c r="H44" s="69"/>
     </row>
@@ -31163,7 +31156,8 @@
       <c r="H1391"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H54" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:H54"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="120" topLeftCell="A52">
       <selection activeCell="D57" sqref="D57"/>
@@ -31184,12 +31178,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H310"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -31382,7 +31376,7 @@
         <v>1305</v>
       </c>
       <c r="E9" s="19">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F9" s="17">
         <v>378</v>
@@ -31403,7 +31397,7 @@
         <v>1305</v>
       </c>
       <c r="E10" s="19">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F10" s="17">
         <v>1100</v>
@@ -31445,7 +31439,7 @@
         <v>1305</v>
       </c>
       <c r="E12" s="19">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F12" s="17">
         <v>2698</v>
@@ -31508,7 +31502,7 @@
         <v>1305</v>
       </c>
       <c r="E15" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="17">
         <v>6968</v>
@@ -31802,7 +31796,7 @@
         <v>2376</v>
       </c>
       <c r="E29" s="19">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="F29" s="17">
         <v>1709</v>
@@ -32094,7 +32088,7 @@
         <v>1333</v>
       </c>
       <c r="E43" s="19">
-        <v>417</v>
+        <v>340</v>
       </c>
       <c r="F43" s="17">
         <v>247</v>
@@ -32115,7 +32109,7 @@
         <v>1333</v>
       </c>
       <c r="E44" s="19">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F44" s="17">
         <v>676</v>
@@ -32435,7 +32429,7 @@
         <v>2844</v>
       </c>
       <c r="E60" s="84">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F60" s="32">
         <v>2492</v>
@@ -32479,7 +32473,7 @@
       </c>
       <c r="D62" s="32"/>
       <c r="E62" s="84">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="F62" s="32">
         <v>115</v>
@@ -32689,13 +32683,13 @@
       <c r="A73" s="83">
         <v>74</v>
       </c>
-      <c r="B73" s="92" t="s">
+      <c r="B73" s="94" t="s">
         <v>1335</v>
       </c>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="92"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
       <c r="G73" s="32"/>
     </row>
     <row r="74" spans="1:7" ht="15.75">
@@ -33065,7 +33059,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H91" xr:uid="{00000000-0001-0000-0B00-000000000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:H91"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="115" topLeftCell="A35">
       <selection activeCell="D44" sqref="D44"/>
@@ -33082,13 +33077,13 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33194,7 +33189,7 @@
         <v>2397</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>730</v>
@@ -33214,7 +33209,7 @@
         <v>2250</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>815</v>
@@ -33454,7 +33449,7 @@
         <v>3035</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F18">
         <v>628</v>
@@ -33714,7 +33709,7 @@
         <v>3127</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1499</v>
@@ -33894,7 +33889,7 @@
         <v>2426</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F40">
         <v>944</v>
@@ -33914,7 +33909,7 @@
         <v>2509</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F41">
         <v>561</v>
@@ -34254,7 +34249,7 @@
         <v>2504</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>1787</v>
@@ -34334,7 +34329,7 @@
         <v>2533</v>
       </c>
       <c r="E62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62">
         <v>1381</v>
@@ -34509,11 +34504,11 @@
       <c r="A72" s="22">
         <v>72</v>
       </c>
-      <c r="B72" s="93"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="93"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="22">
@@ -34716,11 +34711,11 @@
       <c r="A83" s="6">
         <v>83</v>
       </c>
-      <c r="B83" s="93"/>
-      <c r="C83" s="93"/>
-      <c r="D83" s="93"/>
-      <c r="E83" s="93"/>
-      <c r="F83" s="93"/>
+      <c r="B83" s="95"/>
+      <c r="C83" s="95"/>
+      <c r="D83" s="95"/>
+      <c r="E83" s="95"/>
+      <c r="F83" s="95"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="22">
@@ -34979,7 +34974,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F97" xr:uid="{00000000-0001-0000-0C00-000000000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:F97"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}">
       <selection activeCell="A2" sqref="A2"/>
@@ -34995,7 +34991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -35081,7 +35077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K50"/>
   <sheetViews>
@@ -35678,7 +35674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A3:I20"/>
   <sheetViews>
@@ -35856,14 +35852,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView topLeftCell="A95" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35961,7 +35957,7 @@
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F5" s="9"/>
     </row>
@@ -37854,7 +37850,7 @@
       </c>
       <c r="D105" s="26"/>
       <c r="E105" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" s="9"/>
     </row>
@@ -41276,7 +41272,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G275" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:G275"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" topLeftCell="A335">
       <selection activeCell="C348" sqref="C348"/>
@@ -41290,12 +41287,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H772"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41612,7 +41609,7 @@
       <c r="E16" s="44">
         <v>2</v>
       </c>
-      <c r="F16" s="94"/>
+      <c r="F16" s="87"/>
     </row>
     <row r="17" spans="1:8" ht="38.25">
       <c r="A17" s="33">
@@ -41646,7 +41643,7 @@
       <c r="E18" s="44">
         <v>0</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="87"/>
     </row>
     <row r="19" spans="1:8" ht="38.25">
       <c r="A19" s="33">
@@ -41664,7 +41661,7 @@
       <c r="E19" s="44">
         <v>0</v>
       </c>
-      <c r="F19" s="94"/>
+      <c r="F19" s="87"/>
       <c r="H19" t="s">
         <v>1491</v>
       </c>
@@ -41685,7 +41682,7 @@
       <c r="E20" s="35">
         <v>0</v>
       </c>
-      <c r="F20" s="95"/>
+      <c r="F20" s="88"/>
       <c r="H20" t="s">
         <v>1491</v>
       </c>
@@ -41706,7 +41703,7 @@
       <c r="E21" s="44">
         <v>0</v>
       </c>
-      <c r="F21" s="94"/>
+      <c r="F21" s="87"/>
       <c r="H21" t="s">
         <v>1491</v>
       </c>
@@ -41821,7 +41818,7 @@
       <c r="E27" s="44">
         <v>0</v>
       </c>
-      <c r="F27" s="94" t="s">
+      <c r="F27" s="87" t="s">
         <v>2151</v>
       </c>
     </row>
@@ -42123,7 +42120,7 @@
       <c r="E43" s="44">
         <v>0</v>
       </c>
-      <c r="F43" s="94"/>
+      <c r="F43" s="87"/>
     </row>
     <row r="44" spans="1:8" ht="38.25">
       <c r="A44" s="33">
@@ -42177,7 +42174,7 @@
       <c r="E46" s="44">
         <v>0</v>
       </c>
-      <c r="F46" s="94"/>
+      <c r="F46" s="87"/>
     </row>
     <row r="47" spans="1:8" ht="38.25">
       <c r="A47" s="33">
@@ -42195,7 +42192,7 @@
       <c r="E47" s="44">
         <v>0</v>
       </c>
-      <c r="F47" s="94"/>
+      <c r="F47" s="87"/>
     </row>
     <row r="48" spans="1:8" ht="25.5">
       <c r="A48" s="33">
@@ -42669,7 +42666,7 @@
       <c r="C74" s="33"/>
       <c r="D74" s="38"/>
       <c r="E74" s="35">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F74" s="33"/>
       <c r="H74" t="s">
@@ -44953,7 +44950,8 @@
       <c r="E772"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H129" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:H129"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A239">
       <selection activeCell="D241" sqref="D241"/>
@@ -44967,12 +44965,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H478"/>
   <sheetViews>
-    <sheetView topLeftCell="A364" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A309" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F314" sqref="F314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47298,7 +47296,7 @@
       </c>
       <c r="D142" s="33"/>
       <c r="E142" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" s="33"/>
     </row>
@@ -49213,7 +49211,7 @@
       </c>
       <c r="D257" s="33"/>
       <c r="E257" s="35">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F257" s="33">
         <v>137</v>
@@ -49727,7 +49725,7 @@
       </c>
       <c r="D288" s="33"/>
       <c r="E288" s="35">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F288" s="33"/>
     </row>
@@ -49833,7 +49831,7 @@
       </c>
       <c r="D294" s="33"/>
       <c r="E294" s="35">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F294" s="33">
         <v>696</v>
@@ -50214,7 +50212,7 @@
       </c>
       <c r="D316" s="33"/>
       <c r="E316" s="35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F316" s="33">
         <v>865</v>
@@ -51417,7 +51415,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H376" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:H376"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A2437">
       <selection activeCell="D2444" sqref="D2444"/>
@@ -51431,12 +51430,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G571"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView topLeftCell="A168" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53009,7 +53008,7 @@
         <v>2713</v>
       </c>
       <c r="E91" s="56">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F91" s="35">
         <v>855</v>
@@ -54015,7 +54014,7 @@
         <v>2705</v>
       </c>
       <c r="E147" s="56">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F147" s="35">
         <v>554</v>
@@ -54075,7 +54074,7 @@
         <v>2708</v>
       </c>
       <c r="E150" s="56">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F150" s="35">
         <v>893</v>
@@ -54095,7 +54094,7 @@
         <v>2718</v>
       </c>
       <c r="E151" s="56">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F151" s="35" t="s">
         <v>3140</v>
@@ -54185,7 +54184,7 @@
         <v>2709</v>
       </c>
       <c r="E156" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F156" s="35">
         <v>1092</v>
@@ -54228,7 +54227,7 @@
         <v>2709</v>
       </c>
       <c r="E158" s="56">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F158" s="35" t="s">
         <v>2802</v>
@@ -54374,7 +54373,7 @@
         <v>2712</v>
       </c>
       <c r="E166" s="56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F166" s="35">
         <v>3492</v>
@@ -54466,7 +54465,7 @@
         <v>2711</v>
       </c>
       <c r="E171" s="56">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F171" s="35">
         <v>1287</v>
@@ -54542,7 +54541,7 @@
         <v>2709</v>
       </c>
       <c r="E175" s="56">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F175" s="56">
         <v>2310</v>
@@ -57087,7 +57086,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G231" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:G231"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1207">
       <selection activeCell="F1213" sqref="F1213"/>
@@ -57113,12 +57113,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D300" sqref="D300"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57157,13 +57157,13 @@
       <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="89" t="s">
         <v>2148</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:10">
@@ -57178,7 +57178,7 @@
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="35">
         <v>161</v>
@@ -57196,7 +57196,7 @@
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="35">
         <v>146</v>
@@ -57287,7 +57287,7 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="F9" s="35">
         <v>193</v>
@@ -57323,7 +57323,7 @@
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="F11" s="35">
         <v>184</v>
@@ -57382,7 +57382,7 @@
         <v>3363</v>
       </c>
       <c r="E14" s="42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>2775</v>
@@ -57400,7 +57400,7 @@
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F15" s="35">
         <v>400</v>
@@ -57418,7 +57418,7 @@
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="35">
         <v>396</v>
@@ -57634,7 +57634,7 @@
         <v>3371</v>
       </c>
       <c r="E28" s="60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" s="33">
         <v>379</v>
@@ -57654,7 +57654,7 @@
         <v>3372</v>
       </c>
       <c r="E29" s="60">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F29" s="33">
         <v>586</v>
@@ -57674,7 +57674,7 @@
         <v>3373</v>
       </c>
       <c r="E30" s="60">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F30" s="35">
         <v>268</v>
@@ -57694,7 +57694,7 @@
         <v>3374</v>
       </c>
       <c r="E31" s="60">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F31" s="33">
         <v>424</v>
@@ -57830,7 +57830,7 @@
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" s="35">
         <v>2208</v>
@@ -57848,7 +57848,7 @@
       </c>
       <c r="D39" s="33"/>
       <c r="E39" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" s="35">
         <v>998</v>
@@ -57866,7 +57866,7 @@
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="35">
         <v>546</v>
@@ -57938,7 +57938,7 @@
       </c>
       <c r="D44" s="33"/>
       <c r="E44" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="35">
         <v>1288</v>
@@ -58018,13 +58018,13 @@
       <c r="A49" s="33">
         <v>50</v>
       </c>
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="89" t="s">
         <v>1226</v>
       </c>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="33">
@@ -58110,7 +58110,7 @@
       </c>
       <c r="D54" s="33"/>
       <c r="E54" s="33">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F54" s="35">
         <v>276</v>
@@ -58146,7 +58146,7 @@
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="33">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F56" s="35">
         <v>260</v>
@@ -58418,7 +58418,7 @@
       </c>
       <c r="D72" s="33"/>
       <c r="E72" s="42">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F72" s="35">
         <v>295</v>
@@ -58458,7 +58458,7 @@
         <v>3389</v>
       </c>
       <c r="E74" s="42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F74" s="35">
         <v>239</v>
@@ -58476,7 +58476,7 @@
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="33">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F75" s="35">
         <v>239</v>
@@ -58512,7 +58512,7 @@
       </c>
       <c r="D77" s="33"/>
       <c r="E77" s="33">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F77" s="35">
         <v>253</v>
@@ -58564,7 +58564,7 @@
         <v>3391</v>
       </c>
       <c r="E80" s="33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F80" s="35">
         <v>537</v>
@@ -58802,7 +58802,7 @@
         <v>19644</v>
       </c>
       <c r="E93" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="61" t="s">
         <v>2593</v>
@@ -58839,7 +58839,7 @@
       </c>
       <c r="D95" s="33"/>
       <c r="E95" s="33">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F95" s="35">
         <v>288</v>
@@ -59067,7 +59067,7 @@
       </c>
       <c r="D107" s="33"/>
       <c r="E107" s="33">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F107" s="35">
         <v>440</v>
@@ -59157,7 +59157,7 @@
       </c>
       <c r="D112" s="33"/>
       <c r="E112" s="33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F112" s="35">
         <v>746</v>
@@ -59313,13 +59313,13 @@
       <c r="A121" s="33">
         <v>126</v>
       </c>
-      <c r="B121" s="87" t="s">
+      <c r="B121" s="89" t="s">
         <v>1281</v>
       </c>
-      <c r="C121" s="87"/>
-      <c r="D121" s="87"/>
-      <c r="E121" s="87"/>
-      <c r="F121" s="87"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="89"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="89"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="33">
@@ -59714,7 +59714,7 @@
         <v>1861</v>
       </c>
       <c r="E142" s="35">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F142" s="33">
         <v>371</v>
@@ -59864,13 +59864,13 @@
       <c r="A151" s="33">
         <v>165</v>
       </c>
-      <c r="B151" s="88" t="s">
+      <c r="B151" s="90" t="s">
         <v>1292</v>
       </c>
-      <c r="C151" s="88"/>
-      <c r="D151" s="88"/>
-      <c r="E151" s="88"/>
-      <c r="F151" s="88"/>
+      <c r="C151" s="90"/>
+      <c r="D151" s="90"/>
+      <c r="E151" s="90"/>
+      <c r="F151" s="90"/>
       <c r="G151" s="58"/>
     </row>
     <row r="152" spans="1:7">
@@ -59963,13 +59963,13 @@
       <c r="A157" s="33">
         <v>175</v>
       </c>
-      <c r="B157" s="88" t="s">
+      <c r="B157" s="90" t="s">
         <v>3365</v>
       </c>
-      <c r="C157" s="88"/>
-      <c r="D157" s="88"/>
-      <c r="E157" s="88"/>
-      <c r="F157" s="88"/>
+      <c r="C157" s="90"/>
+      <c r="D157" s="90"/>
+      <c r="E157" s="90"/>
+      <c r="F157" s="90"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="33">
@@ -60005,7 +60005,7 @@
         <v>1861</v>
       </c>
       <c r="E159" s="33">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F159" s="35">
         <v>234</v>
@@ -60065,7 +60065,7 @@
         <v>3424</v>
       </c>
       <c r="E162" s="33">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="F162" s="35">
         <v>686</v>
@@ -60245,7 +60245,7 @@
         <v>3436</v>
       </c>
       <c r="E171" s="33">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F171" s="35">
         <v>649</v>
@@ -60265,7 +60265,7 @@
         <v>3437</v>
       </c>
       <c r="E172" s="33">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F172" s="35">
         <v>759</v>
@@ -60413,13 +60413,13 @@
       <c r="A180" s="33">
         <v>203</v>
       </c>
-      <c r="B180" s="88" t="s">
+      <c r="B180" s="90" t="s">
         <v>3366</v>
       </c>
-      <c r="C180" s="88"/>
-      <c r="D180" s="88"/>
-      <c r="E180" s="88"/>
-      <c r="F180" s="88"/>
+      <c r="C180" s="90"/>
+      <c r="D180" s="90"/>
+      <c r="E180" s="90"/>
+      <c r="F180" s="90"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="33">
@@ -60475,7 +60475,7 @@
         <v>320</v>
       </c>
       <c r="E183" s="33">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F183" s="35" t="s">
         <v>2846</v>
@@ -60555,7 +60555,7 @@
         <v>2250</v>
       </c>
       <c r="E187" s="33">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="F187" s="35">
         <v>229</v>
@@ -60595,7 +60595,7 @@
         <v>3449</v>
       </c>
       <c r="E189" s="33">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="F189" s="33" t="s">
         <v>3034</v>
@@ -60653,7 +60653,7 @@
       </c>
       <c r="D192" s="33"/>
       <c r="E192" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F192" s="53">
         <v>628</v>
@@ -60671,7 +60671,7 @@
         <v>2808</v>
       </c>
       <c r="E193" s="42">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F193" s="35">
         <v>170</v>
@@ -60785,7 +60785,7 @@
         <v>3456</v>
       </c>
       <c r="E199" s="33">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F199" s="35">
         <v>155</v>
@@ -60965,7 +60965,7 @@
         <v>3464</v>
       </c>
       <c r="E208" s="33">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F208" s="35">
         <v>345</v>
@@ -60991,13 +60991,13 @@
       <c r="A210" s="33">
         <v>237</v>
       </c>
-      <c r="B210" s="88" t="s">
+      <c r="B210" s="90" t="s">
         <v>3367</v>
       </c>
-      <c r="C210" s="88"/>
-      <c r="D210" s="88"/>
-      <c r="E210" s="88"/>
-      <c r="F210" s="88"/>
+      <c r="C210" s="90"/>
+      <c r="D210" s="90"/>
+      <c r="E210" s="90"/>
+      <c r="F210" s="90"/>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="33">
@@ -61033,7 +61033,7 @@
         <v>3465</v>
       </c>
       <c r="E212" s="33">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F212" s="35">
         <v>833</v>
@@ -61093,7 +61093,7 @@
         <v>3469</v>
       </c>
       <c r="E215" s="33">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F215" s="33">
         <v>330</v>
@@ -61253,7 +61253,7 @@
         <v>3475</v>
       </c>
       <c r="E223" s="33">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F223" s="33">
         <v>237</v>
@@ -61413,7 +61413,7 @@
         <v>3483</v>
       </c>
       <c r="E231" s="33">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F231" s="35">
         <v>353</v>
@@ -62079,13 +62079,13 @@
       <c r="A265" s="33">
         <v>299</v>
       </c>
-      <c r="B265" s="88" t="s">
+      <c r="B265" s="90" t="s">
         <v>3368</v>
       </c>
-      <c r="C265" s="88"/>
-      <c r="D265" s="88"/>
-      <c r="E265" s="88"/>
-      <c r="F265" s="88"/>
+      <c r="C265" s="90"/>
+      <c r="D265" s="90"/>
+      <c r="E265" s="90"/>
+      <c r="F265" s="90"/>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="33">
@@ -62537,7 +62537,8 @@
       <c r="F289" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J289" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:J289"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1045">
       <selection activeCell="D1055" sqref="D1055"/>
@@ -62561,12 +62562,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -63649,7 +63650,7 @@
         <v>1945</v>
       </c>
       <c r="E59" s="62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" s="4">
         <v>2470</v>
@@ -63689,7 +63690,7 @@
         <v>346</v>
       </c>
       <c r="E61" s="62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" s="4">
         <v>2214</v>
@@ -64070,7 +64071,8 @@
       <c r="E93"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F79" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:F79"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A503">
       <selection activeCell="E514" sqref="E514"/>
@@ -64083,12 +64085,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64154,7 +64156,7 @@
         <v>290</v>
       </c>
       <c r="E3" s="35">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="33">
         <v>1465</v>
@@ -64552,7 +64554,7 @@
         <v>2082</v>
       </c>
       <c r="E24" s="35">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F24" s="33"/>
     </row>
@@ -64886,7 +64888,8 @@
       <c r="F43" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F43" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:F43"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="120" topLeftCell="A217">
       <selection activeCell="C224" sqref="C224"/>
@@ -64899,12 +64902,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64940,13 +64943,13 @@
       <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="91" t="s">
         <v>2198</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" t="s">
         <v>2676</v>
       </c>
@@ -65071,7 +65074,7 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="35">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>2823</v>
@@ -65125,7 +65128,7 @@
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="35">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="F12" s="33">
         <v>155</v>
@@ -65146,7 +65149,7 @@
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="35">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F13" s="33">
         <v>195</v>
@@ -65785,13 +65788,13 @@
       <c r="A50" s="33">
         <v>49</v>
       </c>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="91" t="s">
         <v>3513</v>
       </c>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
     </row>
     <row r="51" spans="1:7" ht="15.95" customHeight="1">
       <c r="A51" s="33">
@@ -65807,7 +65810,7 @@
         <v>2291</v>
       </c>
       <c r="E51" s="35">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F51" s="33">
         <v>6418</v>
@@ -65880,23 +65883,23 @@
       <c r="A55" s="33">
         <v>54</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="91" t="s">
         <v>2282</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
     </row>
     <row r="56" spans="1:7" ht="15.95" customHeight="1">
       <c r="A56" s="33">
         <v>55</v>
       </c>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="91"/>
     </row>
     <row r="57" spans="1:7" ht="15.95" customHeight="1">
       <c r="A57" s="33">
@@ -65962,13 +65965,13 @@
       <c r="A60" s="33">
         <v>59</v>
       </c>
-      <c r="B60" s="89" t="s">
+      <c r="B60" s="91" t="s">
         <v>446</v>
       </c>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="33">
@@ -66909,7 +66912,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G119" xr:uid="{00000000-0001-0000-0800-000000000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:G119"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="116" topLeftCell="A1179">
       <selection activeCell="F1188" sqref="F1188"/>

--- a/public/BOSCH_STOCK1.xlsx
+++ b/public/BOSCH_STOCK1.xlsx
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'ALTERNATOR PARTS'!$A$1:$I$292</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'BRAKE PAD'!$A$1:$F$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'BRAKE PAD'!$A$1:$F$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'BULB,FANBELT,HORN'!$A$1:$G$119</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">COMPONENTS!$A$1:$H$376</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DELIVERY VALVE&amp;O.H.KIT'!$A$1:$H$129</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5774" uniqueCount="3589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5777" uniqueCount="3591">
   <si>
     <t>0 433 175 443</t>
   </si>
@@ -10917,6 +10917,12 @@
   </si>
   <si>
     <t>F 002 G40 535</t>
+  </si>
+  <si>
+    <t>H28 081</t>
+  </si>
+  <si>
+    <t>SANTRO NEW</t>
   </si>
 </sst>
 </file>
@@ -12181,8 +12187,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12902,7 +12908,7 @@
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>2654</v>
@@ -15560,7 +15566,7 @@
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F162" s="17"/>
       <c r="G162" s="17"/>
@@ -16089,8 +16095,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView topLeftCell="A225" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+    <sheetView topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16161,7 +16167,7 @@
         <v>1826</v>
       </c>
       <c r="E3" s="75">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F3" s="74">
         <v>1974</v>
@@ -16205,7 +16211,7 @@
         <v>3521</v>
       </c>
       <c r="E5" s="75">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F5" s="74">
         <v>2443</v>
@@ -16437,7 +16443,7 @@
         <v>2707</v>
       </c>
       <c r="E16" s="75">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="F16" s="74">
         <v>132</v>
@@ -17519,7 +17525,7 @@
         <v>412</v>
       </c>
       <c r="E73" s="75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F73" s="74">
         <v>1530</v>
@@ -18775,7 +18781,7 @@
       </c>
       <c r="D138" s="74"/>
       <c r="E138" s="75">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F138" s="74" t="s">
         <v>2767</v>
@@ -18855,7 +18861,7 @@
         <v>822</v>
       </c>
       <c r="E142" s="75">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F142" s="74">
         <v>746</v>
@@ -19103,7 +19109,7 @@
         <v>3526</v>
       </c>
       <c r="E154" s="75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" s="74">
         <v>1295</v>
@@ -20665,7 +20671,7 @@
         <v>779</v>
       </c>
       <c r="E231" s="75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F231" s="74">
         <v>11496</v>
@@ -21095,7 +21101,7 @@
         <v>2690</v>
       </c>
       <c r="E251" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F251" s="74">
         <v>14714</v>
@@ -21513,7 +21519,7 @@
       </c>
       <c r="D270" s="74"/>
       <c r="E270" s="75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F270" s="74">
         <v>898</v>
@@ -22024,8 +22030,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H1391"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22137,7 +22143,7 @@
         <v>3529</v>
       </c>
       <c r="E5" s="71">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F5" s="70">
         <v>167</v>
@@ -22159,7 +22165,7 @@
         <v>3530</v>
       </c>
       <c r="E6" s="71">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F6" s="70">
         <v>182</v>
@@ -22183,7 +22189,7 @@
         <v>3531</v>
       </c>
       <c r="E7" s="71">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="F7" s="70">
         <v>198</v>
@@ -22229,7 +22235,7 @@
         <v>3533</v>
       </c>
       <c r="E9" s="71">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="F9" s="70">
         <v>219</v>
@@ -22251,7 +22257,7 @@
         <v>3534</v>
       </c>
       <c r="E10" s="71">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F10" s="70">
         <v>225</v>
@@ -22275,7 +22281,7 @@
         <v>3535</v>
       </c>
       <c r="E11" s="71">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="F11" s="70">
         <v>242</v>
@@ -22299,7 +22305,7 @@
         <v>3536</v>
       </c>
       <c r="E12" s="71">
-        <v>1166</v>
+        <v>1116</v>
       </c>
       <c r="F12" s="70">
         <v>254</v>
@@ -31182,8 +31188,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H310"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -31439,7 +31445,7 @@
         <v>1303</v>
       </c>
       <c r="E12" s="19">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F12" s="17">
         <v>2698</v>
@@ -31670,7 +31676,7 @@
         <v>1314</v>
       </c>
       <c r="E23" s="19">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="F23" s="17">
         <v>446</v>
@@ -32088,7 +32094,7 @@
         <v>1331</v>
       </c>
       <c r="E43" s="19">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F43" s="17">
         <v>247</v>
@@ -32272,7 +32278,7 @@
         <v>3044</v>
       </c>
       <c r="E53" s="19">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="32" t="s">
@@ -33079,11 +33085,11 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33289,7 +33295,7 @@
         <v>2400</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>1604</v>
@@ -33329,7 +33335,7 @@
         <v>2402</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>1387</v>
@@ -33449,7 +33455,7 @@
         <v>3033</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>628</v>
@@ -33789,7 +33795,7 @@
         <v>836</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>886</v>
@@ -33889,7 +33895,7 @@
         <v>2424</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F40">
         <v>944</v>
@@ -33969,7 +33975,7 @@
         <v>2430</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44">
         <v>1028</v>
@@ -34209,7 +34215,7 @@
         <v>2499</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56">
         <v>1476</v>
@@ -34501,436 +34507,439 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="22">
-        <v>72</v>
-      </c>
-      <c r="B72" s="95"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="95"/>
-      <c r="E72" s="95"/>
-      <c r="F72" s="95"/>
+      <c r="B72" s="6" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3557</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3590</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>883</v>
+      </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="22">
+        <v>72</v>
+      </c>
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="95"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="22">
         <v>73</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B74" s="6">
         <v>378</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>3558</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>3559</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
         <v>1182</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="6">
+    <row r="75" spans="1:6">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B75" s="6">
         <v>892</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>3560</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>3561</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="22">
-        <v>75</v>
-      </c>
-      <c r="B75" s="6">
-        <v>202</v>
-      </c>
-      <c r="C75" t="s">
-        <v>3562</v>
-      </c>
-      <c r="D75" t="s">
-        <v>3563</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>1151</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="22">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6">
+        <v>202</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3563</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="22">
         <v>76</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B77" s="6">
         <v>28</v>
-      </c>
-      <c r="C76" t="s">
-        <v>3560</v>
-      </c>
-      <c r="D76" t="s">
-        <v>3564</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-      <c r="F76">
-        <v>2678</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="6">
-        <v>77</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>2635</v>
       </c>
       <c r="C77" t="s">
         <v>3560</v>
       </c>
       <c r="D77" t="s">
+        <v>3564</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D78" t="s">
         <v>3565</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="22">
-        <v>78</v>
-      </c>
-      <c r="B78" s="6">
-        <v>318026</v>
-      </c>
-      <c r="C78" t="s">
-        <v>3566</v>
-      </c>
-      <c r="D78" t="s">
-        <v>836</v>
-      </c>
       <c r="E78">
-        <v>3</v>
-      </c>
-      <c r="F78">
-        <v>3625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="22">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6">
+        <v>318026</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3566</v>
+      </c>
+      <c r="D79" t="s">
+        <v>836</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="22">
         <v>79</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B80" s="6" t="s">
         <v>3038</v>
-      </c>
-      <c r="C79" t="s">
-        <v>3567</v>
-      </c>
-      <c r="D79" t="s">
-        <v>3568</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="6">
-        <v>80</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>2869</v>
       </c>
       <c r="C80" t="s">
         <v>3567</v>
       </c>
       <c r="D80" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F80">
         <v>489</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="22">
-        <v>81</v>
+      <c r="A81" s="6">
+        <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>2934</v>
+        <v>2869</v>
       </c>
       <c r="C81" t="s">
-        <v>3570</v>
+        <v>3567</v>
       </c>
       <c r="D81" t="s">
-        <v>1859</v>
+        <v>3569</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F81">
-        <v>593</v>
+        <v>489</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="22">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>3041</v>
+        <v>2934</v>
       </c>
       <c r="C82" t="s">
         <v>3570</v>
       </c>
       <c r="D82" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="22">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D83" t="s">
         <v>683</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <v>5</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="6">
+    <row r="84" spans="1:6">
+      <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B83" s="95"/>
-      <c r="C83" s="95"/>
-      <c r="D83" s="95"/>
-      <c r="E83" s="95"/>
-      <c r="F83" s="95"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="22">
-        <v>84</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>2630</v>
-      </c>
-      <c r="C84" t="s">
-        <v>3571</v>
-      </c>
-      <c r="D84" t="s">
-        <v>3572</v>
-      </c>
-      <c r="E84">
-        <v>21</v>
-      </c>
-      <c r="F84">
-        <v>365</v>
-      </c>
+      <c r="B84" s="95"/>
+      <c r="C84" s="95"/>
+      <c r="D84" s="95"/>
+      <c r="E84" s="95"/>
+      <c r="F84" s="95"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="22">
-        <v>85</v>
-      </c>
-      <c r="B85" s="6">
-        <v>963</v>
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>2630</v>
       </c>
       <c r="C85" t="s">
         <v>3571</v>
       </c>
       <c r="D85" t="s">
+        <v>3572</v>
+      </c>
+      <c r="E85">
+        <v>21</v>
+      </c>
+      <c r="F85">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="22">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6">
+        <v>963</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3571</v>
+      </c>
+      <c r="D86" t="s">
         <v>3573</v>
       </c>
-      <c r="E85">
+      <c r="E86">
         <v>1</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <v>1196</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="6">
+    <row r="87" spans="1:6">
+      <c r="A87" s="6">
         <v>86</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B87" s="6">
         <v>671</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>3574</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>3575</v>
       </c>
-      <c r="E86">
+      <c r="E87">
         <v>10</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <v>677</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="22">
-        <v>87</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>2838</v>
-      </c>
-      <c r="C87" t="s">
-        <v>3571</v>
-      </c>
-      <c r="D87" t="s">
-        <v>2422</v>
-      </c>
-      <c r="E87">
-        <v>2</v>
-      </c>
-      <c r="F87">
-        <v>1262</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="22">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3571</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="22">
         <v>88</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B89" s="6" t="s">
         <v>3086</v>
-      </c>
-      <c r="C88" t="s">
-        <v>3162</v>
-      </c>
-      <c r="D88" t="s">
-        <v>836</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="6">
-        <v>89</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>3087</v>
       </c>
       <c r="C89" t="s">
         <v>3162</v>
       </c>
       <c r="D89" t="s">
+        <v>836</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3162</v>
+      </c>
+      <c r="D90" t="s">
         <v>3576</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>3</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>862</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="22">
-        <v>90</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>3088</v>
-      </c>
-      <c r="C90" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D90" t="s">
-        <v>3578</v>
-      </c>
-      <c r="E90">
-        <v>2</v>
-      </c>
-      <c r="F90">
-        <v>806</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="22">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3577</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3578</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="22">
         <v>91</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B92" s="6">
         <v>8001</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>3579</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>3580</v>
       </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="6">
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B93" s="6" t="s">
         <v>3155</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>3581</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>3582</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <v>10</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>377</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="22">
-        <v>93</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>3158</v>
-      </c>
-      <c r="C93" t="s">
-        <v>3583</v>
-      </c>
-      <c r="D93" t="s">
-        <v>3584</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="22">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3584</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="22">
         <v>94</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B95" s="6">
         <v>689</v>
-      </c>
-      <c r="C94" t="s">
-        <v>3162</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="6">
-        <v>95</v>
-      </c>
-      <c r="B95" s="6">
-        <v>663</v>
       </c>
       <c r="C95" t="s">
         <v>3162</v>
@@ -34940,11 +34949,11 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="22">
-        <v>96</v>
+      <c r="A96" s="6">
+        <v>95</v>
       </c>
       <c r="B96" s="6">
-        <v>821</v>
+        <v>663</v>
       </c>
       <c r="C96" t="s">
         <v>3162</v>
@@ -34955,27 +34964,41 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="22">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6">
+        <v>821</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3162</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="22">
         <v>97</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B98" s="6" t="s">
         <v>2575</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>3585</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" t="s">
         <v>3586</v>
       </c>
-      <c r="E97">
+      <c r="E98">
         <v>1</v>
       </c>
-      <c r="F97">
+      <c r="F98">
         <v>1054</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F97"/>
+  <autoFilter ref="A1:F98"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}">
       <selection activeCell="A2" sqref="A2"/>
@@ -34983,8 +35006,8 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B84:F84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35858,8 +35881,8 @@
   </sheetPr>
   <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView topLeftCell="A291" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36460,7 +36483,7 @@
         <v>5638</v>
       </c>
       <c r="E33" s="10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F33" s="9"/>
     </row>
@@ -41291,8 +41314,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H772"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView topLeftCell="A91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43054,7 +43077,7 @@
       <c r="C97" s="33"/>
       <c r="D97" s="38"/>
       <c r="E97" s="35">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F97" s="33"/>
       <c r="H97" t="s">
@@ -44970,7 +44993,7 @@
   <dimension ref="A1:H478"/>
   <sheetViews>
     <sheetView topLeftCell="A309" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D313" sqref="D313"/>
+      <selection activeCell="D317" sqref="D317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45698,7 +45721,7 @@
       </c>
       <c r="D43" s="33"/>
       <c r="E43" s="35">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F43" s="33">
         <v>154</v>
@@ -49849,7 +49872,7 @@
       </c>
       <c r="D295" s="33"/>
       <c r="E295" s="35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F295" s="33">
         <v>696</v>
@@ -50212,7 +50235,7 @@
       </c>
       <c r="D316" s="33"/>
       <c r="E316" s="35">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F316" s="33">
         <v>865</v>
@@ -50448,7 +50471,7 @@
         <v>2421</v>
       </c>
       <c r="E329" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F329" s="33">
         <v>6082</v>
@@ -51434,8 +51457,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G571"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView topLeftCell="A124" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53134,7 +53157,7 @@
         <v>2707</v>
       </c>
       <c r="E98" s="56">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F98" s="56">
         <v>1320</v>
@@ -53343,7 +53366,7 @@
         <v>2707</v>
       </c>
       <c r="E110" s="56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F110" s="35">
         <v>986</v>
@@ -53714,7 +53737,7 @@
         <v>2702</v>
       </c>
       <c r="E131" s="56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F131" s="35" t="s">
         <v>3140</v>
@@ -53815,7 +53838,7 @@
         <v>518894</v>
       </c>
       <c r="E136" s="56">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F136" s="35" t="s">
         <v>2728</v>
@@ -53856,7 +53879,7 @@
         <v>3353</v>
       </c>
       <c r="E138" s="56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F138" s="35">
         <v>1546</v>
@@ -54014,7 +54037,7 @@
         <v>2703</v>
       </c>
       <c r="E147" s="56">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F147" s="35">
         <v>554</v>
@@ -54287,7 +54310,7 @@
         <v>3356</v>
       </c>
       <c r="E161" s="56">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F161" s="35" t="s">
         <v>3141</v>
@@ -54619,7 +54642,7 @@
         <v>2707</v>
       </c>
       <c r="E179" s="56">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F179" s="35">
         <v>681</v>
@@ -54760,7 +54783,7 @@
         <v>2712</v>
       </c>
       <c r="E186" s="56">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F186" s="35" t="s">
         <v>3134</v>
@@ -54794,7 +54817,7 @@
       </c>
       <c r="D188" s="33"/>
       <c r="E188" s="56">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F188" s="35">
         <v>1457</v>
@@ -54850,7 +54873,7 @@
         <v>2707</v>
       </c>
       <c r="E191" s="56">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F191" s="35">
         <v>1106</v>
@@ -55112,7 +55135,7 @@
         <v>2707</v>
       </c>
       <c r="E205" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" s="35">
         <v>1199</v>
@@ -55366,7 +55389,7 @@
         <v>2735</v>
       </c>
       <c r="E219" s="56">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F219" s="35">
         <v>845</v>
@@ -57117,8 +57140,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121:F121"/>
+    <sheetView topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57269,7 +57292,7 @@
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F8" s="35">
         <v>131</v>
@@ -57287,7 +57310,7 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F9" s="35">
         <v>193</v>
@@ -57400,7 +57423,7 @@
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="35">
         <v>400</v>
@@ -57418,7 +57441,7 @@
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="35">
         <v>396</v>
@@ -57510,7 +57533,7 @@
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="F21" s="35">
         <v>363</v>
@@ -57752,7 +57775,7 @@
         <v>3375</v>
       </c>
       <c r="E34" s="60">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F34" s="35">
         <v>1118</v>
@@ -58110,7 +58133,7 @@
       </c>
       <c r="D54" s="33"/>
       <c r="E54" s="33">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F54" s="35">
         <v>276</v>
@@ -58146,7 +58169,7 @@
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="33">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F56" s="35">
         <v>260</v>
@@ -58438,7 +58461,7 @@
         <v>3386</v>
       </c>
       <c r="E73" s="42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F73" s="35">
         <v>415</v>
@@ -58951,7 +58974,7 @@
         <v>240</v>
       </c>
       <c r="E101" s="33">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F101" s="35">
         <v>407</v>
@@ -60065,7 +60088,7 @@
         <v>3422</v>
       </c>
       <c r="E162" s="33">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F162" s="35">
         <v>686</v>
@@ -60085,7 +60108,7 @@
         <v>3423</v>
       </c>
       <c r="E163" s="60">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F163" s="33">
         <v>868</v>
@@ -60145,7 +60168,7 @@
         <v>2555</v>
       </c>
       <c r="E166" s="33">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F166" s="35" t="s">
         <v>2944</v>
@@ -60555,7 +60578,7 @@
         <v>2248</v>
       </c>
       <c r="E187" s="33">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="F187" s="35">
         <v>229</v>
@@ -60595,7 +60618,7 @@
         <v>3447</v>
       </c>
       <c r="E189" s="33">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F189" s="33" t="s">
         <v>3032</v>
@@ -61073,7 +61096,7 @@
         <v>3466</v>
       </c>
       <c r="E214" s="33">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F214" s="33">
         <v>311</v>
@@ -61871,7 +61894,7 @@
         <v>2426</v>
       </c>
       <c r="E254" s="33">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F254" s="35">
         <v>761</v>
@@ -61909,7 +61932,7 @@
       </c>
       <c r="D256" s="33"/>
       <c r="E256" s="33">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F256" s="35">
         <v>412</v>
@@ -62566,7 +62589,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -64089,8 +64112,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="B30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64454,7 +64477,7 @@
         <v>2974</v>
       </c>
       <c r="E19" s="35">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F19" s="33">
         <v>338</v>
@@ -64830,7 +64853,7 @@
         <v>3153</v>
       </c>
       <c r="E40" s="35">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F40" s="33">
         <v>153</v>
@@ -64903,8 +64926,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -65952,7 +65975,7 @@
         <v>2815</v>
       </c>
       <c r="E59" s="35">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F59" s="33">
         <v>270</v>
@@ -66884,7 +66907,7 @@
         <v>2337</v>
       </c>
       <c r="E118" s="35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F118" s="33">
         <v>1125</v>

--- a/public/BOSCH_STOCK1.xlsx
+++ b/public/BOSCH_STOCK1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="12240" windowHeight="9240" tabRatio="730"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="12240" windowHeight="9240" tabRatio="730" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ELEMENT" sheetId="1" r:id="rId1"/>
@@ -12187,7 +12187,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -16095,8 +16095,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" topLeftCell="B239" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F239" sqref="F239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16303,7 +16303,7 @@
         <v>1893</v>
       </c>
       <c r="E9" s="75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="74">
         <v>3022</v>
@@ -20837,7 +20837,7 @@
         <v>2442</v>
       </c>
       <c r="E239" s="75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239" s="74">
         <v>10920</v>
@@ -20859,7 +20859,7 @@
         <v>2443</v>
       </c>
       <c r="E240" s="75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240" s="74">
         <v>12511</v>
@@ -21057,7 +21057,7 @@
         <v>1751</v>
       </c>
       <c r="E249" s="75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249" s="74">
         <v>9915</v>
@@ -21167,7 +21167,7 @@
         <v>1354</v>
       </c>
       <c r="E254" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F254" s="74">
         <v>10094</v>
@@ -21561,7 +21561,7 @@
         <v>1573</v>
       </c>
       <c r="E272" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F272" s="74">
         <v>9474</v>
@@ -21980,7 +21980,6 @@
       <c r="H292" s="74"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:I292"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1208">
@@ -22030,8 +22029,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H1391"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22353,7 +22352,7 @@
         <v>3536</v>
       </c>
       <c r="E14" s="71">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F14" s="70">
         <v>351</v>
@@ -31188,8 +31187,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H310"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -31424,7 +31423,7 @@
         <v>1303</v>
       </c>
       <c r="E11" s="19">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" s="17">
         <v>1826</v>
@@ -31445,7 +31444,7 @@
         <v>1303</v>
       </c>
       <c r="E12" s="19">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F12" s="17">
         <v>2698</v>
@@ -31571,7 +31570,7 @@
         <v>1297</v>
       </c>
       <c r="E18" s="19">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="17">
         <v>2881</v>
@@ -31739,7 +31738,7 @@
         <v>2377</v>
       </c>
       <c r="E26" s="19">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F26" s="17">
         <v>724</v>
@@ -31760,7 +31759,7 @@
         <v>2377</v>
       </c>
       <c r="E27" s="19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="17">
         <v>1808</v>
@@ -31802,7 +31801,7 @@
         <v>2374</v>
       </c>
       <c r="E29" s="19">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F29" s="17">
         <v>1709</v>
@@ -32435,7 +32434,7 @@
         <v>2840</v>
       </c>
       <c r="E60" s="84">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F60" s="32">
         <v>2492</v>
@@ -33088,8 +33087,8 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35881,8 +35880,8 @@
   </sheetPr>
   <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A220" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40447,7 +40446,7 @@
         <v>1584</v>
       </c>
       <c r="E231" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F231" s="9"/>
       <c r="G231" t="s">
@@ -44993,7 +44992,7 @@
   <dimension ref="A1:H478"/>
   <sheetViews>
     <sheetView topLeftCell="A309" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C315" sqref="C315"/>
+      <selection activeCell="D312" sqref="D312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51457,8 +51456,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G571"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="B167" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52584,7 +52583,7 @@
         <v>1506</v>
       </c>
       <c r="E66" s="56">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F66" s="35">
         <v>325</v>
@@ -54270,7 +54269,7 @@
         <v>2700</v>
       </c>
       <c r="E159" s="56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F159" s="35">
         <v>1352</v>
@@ -54416,7 +54415,7 @@
         <v>2708</v>
       </c>
       <c r="E167" s="56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F167" s="35">
         <v>2872</v>
@@ -54682,7 +54681,7 @@
         <v>2706</v>
       </c>
       <c r="E181" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F181" s="35">
         <v>1281</v>
@@ -55389,7 +55388,7 @@
         <v>2734</v>
       </c>
       <c r="E219" s="56">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F219" s="35">
         <v>845</v>
@@ -57109,7 +57108,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:G231"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1207">
@@ -57140,8 +57138,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57310,7 +57308,7 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33">
-        <v>319</v>
+        <v>469</v>
       </c>
       <c r="F9" s="35">
         <v>193</v>
@@ -58169,7 +58167,7 @@
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="33">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="F56" s="35">
         <v>260</v>
@@ -58499,7 +58497,7 @@
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="33">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="F75" s="35">
         <v>239</v>
@@ -58535,7 +58533,7 @@
       </c>
       <c r="D77" s="33"/>
       <c r="E77" s="33">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="F77" s="35">
         <v>253</v>
@@ -58699,7 +58697,7 @@
         <v>3393</v>
       </c>
       <c r="E86" s="33">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F86" s="33">
         <v>330</v>
@@ -58862,7 +58860,7 @@
       </c>
       <c r="D95" s="33"/>
       <c r="E95" s="33">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F95" s="35">
         <v>288</v>
@@ -58934,7 +58932,7 @@
         <v>1910</v>
       </c>
       <c r="E99" s="33">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F99" s="35" t="s">
         <v>2953</v>
@@ -59130,7 +59128,7 @@
         <v>1573</v>
       </c>
       <c r="E109" s="33">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F109" s="35">
         <v>494</v>
@@ -60028,7 +60026,7 @@
         <v>1859</v>
       </c>
       <c r="E159" s="33">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F159" s="35">
         <v>234</v>
@@ -60088,7 +60086,7 @@
         <v>3420</v>
       </c>
       <c r="E162" s="33">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F162" s="35">
         <v>686</v>
@@ -60108,7 +60106,7 @@
         <v>3421</v>
       </c>
       <c r="E163" s="60">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F163" s="33">
         <v>868</v>
@@ -60268,7 +60266,7 @@
         <v>3432</v>
       </c>
       <c r="E171" s="33">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F171" s="35">
         <v>649</v>
@@ -60288,7 +60286,7 @@
         <v>3433</v>
       </c>
       <c r="E172" s="33">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F172" s="35">
         <v>759</v>
@@ -60426,7 +60424,7 @@
         <v>3440</v>
       </c>
       <c r="E179" s="33">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F179" s="35">
         <v>1004</v>
@@ -60538,7 +60536,7 @@
         <v>3443</v>
       </c>
       <c r="E185" s="33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F185" s="35">
         <v>627</v>
@@ -60598,7 +60596,7 @@
         <v>3444</v>
       </c>
       <c r="E188" s="33">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F188" s="35" t="s">
         <v>2792</v>
@@ -60618,7 +60616,7 @@
         <v>3445</v>
       </c>
       <c r="E189" s="33">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="F189" s="33" t="s">
         <v>3030</v>
@@ -60638,7 +60636,7 @@
         <v>3447</v>
       </c>
       <c r="E190" s="33">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F190" s="35">
         <v>268</v>
@@ -60694,7 +60692,7 @@
         <v>2804</v>
       </c>
       <c r="E193" s="42">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="F193" s="35">
         <v>170</v>
@@ -60750,7 +60748,7 @@
         <v>3450</v>
       </c>
       <c r="E196" s="33">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F196" s="35">
         <v>304</v>
@@ -60908,7 +60906,7 @@
         <v>3456</v>
       </c>
       <c r="E204" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F204" s="35">
         <v>622</v>
@@ -60988,7 +60986,7 @@
         <v>3460</v>
       </c>
       <c r="E208" s="33">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F208" s="35">
         <v>345</v>
@@ -61756,7 +61754,7 @@
         <v>3494</v>
       </c>
       <c r="E247" s="33">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F247" s="35">
         <v>830</v>
@@ -62560,7 +62558,6 @@
       <c r="F289" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:J289"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1045">
@@ -64112,8 +64109,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="B12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/public/BOSCH_STOCK1.xlsx
+++ b/public/BOSCH_STOCK1.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5777" uniqueCount="3591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5776" uniqueCount="3590">
   <si>
     <t>0 433 175 443</t>
   </si>
@@ -8604,9 +8604,6 @@
   </si>
   <si>
     <t>1 986 S00 233</t>
-  </si>
-  <si>
-    <t>178/186</t>
   </si>
   <si>
     <t>476/459</t>
@@ -12187,8 +12184,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J440"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A161" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12212,10 +12209,10 @@
         <v>2379</v>
       </c>
       <c r="C1" s="85" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>3162</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>3163</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>1982</v>
@@ -12232,7 +12229,7 @@
         <v>197</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="19">
@@ -12253,7 +12250,7 @@
         <v>1357</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="19">
@@ -12272,7 +12269,7 @@
         <v>198</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="19">
@@ -12293,7 +12290,7 @@
         <v>199</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="19">
@@ -12314,7 +12311,7 @@
         <v>200</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="19">
@@ -12335,7 +12332,7 @@
         <v>201</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="19">
@@ -12356,7 +12353,7 @@
         <v>202</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="19">
@@ -12379,7 +12376,7 @@
         <v>203</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="19">
@@ -12400,7 +12397,7 @@
         <v>204</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="19">
@@ -12419,7 +12416,7 @@
         <v>205</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="19">
@@ -12438,7 +12435,7 @@
         <v>206</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>1938</v>
@@ -12463,7 +12460,7 @@
         <v>207</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="19">
@@ -12484,7 +12481,7 @@
         <v>208</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="19">
@@ -12505,7 +12502,7 @@
         <v>209</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="19">
@@ -12526,7 +12523,7 @@
         <v>210</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="19">
@@ -12545,7 +12542,7 @@
         <v>211</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="19">
@@ -12566,7 +12563,7 @@
         <v>212</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="19">
@@ -12587,7 +12584,7 @@
         <v>213</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="19">
@@ -12610,7 +12607,7 @@
         <v>214</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="19">
@@ -12631,7 +12628,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="19">
@@ -12650,7 +12647,7 @@
         <v>381</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="19">
@@ -12671,7 +12668,7 @@
         <v>382</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="19">
@@ -12692,7 +12689,7 @@
         <v>383</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="19">
@@ -12713,7 +12710,7 @@
         <v>384</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="19">
@@ -12734,7 +12731,7 @@
         <v>385</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="19">
@@ -12757,7 +12754,7 @@
         <v>386</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="19">
@@ -12778,7 +12775,7 @@
         <v>387</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="19">
@@ -12799,7 +12796,7 @@
         <v>388</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="19">
@@ -12820,7 +12817,7 @@
         <v>389</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="19">
@@ -12841,7 +12838,7 @@
         <v>390</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="19">
@@ -12862,7 +12859,7 @@
         <v>391</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="19">
@@ -12883,7 +12880,7 @@
         <v>392</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="19">
@@ -12904,7 +12901,7 @@
         <v>393</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="19">
@@ -12927,7 +12924,7 @@
         <v>394</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="19">
@@ -12948,7 +12945,7 @@
         <v>395</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="19">
@@ -12969,7 +12966,7 @@
         <v>1455</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="19">
@@ -12990,7 +12987,7 @@
         <v>396</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="19">
@@ -13011,7 +13008,7 @@
         <v>397</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="19">
@@ -13032,7 +13029,7 @@
         <v>455</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="19">
@@ -13053,7 +13050,7 @@
         <v>1640</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="19">
@@ -13072,7 +13069,7 @@
         <v>456</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="19">
@@ -13093,7 +13090,7 @@
         <v>1378</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="19">
@@ -13114,7 +13111,7 @@
         <v>457</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="19">
@@ -13135,7 +13132,7 @@
         <v>1434</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="19">
@@ -13156,7 +13153,7 @@
         <v>458</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="19">
@@ -13177,7 +13174,7 @@
         <v>459</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="19">
@@ -13198,7 +13195,7 @@
         <v>460</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="19">
@@ -13219,7 +13216,7 @@
         <v>461</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="19">
@@ -13238,7 +13235,7 @@
         <v>1482</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="19">
@@ -13259,7 +13256,7 @@
         <v>462</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="19">
@@ -13280,7 +13277,7 @@
         <v>463</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="19">
@@ -13303,7 +13300,7 @@
         <v>464</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="19">
@@ -13326,7 +13323,7 @@
         <v>465</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="19">
@@ -13347,7 +13344,7 @@
         <v>466</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="19">
@@ -13368,7 +13365,7 @@
         <v>467</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="19">
@@ -13389,7 +13386,7 @@
         <v>468</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="19">
@@ -13410,7 +13407,7 @@
         <v>469</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="19">
@@ -13431,7 +13428,7 @@
         <v>470</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="19">
@@ -13452,7 +13449,7 @@
         <v>471</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="19">
@@ -13473,7 +13470,7 @@
         <v>472</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="19">
@@ -13494,7 +13491,7 @@
         <v>473</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="19">
@@ -13517,7 +13514,7 @@
         <v>474</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="19">
@@ -13538,7 +13535,7 @@
         <v>475</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="19">
@@ -13559,7 +13556,7 @@
         <v>476</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="19">
@@ -13580,7 +13577,7 @@
         <v>477</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="19">
@@ -13599,7 +13596,7 @@
         <v>478</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="19">
@@ -13620,7 +13617,7 @@
         <v>479</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="19">
@@ -13641,7 +13638,7 @@
         <v>480</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="19">
@@ -13662,7 +13659,7 @@
         <v>2592</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="19">
@@ -13683,7 +13680,7 @@
         <v>1617</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="19">
@@ -13702,7 +13699,7 @@
         <v>481</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="19">
@@ -13723,7 +13720,7 @@
         <v>1849</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="19">
@@ -13742,7 +13739,7 @@
         <v>2036</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="19">
@@ -13761,7 +13758,7 @@
         <v>482</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="19">
@@ -13782,7 +13779,7 @@
         <v>1647</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="19">
@@ -13801,7 +13798,7 @@
         <v>1747</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="19">
@@ -13820,7 +13817,7 @@
         <v>1780</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="19">
@@ -13839,7 +13836,7 @@
         <v>1830</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="19">
@@ -13858,7 +13855,7 @@
         <v>2252</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="19">
@@ -13877,7 +13874,7 @@
         <v>2139</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="19">
@@ -13896,7 +13893,7 @@
         <v>2626</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="19">
@@ -13915,7 +13912,7 @@
         <v>483</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="19">
@@ -13936,7 +13933,7 @@
         <v>484</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="19">
@@ -13959,7 +13956,7 @@
         <v>485</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="19">
@@ -13982,7 +13979,7 @@
         <v>486</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="19">
@@ -14003,7 +14000,7 @@
         <v>487</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="19">
@@ -14024,7 +14021,7 @@
         <v>488</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="19">
@@ -14043,7 +14040,7 @@
         <v>489</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="19">
@@ -14064,7 +14061,7 @@
         <v>490</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="19">
@@ -14085,7 +14082,7 @@
         <v>491</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="19">
@@ -14108,7 +14105,7 @@
         <v>492</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="19">
@@ -14129,7 +14126,7 @@
         <v>493</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="19">
@@ -14150,7 +14147,7 @@
         <v>494</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="19">
@@ -14169,7 +14166,7 @@
         <v>495</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="19">
@@ -14190,7 +14187,7 @@
         <v>496</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="19">
@@ -14211,7 +14208,7 @@
         <v>497</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="19">
@@ -14232,7 +14229,7 @@
         <v>498</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="19">
@@ -14253,7 +14250,7 @@
         <v>499</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="19">
@@ -14274,7 +14271,7 @@
         <v>500</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="19">
@@ -14297,7 +14294,7 @@
         <v>501</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="19">
@@ -14320,7 +14317,7 @@
         <v>502</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="19">
@@ -14341,7 +14338,7 @@
         <v>503</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="19">
@@ -14364,7 +14361,7 @@
         <v>2259</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="19">
@@ -14383,7 +14380,7 @@
         <v>504</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="19">
@@ -14404,7 +14401,7 @@
         <v>505</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="19">
@@ -14425,7 +14422,7 @@
         <v>506</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="19">
@@ -14448,7 +14445,7 @@
         <v>507</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="19">
@@ -14469,7 +14466,7 @@
         <v>508</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="19">
@@ -14492,7 +14489,7 @@
         <v>1740</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="19">
@@ -14511,11 +14508,11 @@
         <v>509</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
@@ -14532,7 +14529,7 @@
         <v>510</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="19">
@@ -14553,7 +14550,7 @@
         <v>511</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="19">
@@ -14574,7 +14571,7 @@
         <v>1869</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="19">
@@ -14593,7 +14590,7 @@
         <v>512</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="19">
@@ -14614,7 +14611,7 @@
         <v>1460</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="19">
@@ -14637,7 +14634,7 @@
         <v>513</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="19">
@@ -14658,7 +14655,7 @@
         <v>514</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="19">
@@ -14677,7 +14674,7 @@
         <v>515</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="19">
@@ -14696,7 +14693,7 @@
         <v>516</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="19">
@@ -14717,7 +14714,7 @@
         <v>517</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="19">
@@ -14740,7 +14737,7 @@
         <v>518</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D122" s="17"/>
       <c r="E122" s="19">
@@ -14761,7 +14758,7 @@
         <v>519</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D123" s="17"/>
       <c r="E123" s="19">
@@ -14782,7 +14779,7 @@
         <v>520</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D124" s="17"/>
       <c r="E124" s="19">
@@ -14805,7 +14802,7 @@
         <v>521</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="19">
@@ -14826,7 +14823,7 @@
         <v>522</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D126" s="17"/>
       <c r="E126" s="19">
@@ -14847,7 +14844,7 @@
         <v>523</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="19">
@@ -14868,7 +14865,7 @@
         <v>524</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D128" s="17"/>
       <c r="E128" s="19">
@@ -14889,7 +14886,7 @@
         <v>525</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="19">
@@ -14908,7 +14905,7 @@
         <v>526</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D130" s="17"/>
       <c r="E130" s="19">
@@ -14929,7 +14926,7 @@
         <v>527</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D131" s="17"/>
       <c r="E131" s="19">
@@ -14950,7 +14947,7 @@
         <v>528</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D132" s="17"/>
       <c r="E132" s="19">
@@ -14973,7 +14970,7 @@
         <v>529</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="19">
@@ -14994,7 +14991,7 @@
         <v>530</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="19">
@@ -15015,7 +15012,7 @@
         <v>531</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D135" s="17"/>
       <c r="E135" s="19">
@@ -15034,7 +15031,7 @@
         <v>532</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D136" s="17"/>
       <c r="E136" s="19">
@@ -15055,7 +15052,7 @@
         <v>533</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D137" s="17"/>
       <c r="E137" s="19">
@@ -15076,7 +15073,7 @@
         <v>534</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D138" s="17"/>
       <c r="E138" s="19">
@@ -15097,7 +15094,7 @@
         <v>536</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D139" s="17"/>
       <c r="E139" s="19">
@@ -15118,7 +15115,7 @@
         <v>537</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D140" s="17"/>
       <c r="E140" s="19">
@@ -15139,7 +15136,7 @@
         <v>2184</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D141" s="17"/>
       <c r="E141" s="19">
@@ -15158,7 +15155,7 @@
         <v>538</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="19">
@@ -15179,7 +15176,7 @@
         <v>539</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="19">
@@ -15200,7 +15197,7 @@
         <v>540</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="19">
@@ -15221,7 +15218,7 @@
         <v>541</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="19">
@@ -15242,7 +15239,7 @@
         <v>542</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D146" s="17"/>
       <c r="E146" s="19">
@@ -15263,7 +15260,7 @@
         <v>543</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D147" s="17"/>
       <c r="E147" s="19">
@@ -15282,7 +15279,7 @@
         <v>1520</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D148" s="17"/>
       <c r="E148" s="19">
@@ -15303,7 +15300,7 @@
         <v>2224</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D149" s="17"/>
       <c r="E149" s="19">
@@ -15322,7 +15319,7 @@
         <v>1458</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D150" s="17"/>
       <c r="E150" s="19">
@@ -15343,7 +15340,7 @@
         <v>1589</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="19">
@@ -15362,7 +15359,7 @@
         <v>1485</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D152" s="17"/>
       <c r="E152" s="19">
@@ -15385,7 +15382,7 @@
         <v>1410</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="19">
@@ -15406,7 +15403,7 @@
         <v>544</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D154" s="17"/>
       <c r="E154" s="19">
@@ -15425,7 +15422,7 @@
         <v>2596</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="19">
@@ -15446,7 +15443,7 @@
         <v>1599</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D156" s="17"/>
       <c r="E156" s="19">
@@ -15465,7 +15462,7 @@
         <v>2044</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="19">
@@ -15484,7 +15481,7 @@
         <v>545</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="19">
@@ -15505,7 +15502,7 @@
         <v>2521</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="19">
@@ -15524,7 +15521,7 @@
         <v>1832</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="19">
@@ -15543,7 +15540,7 @@
         <v>2045</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="19">
@@ -15562,7 +15559,7 @@
         <v>2046</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="19">
@@ -15581,7 +15578,7 @@
         <v>2229</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="19">
@@ -15600,7 +15597,7 @@
         <v>2082</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="19">
@@ -15619,7 +15616,7 @@
         <v>2512</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D165" s="17"/>
       <c r="E165" s="19">
@@ -15638,7 +15635,7 @@
         <v>2769</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D166" s="17"/>
       <c r="E166" s="19">
@@ -15657,13 +15654,13 @@
         <v>2043</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>2168</v>
       </c>
       <c r="E167" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F167" s="17" t="s">
         <v>2167</v>
@@ -15683,7 +15680,7 @@
         <v>2140</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D168" s="17"/>
       <c r="E168" s="19">
@@ -15702,10 +15699,10 @@
         <v>2192</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E169" s="19">
         <v>6</v>
@@ -15723,10 +15720,10 @@
         <v>2075</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E170" s="19">
         <v>8</v>
@@ -15744,7 +15741,7 @@
         <v>2624</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D171" s="17"/>
       <c r="E171" s="19">
@@ -15763,7 +15760,7 @@
         <v>2615</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="E172" s="10">
         <v>7</v>
@@ -16095,8 +16092,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B239" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F239" sqref="F239"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16119,10 +16116,10 @@
         <v>2379</v>
       </c>
       <c r="C1" s="85" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>3162</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>3163</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>1982</v>
@@ -16208,7 +16205,7 @@
         <v>598</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="E5" s="75">
         <v>34</v>
@@ -16316,7 +16313,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="C10" s="74" t="s">
         <v>598</v>
@@ -16358,7 +16355,7 @@
         <v>2724</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="E12" s="75">
         <v>1</v>
@@ -16384,7 +16381,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="74" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="G13" s="75" t="s">
         <v>2134</v>
@@ -16456,7 +16453,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="C17" s="74" t="s">
         <v>598</v>
@@ -17198,7 +17195,7 @@
         <v>3</v>
       </c>
       <c r="F56" s="74" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="G56" s="74"/>
       <c r="H56" s="74"/>
@@ -17570,7 +17567,7 @@
         <v>11</v>
       </c>
       <c r="F75" s="74" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="G75" s="74"/>
       <c r="H75" s="74"/>
@@ -18228,7 +18225,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="74" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="C111" s="74"/>
       <c r="D111" s="74" t="s">
@@ -18382,7 +18379,7 @@
         <v>67</v>
       </c>
       <c r="F118" s="74" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="G118" s="74" t="s">
         <v>1782</v>
@@ -18618,7 +18615,7 @@
         <v>11</v>
       </c>
       <c r="F130" s="74" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="G130" s="74"/>
       <c r="H130" s="74"/>
@@ -18634,13 +18631,13 @@
         <v>625</v>
       </c>
       <c r="D131" s="74" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="E131" s="75">
         <v>2</v>
       </c>
       <c r="F131" s="74" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="G131" s="74"/>
       <c r="H131" s="74"/>
@@ -18656,7 +18653,7 @@
         <v>625</v>
       </c>
       <c r="D132" s="74" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="E132" s="75">
         <v>0</v>
@@ -18861,7 +18858,7 @@
         <v>822</v>
       </c>
       <c r="E142" s="75">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F142" s="74">
         <v>746</v>
@@ -18982,7 +18979,7 @@
         <v>825</v>
       </c>
       <c r="D148" s="74" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="E148" s="75">
         <v>16</v>
@@ -19022,7 +19019,7 @@
         <v>825</v>
       </c>
       <c r="D150" s="74" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="E150" s="75">
         <v>3</v>
@@ -19067,7 +19064,7 @@
         <v>1396</v>
       </c>
       <c r="E152" s="75">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F152" s="74">
         <v>969</v>
@@ -19080,7 +19077,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="74" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="C153" s="74" t="s">
         <v>2828</v>
@@ -19106,10 +19103,10 @@
         <v>598</v>
       </c>
       <c r="D154" s="74" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="E154" s="75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F154" s="74">
         <v>1295</v>
@@ -19144,7 +19141,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="74" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="C156" s="74" t="s">
         <v>825</v>
@@ -19170,7 +19167,7 @@
         <v>598</v>
       </c>
       <c r="D157" s="74" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="E157" s="75">
         <v>10</v>
@@ -19363,7 +19360,7 @@
         <v>2657</v>
       </c>
       <c r="E167" s="75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F167" s="74">
         <v>2688</v>
@@ -19474,7 +19471,7 @@
         <v>3</v>
       </c>
       <c r="F172" s="74" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="G172" s="74"/>
       <c r="H172" s="74"/>
@@ -19630,7 +19627,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="74" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C180" s="74" t="s">
         <v>825</v>
@@ -19858,7 +19855,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="74" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C191" s="74" t="s">
         <v>825</v>
@@ -19876,7 +19873,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="74" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="C192" s="74" t="s">
         <v>586</v>
@@ -19896,7 +19893,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="74" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C193" s="74"/>
       <c r="D193" s="74"/>
@@ -19914,7 +19911,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="74" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="C194" s="74"/>
       <c r="D194" s="74"/>
@@ -19932,7 +19929,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="74" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="C195" s="74" t="s">
         <v>598</v>
@@ -19990,7 +19987,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="74" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C198" s="74" t="s">
         <v>598</v>
@@ -20048,7 +20045,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="74" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="C201" s="74" t="s">
         <v>598</v>
@@ -20068,7 +20065,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="74" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="C202" s="74" t="s">
         <v>598</v>
@@ -20086,7 +20083,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="74" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="C203" s="74" t="s">
         <v>825</v>
@@ -20106,7 +20103,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="74" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="C204" s="74" t="s">
         <v>825</v>
@@ -20168,7 +20165,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="74" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="C207" s="74" t="s">
         <v>825</v>
@@ -20186,7 +20183,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="74" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C208" s="74" t="s">
         <v>825</v>
@@ -20230,7 +20227,7 @@
         <v>625</v>
       </c>
       <c r="D210" s="74" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="E210" s="75">
         <v>3</v>
@@ -20266,7 +20263,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="74" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="C212" s="74" t="s">
         <v>598</v>
@@ -20284,7 +20281,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="74" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="C213" s="74" t="s">
         <v>586</v>
@@ -20320,10 +20317,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="74" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C215" s="74" t="s">
         <v>3099</v>
-      </c>
-      <c r="C215" s="74" t="s">
-        <v>3100</v>
       </c>
       <c r="D215" s="74"/>
       <c r="E215" s="75">
@@ -20340,7 +20337,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="74" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="C216" s="74" t="s">
         <v>825</v>
@@ -20360,7 +20357,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="74" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C217" s="74" t="s">
         <v>625</v>
@@ -20380,7 +20377,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="74" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="C218" s="74" t="s">
         <v>586</v>
@@ -20400,13 +20397,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="74" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="C219" s="74" t="s">
         <v>598</v>
       </c>
       <c r="D219" s="74" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="E219" s="75">
         <v>2</v>
@@ -20671,7 +20668,7 @@
         <v>779</v>
       </c>
       <c r="E231" s="75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231" s="74">
         <v>11496</v>
@@ -20696,7 +20693,7 @@
         <v>2</v>
       </c>
       <c r="F232" s="74" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="G232" s="74"/>
       <c r="H232" s="74"/>
@@ -20772,7 +20769,7 @@
         <v>843</v>
       </c>
       <c r="D236" s="74" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="E236" s="75">
         <v>1</v>
@@ -20994,7 +20991,7 @@
         <v>2</v>
       </c>
       <c r="F246" s="74" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="G246" s="74"/>
       <c r="H246" s="74"/>
@@ -21271,7 +21268,7 @@
         <v>2532</v>
       </c>
       <c r="C259" s="74" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D259" s="74" t="s">
         <v>2559</v>
@@ -21280,7 +21277,7 @@
         <v>2</v>
       </c>
       <c r="F259" s="74" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="G259" s="74"/>
       <c r="H259" s="74"/>
@@ -21386,7 +21383,7 @@
         <v>843</v>
       </c>
       <c r="D264" s="74" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="E264" s="75">
         <v>1</v>
@@ -21408,7 +21405,7 @@
         <v>843</v>
       </c>
       <c r="D265" s="74" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="E265" s="75">
         <v>1</v>
@@ -21430,7 +21427,7 @@
         <v>843</v>
       </c>
       <c r="D266" s="74" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="E266" s="75">
         <v>1</v>
@@ -21474,7 +21471,7 @@
         <v>843</v>
       </c>
       <c r="D268" s="74" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="E268" s="75">
         <v>2</v>
@@ -21580,7 +21577,7 @@
         <v>1970</v>
       </c>
       <c r="D273" s="74" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="E273" s="75">
         <v>0</v>
@@ -21596,7 +21593,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="74" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="C274" s="74" t="s">
         <v>843</v>
@@ -21616,13 +21613,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="74" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="C275" s="74" t="s">
         <v>843</v>
       </c>
       <c r="D275" s="74" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="E275" s="75">
         <v>1</v>
@@ -21638,13 +21635,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="74" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="C276" s="74" t="s">
         <v>1970</v>
       </c>
       <c r="D276" s="74" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="E276" s="75">
         <v>1</v>
@@ -21660,7 +21657,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="74" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="C277" s="74" t="s">
         <v>1970</v>
@@ -21680,13 +21677,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="74" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="C278" s="74" t="s">
         <v>1970</v>
       </c>
       <c r="D278" s="74" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="E278" s="75">
         <v>0</v>
@@ -21702,13 +21699,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="74" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="C279" s="74" t="s">
         <v>843</v>
       </c>
       <c r="D279" s="74" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="E279" s="75">
         <v>0</v>
@@ -21722,7 +21719,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="74" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="C280" s="74" t="s">
         <v>1970</v>
@@ -21744,7 +21741,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="74" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="C281" s="74" t="s">
         <v>843</v>
@@ -21764,7 +21761,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="74" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="C282" s="74" t="s">
         <v>1970</v>
@@ -21784,16 +21781,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="74" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="C283" s="74" t="s">
         <v>843</v>
       </c>
       <c r="D283" s="74" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E283" s="75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F283" s="74">
         <v>15505</v>
@@ -21806,13 +21803,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="74" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="C284" s="74" t="s">
         <v>1970</v>
       </c>
       <c r="D284" s="74" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="E284" s="75">
         <v>1</v>
@@ -21828,7 +21825,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="74" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="C285" s="74" t="s">
         <v>1970</v>
@@ -21848,7 +21845,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="74" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="C286" s="74" t="s">
         <v>843</v>
@@ -21868,7 +21865,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="74" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="C287" s="74" t="s">
         <v>843</v>
@@ -21886,7 +21883,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="74" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C288" s="74" t="s">
         <v>1970</v>
@@ -21906,7 +21903,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="74" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="C289" s="74" t="s">
         <v>1970</v>
@@ -21924,7 +21921,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="74" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="C290" s="74" t="s">
         <v>843</v>
@@ -21944,7 +21941,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="74" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C291" s="74" t="s">
         <v>843</v>
@@ -21964,7 +21961,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="74" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="C292" s="74" t="s">
         <v>843</v>
@@ -21980,6 +21977,7 @@
       <c r="H292" s="74"/>
     </row>
   </sheetData>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:I292"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1208">
@@ -22029,8 +22027,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H1391"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22054,10 +22052,10 @@
         <v>2379</v>
       </c>
       <c r="C1" s="85" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>3162</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>3163</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>1982</v>
@@ -22073,7 +22071,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="C2" s="92"/>
       <c r="D2" s="92"/>
@@ -22090,10 +22088,10 @@
         <v>1633</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="E3" s="71">
         <v>267</v>
@@ -22102,7 +22100,7 @@
         <v>146</v>
       </c>
       <c r="G3" s="69" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="H3" s="71"/>
     </row>
@@ -22114,10 +22112,10 @@
         <v>1630</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="E4" s="71">
         <v>246</v>
@@ -22136,10 +22134,10 @@
         <v>1984</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="E5" s="71">
         <v>51</v>
@@ -22158,10 +22156,10 @@
         <v>1985</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E6" s="71">
         <v>200</v>
@@ -22182,10 +22180,10 @@
         <v>1986</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="E7" s="71">
         <v>241</v>
@@ -22206,10 +22204,10 @@
         <v>1987</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="E8" s="71">
         <v>139</v>
@@ -22228,10 +22226,10 @@
         <v>1988</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="E9" s="71">
         <v>505</v>
@@ -22250,10 +22248,10 @@
         <v>1989</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="E10" s="71">
         <v>316</v>
@@ -22274,13 +22272,13 @@
         <v>1990</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="E11" s="71">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F11" s="70">
         <v>242</v>
@@ -22298,10 +22296,10 @@
         <v>1991</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="E12" s="71">
         <v>1116</v>
@@ -22322,10 +22320,10 @@
         <v>1992</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="E13" s="71">
         <v>286</v>
@@ -22346,10 +22344,10 @@
         <v>1993</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="E14" s="71">
         <v>282</v>
@@ -22365,7 +22363,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="C15" s="93"/>
       <c r="D15" s="93"/>
@@ -22382,7 +22380,7 @@
         <v>690</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="D16" s="69" t="s">
         <v>2234</v>
@@ -22404,7 +22402,7 @@
         <v>2068</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="D17" s="69" t="s">
         <v>2609</v>
@@ -22426,7 +22424,7 @@
         <v>691</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="D18" s="69" t="s">
         <v>2610</v>
@@ -22448,7 +22446,7 @@
         <v>692</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="D19" s="69" t="s">
         <v>2611</v>
@@ -22470,7 +22468,7 @@
         <v>693</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="D20" s="69" t="s">
         <v>2233</v>
@@ -22492,7 +22490,7 @@
         <v>694</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="D21" s="69" t="s">
         <v>2232</v>
@@ -22511,7 +22509,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="93" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
@@ -22528,7 +22526,7 @@
         <v>2618</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="D23" s="69" t="s">
         <v>2612</v>
@@ -22550,7 +22548,7 @@
         <v>2049</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="D24" s="69" t="s">
         <v>2053</v>
@@ -22572,7 +22570,7 @@
         <v>2094</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="D25" s="69" t="s">
         <v>2095</v>
@@ -22594,7 +22592,7 @@
         <v>2683</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="D26" s="69" t="s">
         <v>1724</v>
@@ -22616,7 +22614,7 @@
         <v>2069</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="D27" s="69" t="s">
         <v>2070</v>
@@ -22638,7 +22636,7 @@
         <v>2054</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="D28" s="69" t="s">
         <v>2055</v>
@@ -22660,7 +22658,7 @@
         <v>2613</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="D29" s="69" t="s">
         <v>2614</v>
@@ -22688,7 +22686,7 @@
         <v>1723</v>
       </c>
       <c r="E30" s="71">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F30" s="70">
         <v>360</v>
@@ -22856,7 +22854,7 @@
         <v>2465</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="D39" s="71"/>
       <c r="E39" s="71">
@@ -31187,8 +31185,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H310"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -31209,10 +31207,10 @@
         <v>2379</v>
       </c>
       <c r="C1" s="85" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>3162</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>3163</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>1982</v>
@@ -31444,7 +31442,7 @@
         <v>1303</v>
       </c>
       <c r="E12" s="19">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F12" s="17">
         <v>2698</v>
@@ -31582,7 +31580,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>1332</v>
@@ -31927,7 +31925,7 @@
         <v>2308</v>
       </c>
       <c r="E35" s="19">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F35" s="17">
         <v>418</v>
@@ -31960,7 +31958,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>1299</v>
@@ -32093,7 +32091,7 @@
         <v>1331</v>
       </c>
       <c r="E43" s="19">
-        <v>280</v>
+        <v>145</v>
       </c>
       <c r="F43" s="17">
         <v>247</v>
@@ -32114,7 +32112,7 @@
         <v>1331</v>
       </c>
       <c r="E44" s="19">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F44" s="17">
         <v>676</v>
@@ -32274,17 +32272,17 @@
         <v>2536</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="E53" s="19">
         <v>78</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="32" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75">
@@ -32298,7 +32296,7 @@
         <v>2536</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="E54" s="19">
         <v>52</v>
@@ -32313,25 +32311,25 @@
         <v>55</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>2536</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="E55" s="19">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F55" s="17">
         <v>50</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75">
@@ -32381,13 +32379,13 @@
         <v>58</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="C58" s="32" t="s">
         <v>1299</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="E58" s="84">
         <v>90</v>
@@ -32411,13 +32409,13 @@
         <v>2840</v>
       </c>
       <c r="E59" s="84">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F59" s="32">
         <v>1998</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75">
@@ -32425,7 +32423,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="C60" s="32" t="s">
         <v>1300</v>
@@ -32440,7 +32438,7 @@
         <v>2492</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75">
@@ -32457,13 +32455,13 @@
         <v>2640</v>
       </c>
       <c r="E61" s="84">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F61" s="32">
         <v>228</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75">
@@ -32478,16 +32476,16 @@
       </c>
       <c r="D62" s="32"/>
       <c r="E62" s="84">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F62" s="32">
         <v>115</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75">
@@ -32495,13 +32493,13 @@
         <v>63</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>1924</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="E63" s="84">
         <v>137</v>
@@ -32516,13 +32514,13 @@
         <v>64</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>1924</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="E64" s="84">
         <v>87</v>
@@ -32537,13 +32535,13 @@
         <v>65</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="C65" s="17" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>2894</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>2895</v>
       </c>
       <c r="E65" s="84">
         <v>18</v>
@@ -33087,8 +33085,8 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33108,10 +33106,10 @@
         <v>2379</v>
       </c>
       <c r="C1" s="85" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>3162</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>3163</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>1982</v>
@@ -33128,7 +33126,7 @@
         <v>417</v>
       </c>
       <c r="C2" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D2" t="s">
         <v>293</v>
@@ -33148,7 +33146,7 @@
         <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D3" t="s">
         <v>2393</v>
@@ -33168,7 +33166,7 @@
         <v>831</v>
       </c>
       <c r="C4" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D4" t="s">
         <v>2394</v>
@@ -33188,7 +33186,7 @@
         <v>2397</v>
       </c>
       <c r="C5" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D5" t="s">
         <v>2395</v>
@@ -33208,7 +33206,7 @@
         <v>2396</v>
       </c>
       <c r="C6" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D6" t="s">
         <v>2248</v>
@@ -33228,7 +33226,7 @@
         <v>402</v>
       </c>
       <c r="C7" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D7" t="s">
         <v>2434</v>
@@ -33248,10 +33246,10 @@
         <v>834</v>
       </c>
       <c r="C8" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D8" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -33268,7 +33266,7 @@
         <v>2398</v>
       </c>
       <c r="C9" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D9" t="s">
         <v>2399</v>
@@ -33288,7 +33286,7 @@
         <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D10" t="s">
         <v>2400</v>
@@ -33308,7 +33306,7 @@
         <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D11" t="s">
         <v>2401</v>
@@ -33328,7 +33326,7 @@
         <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D12" t="s">
         <v>2402</v>
@@ -33348,7 +33346,7 @@
         <v>186</v>
       </c>
       <c r="C13" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D13" t="s">
         <v>2403</v>
@@ -33368,7 +33366,7 @@
         <v>2404</v>
       </c>
       <c r="C14" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D14" t="s">
         <v>2405</v>
@@ -33388,13 +33386,13 @@
         <v>2406</v>
       </c>
       <c r="C15" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D15" t="s">
         <v>2452</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15">
         <v>935</v>
@@ -33408,7 +33406,7 @@
         <v>835</v>
       </c>
       <c r="C16" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D16" t="s">
         <v>2407</v>
@@ -33428,7 +33426,7 @@
         <v>641</v>
       </c>
       <c r="C17" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D17" t="s">
         <v>2408</v>
@@ -33448,10 +33446,10 @@
         <v>410</v>
       </c>
       <c r="C18" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D18" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="E18">
         <v>27</v>
@@ -33468,7 +33466,7 @@
         <v>640</v>
       </c>
       <c r="C19" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D19" t="s">
         <v>2409</v>
@@ -33488,7 +33486,7 @@
         <v>609</v>
       </c>
       <c r="C20" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D20" t="s">
         <v>2410</v>
@@ -33508,7 +33506,7 @@
         <v>525</v>
       </c>
       <c r="C21" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D21" t="s">
         <v>2604</v>
@@ -33528,7 +33526,7 @@
         <v>649</v>
       </c>
       <c r="C22" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D22" t="s">
         <v>2412</v>
@@ -33548,7 +33546,7 @@
         <v>2411</v>
       </c>
       <c r="C23" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D23" t="s">
         <v>2413</v>
@@ -33568,7 +33566,7 @@
         <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D24" t="s">
         <v>2414</v>
@@ -33588,7 +33586,7 @@
         <v>605</v>
       </c>
       <c r="C25" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D25" t="s">
         <v>2415</v>
@@ -33608,7 +33606,7 @@
         <v>403</v>
       </c>
       <c r="C26" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D26" t="s">
         <v>2416</v>
@@ -33628,13 +33626,13 @@
         <v>406</v>
       </c>
       <c r="C27" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D27" t="s">
         <v>318</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>761</v>
@@ -33648,7 +33646,7 @@
         <v>401</v>
       </c>
       <c r="C28" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D28" t="s">
         <v>2419</v>
@@ -33668,7 +33666,7 @@
         <v>638</v>
       </c>
       <c r="C29" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D29" t="s">
         <v>2417</v>
@@ -33688,7 +33686,7 @@
         <v>650</v>
       </c>
       <c r="C30" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D30" t="s">
         <v>2418</v>
@@ -33708,10 +33706,10 @@
         <v>832</v>
       </c>
       <c r="C31" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D31" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -33728,7 +33726,7 @@
         <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D32" t="s">
         <v>2420</v>
@@ -33737,7 +33735,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -33748,7 +33746,7 @@
         <v>836</v>
       </c>
       <c r="C33" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D33" t="s">
         <v>2421</v>
@@ -33768,7 +33766,7 @@
         <v>193</v>
       </c>
       <c r="C34" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D34" t="s">
         <v>2422</v>
@@ -33788,7 +33786,7 @@
         <v>2423</v>
       </c>
       <c r="C35" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D35" t="s">
         <v>836</v>
@@ -33808,7 +33806,7 @@
         <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D36" t="s">
         <v>2424</v>
@@ -33828,7 +33826,7 @@
         <v>197</v>
       </c>
       <c r="C37" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D37" t="s">
         <v>2425</v>
@@ -33837,7 +33835,7 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -33848,7 +33846,7 @@
         <v>198</v>
       </c>
       <c r="C38" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D38" t="s">
         <v>2426</v>
@@ -33868,7 +33866,7 @@
         <v>999</v>
       </c>
       <c r="C39" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D39" t="s">
         <v>2428</v>
@@ -33888,7 +33886,7 @@
         <v>2427</v>
       </c>
       <c r="C40" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D40" t="s">
         <v>2424</v>
@@ -33908,7 +33906,7 @@
         <v>2429</v>
       </c>
       <c r="C41" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D41" t="s">
         <v>2507</v>
@@ -33928,7 +33926,7 @@
         <v>683</v>
       </c>
       <c r="C42" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D42" t="s">
         <v>1751</v>
@@ -33948,7 +33946,7 @@
         <v>983</v>
       </c>
       <c r="C43" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D43" t="s">
         <v>2407</v>
@@ -33968,7 +33966,7 @@
         <v>652</v>
       </c>
       <c r="C44" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D44" t="s">
         <v>2430</v>
@@ -33988,7 +33986,7 @@
         <v>828</v>
       </c>
       <c r="C45" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D45" t="s">
         <v>2431</v>
@@ -34008,7 +34006,7 @@
         <v>2432</v>
       </c>
       <c r="C46" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D46" t="s">
         <v>779</v>
@@ -34028,7 +34026,7 @@
         <v>188</v>
       </c>
       <c r="C47" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D47" t="s">
         <v>2440</v>
@@ -34048,7 +34046,7 @@
         <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D48" t="s">
         <v>2441</v>
@@ -34068,10 +34066,10 @@
         <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D49" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -34088,7 +34086,7 @@
         <v>2572</v>
       </c>
       <c r="C50" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D50" t="s">
         <v>2475</v>
@@ -34108,7 +34106,7 @@
         <v>2478</v>
       </c>
       <c r="C51" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D51" t="s">
         <v>2573</v>
@@ -34128,7 +34126,7 @@
         <v>2817</v>
       </c>
       <c r="C52" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D52" t="s">
         <v>2446</v>
@@ -34148,7 +34146,7 @@
         <v>684</v>
       </c>
       <c r="C53" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D53" t="s">
         <v>2574</v>
@@ -34168,13 +34166,13 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D54" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54">
         <v>1560</v>
@@ -34188,7 +34186,7 @@
         <v>653</v>
       </c>
       <c r="C55" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D55" t="s">
         <v>2498</v>
@@ -34208,7 +34206,7 @@
         <v>447</v>
       </c>
       <c r="C56" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D56" t="s">
         <v>2499</v>
@@ -34228,7 +34226,7 @@
         <v>2500</v>
       </c>
       <c r="C57" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D57" t="s">
         <v>2501</v>
@@ -34248,7 +34246,7 @@
         <v>2503</v>
       </c>
       <c r="C58" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D58" t="s">
         <v>2502</v>
@@ -34268,7 +34266,7 @@
         <v>438</v>
       </c>
       <c r="C59" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D59" t="s">
         <v>2509</v>
@@ -34288,7 +34286,7 @@
         <v>2508</v>
       </c>
       <c r="C60" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D60" t="s">
         <v>2510</v>
@@ -34308,7 +34306,7 @@
         <v>448</v>
       </c>
       <c r="C61" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D61" t="s">
         <v>2511</v>
@@ -34328,7 +34326,7 @@
         <v>639</v>
       </c>
       <c r="C62" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D62" t="s">
         <v>2531</v>
@@ -34348,7 +34346,7 @@
         <v>607</v>
       </c>
       <c r="C63" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -34359,13 +34357,13 @@
         <v>64</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3554</v>
+      </c>
+      <c r="D64" t="s">
         <v>2943</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3555</v>
-      </c>
-      <c r="D64" t="s">
-        <v>2944</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -34382,10 +34380,10 @@
         <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D65" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -34396,13 +34394,13 @@
         <v>66</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3554</v>
+      </c>
+      <c r="D66" t="s">
         <v>3032</v>
-      </c>
-      <c r="C66" t="s">
-        <v>3555</v>
-      </c>
-      <c r="D66" t="s">
-        <v>3033</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -34416,13 +34414,13 @@
         <v>67</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3554</v>
+      </c>
+      <c r="D67" t="s">
         <v>3034</v>
-      </c>
-      <c r="C67" t="s">
-        <v>3555</v>
-      </c>
-      <c r="D67" t="s">
-        <v>3035</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -34439,10 +34437,10 @@
         <v>442</v>
       </c>
       <c r="C68" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D68" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -34453,13 +34451,13 @@
         <v>69</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3554</v>
+      </c>
+      <c r="D69" t="s">
         <v>3141</v>
-      </c>
-      <c r="C69" t="s">
-        <v>3555</v>
-      </c>
-      <c r="D69" t="s">
-        <v>3142</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -34476,7 +34474,7 @@
         <v>430</v>
       </c>
       <c r="C70" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -34493,10 +34491,10 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D71" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -34507,13 +34505,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="B72" s="6" t="s">
+        <v>3586</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3554</v>
+      </c>
+      <c r="D72" t="s">
         <v>3587</v>
-      </c>
-      <c r="C72" t="s">
-        <v>3555</v>
-      </c>
-      <c r="D72" t="s">
-        <v>3588</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -34540,10 +34538,10 @@
         <v>378</v>
       </c>
       <c r="C74" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D74" t="s">
         <v>3556</v>
-      </c>
-      <c r="D74" t="s">
-        <v>3557</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -34560,10 +34558,10 @@
         <v>892</v>
       </c>
       <c r="C75" t="s">
+        <v>3557</v>
+      </c>
+      <c r="D75" t="s">
         <v>3558</v>
-      </c>
-      <c r="D75" t="s">
-        <v>3559</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -34580,10 +34578,10 @@
         <v>202</v>
       </c>
       <c r="C76" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D76" t="s">
         <v>3560</v>
-      </c>
-      <c r="D76" t="s">
-        <v>3561</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -34600,10 +34598,10 @@
         <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="D77" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -34620,10 +34618,10 @@
         <v>2634</v>
       </c>
       <c r="C78" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="D78" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -34637,7 +34635,7 @@
         <v>318026</v>
       </c>
       <c r="C79" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="D79" t="s">
         <v>836</v>
@@ -34654,13 +34652,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="C80" t="s">
+        <v>3564</v>
+      </c>
+      <c r="D80" t="s">
         <v>3565</v>
-      </c>
-      <c r="D80" t="s">
-        <v>3566</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -34674,13 +34672,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="C81" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="D81" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -34694,10 +34692,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="C82" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="D82" t="s">
         <v>1859</v>
@@ -34714,10 +34712,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="C83" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="D83" t="s">
         <v>683</v>
@@ -34747,10 +34745,10 @@
         <v>2629</v>
       </c>
       <c r="C85" t="s">
+        <v>3568</v>
+      </c>
+      <c r="D85" t="s">
         <v>3569</v>
-      </c>
-      <c r="D85" t="s">
-        <v>3570</v>
       </c>
       <c r="E85">
         <v>21</v>
@@ -34767,10 +34765,10 @@
         <v>963</v>
       </c>
       <c r="C86" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="D86" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -34787,10 +34785,10 @@
         <v>671</v>
       </c>
       <c r="C87" t="s">
+        <v>3571</v>
+      </c>
+      <c r="D87" t="s">
         <v>3572</v>
-      </c>
-      <c r="D87" t="s">
-        <v>3573</v>
       </c>
       <c r="E87">
         <v>10</v>
@@ -34807,7 +34805,7 @@
         <v>2836</v>
       </c>
       <c r="C88" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="D88" t="s">
         <v>2422</v>
@@ -34824,10 +34822,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="C89" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="D89" t="s">
         <v>836</v>
@@ -34844,13 +34842,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="C90" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="D90" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="E90">
         <v>3</v>
@@ -34864,13 +34862,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="C91" t="s">
+        <v>3574</v>
+      </c>
+      <c r="D91" t="s">
         <v>3575</v>
-      </c>
-      <c r="D91" t="s">
-        <v>3576</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -34887,10 +34885,10 @@
         <v>8001</v>
       </c>
       <c r="C92" t="s">
+        <v>3576</v>
+      </c>
+      <c r="D92" t="s">
         <v>3577</v>
-      </c>
-      <c r="D92" t="s">
-        <v>3578</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -34901,13 +34899,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="C93" t="s">
+        <v>3578</v>
+      </c>
+      <c r="D93" t="s">
         <v>3579</v>
-      </c>
-      <c r="D93" t="s">
-        <v>3580</v>
       </c>
       <c r="E93">
         <v>10</v>
@@ -34921,13 +34919,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="C94" t="s">
+        <v>3580</v>
+      </c>
+      <c r="D94" t="s">
         <v>3581</v>
-      </c>
-      <c r="D94" t="s">
-        <v>3582</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -34941,7 +34939,7 @@
         <v>689</v>
       </c>
       <c r="C95" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -34955,7 +34953,7 @@
         <v>663</v>
       </c>
       <c r="C96" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -34969,7 +34967,7 @@
         <v>821</v>
       </c>
       <c r="C97" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -34983,10 +34981,10 @@
         <v>2575</v>
       </c>
       <c r="C98" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D98" t="s">
         <v>3583</v>
-      </c>
-      <c r="D98" t="s">
-        <v>3584</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -35471,7 +35469,7 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -35880,8 +35878,8 @@
   </sheetPr>
   <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35901,10 +35899,10 @@
         <v>2379</v>
       </c>
       <c r="C1" s="85" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>3162</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>3163</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>1982</v>
@@ -36038,7 +36036,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>2622</v>
@@ -36500,7 +36498,7 @@
         <v>5661</v>
       </c>
       <c r="E34" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>2166</v>
@@ -36595,7 +36593,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>2622</v>
@@ -37753,7 +37751,7 @@
         <v>67</v>
       </c>
       <c r="E99" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" t="s">
@@ -37914,7 +37912,7 @@
         <v>3</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -38365,7 +38363,7 @@
         <v>1373</v>
       </c>
       <c r="E129" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" t="s">
@@ -38651,7 +38649,7 @@
         <v>714</v>
       </c>
       <c r="E143" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F143" s="9"/>
       <c r="G143" t="s">
@@ -38962,7 +38960,7 @@
         <v>4</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="G158" t="s">
         <v>1489</v>
@@ -39711,7 +39709,7 @@
         <v>12</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="G195" t="s">
         <v>1489</v>
@@ -40007,7 +40005,7 @@
         <v>3</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -41313,8 +41311,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H772"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41336,10 +41334,10 @@
         <v>2379</v>
       </c>
       <c r="C1" s="85" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>3162</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>3163</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>1982</v>
@@ -41448,13 +41446,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>847</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="E7" s="35">
         <v>0</v>
@@ -41482,13 +41480,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="33" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>3165</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="D9" s="41" t="s">
         <v>3166</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>3167</v>
       </c>
       <c r="E9" s="35">
         <v>0</v>
@@ -41500,13 +41498,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>3168</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>3166</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>3169</v>
       </c>
       <c r="E10" s="35">
         <v>0</v>
@@ -41518,13 +41516,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>1899</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="E11" s="35">
         <v>0</v>
@@ -41539,13 +41537,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>1899</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="E12" s="35">
         <v>0</v>
@@ -41560,13 +41558,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="E13" s="35">
         <v>0</v>
@@ -41587,7 +41585,7 @@
         <v>1867</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="E14" s="35">
         <v>0</v>
@@ -41602,13 +41600,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="E15" s="35">
         <v>0</v>
@@ -41620,13 +41618,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="E16" s="44">
         <v>2</v>
@@ -41642,7 +41640,7 @@
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="43" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="E17" s="35">
         <v>0</v>
@@ -41660,7 +41658,7 @@
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="43" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="E18" s="44">
         <v>0</v>
@@ -41672,13 +41670,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="E19" s="44">
         <v>0</v>
@@ -41693,13 +41691,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="E20" s="35">
         <v>0</v>
@@ -41714,13 +41712,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="E21" s="44">
         <v>0</v>
@@ -41739,7 +41737,7 @@
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="43" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="E22" s="44">
         <v>3</v>
@@ -41756,13 +41754,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="E23" s="44">
         <v>0</v>
@@ -41777,13 +41775,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="C24" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="E24" s="35">
         <v>0</v>
@@ -41799,7 +41797,7 @@
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="43" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="E25" s="35">
         <v>0</v>
@@ -41811,13 +41809,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="E26" s="44">
         <v>1</v>
@@ -41829,13 +41827,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="E27" s="44">
         <v>0</v>
@@ -41849,13 +41847,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="E28" s="44">
         <v>1</v>
@@ -41867,13 +41865,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>1899</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="E29" s="44">
         <v>0</v>
@@ -41888,13 +41886,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="C30" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="E30" s="35">
         <v>0</v>
@@ -41908,13 +41906,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="C31" s="46" t="s">
         <v>1899</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="E31" s="44">
         <v>0</v>
@@ -41926,13 +41924,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="C32" s="46" t="s">
         <v>1899</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="E32" s="44">
         <v>0</v>
@@ -41944,19 +41942,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="C33" s="46" t="s">
         <v>1899</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="E33" s="44">
         <v>1</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="38.25">
@@ -41964,13 +41962,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="C34" s="46" t="s">
         <v>1899</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="E34" s="44">
         <v>1</v>
@@ -41984,13 +41982,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="C35" s="46" t="s">
         <v>1899</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="E35" s="35">
         <v>0</v>
@@ -42002,13 +42000,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="C36" s="46" t="s">
         <v>1899</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="E36" s="44">
         <v>0</v>
@@ -42020,13 +42018,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="C37" s="46" t="s">
         <v>1899</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="E37" s="44">
         <v>0</v>
@@ -42038,13 +42036,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="C38" s="46" t="s">
         <v>1899</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="E38" s="35">
         <v>0</v>
@@ -42056,13 +42054,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="E39" s="35">
         <v>0</v>
@@ -42078,7 +42076,7 @@
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="43" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="E40" s="35">
         <v>0</v>
@@ -42090,13 +42088,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="C41" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="E41" s="44">
         <v>2</v>
@@ -42105,7 +42103,7 @@
         <v>1918</v>
       </c>
       <c r="H41" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="38.25">
@@ -42113,13 +42111,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="C42" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="E42" s="35">
         <v>0</v>
@@ -42131,13 +42129,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="C43" s="42" t="s">
         <v>1899</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="E43" s="44">
         <v>0</v>
@@ -42149,13 +42147,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="42" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C44" s="42" t="s">
         <v>3231</v>
       </c>
-      <c r="C44" s="42" t="s">
-        <v>3232</v>
-      </c>
       <c r="D44" s="43" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="E44" s="35">
         <v>0</v>
@@ -42167,13 +42165,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="42" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C45" s="42" t="s">
         <v>3233</v>
       </c>
-      <c r="C45" s="42" t="s">
-        <v>3234</v>
-      </c>
       <c r="D45" s="43" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="E45" s="44">
         <v>0</v>
@@ -42185,13 +42183,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="E46" s="44">
         <v>0</v>
@@ -42203,13 +42201,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="42" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C47" s="42" t="s">
         <v>3236</v>
       </c>
-      <c r="C47" s="42" t="s">
-        <v>3237</v>
-      </c>
       <c r="D47" s="43" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="E47" s="44">
         <v>0</v>
@@ -42221,13 +42219,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="42" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C48" s="42" t="s">
         <v>3238</v>
       </c>
-      <c r="C48" s="42" t="s">
-        <v>3239</v>
-      </c>
       <c r="D48" s="43" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="E48" s="35">
         <v>0</v>
@@ -42239,13 +42237,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="E49" s="35">
         <v>0</v>
@@ -42257,7 +42255,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>1899</v>
@@ -42275,7 +42273,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>1899</v>
@@ -42293,7 +42291,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="C52" s="48" t="s">
         <v>1899</v>
@@ -42311,7 +42309,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="C53" s="48" t="s">
         <v>1899</v>
@@ -42331,13 +42329,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="C54" s="48" t="s">
         <v>1899</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="E54" s="35">
         <v>3</v>
@@ -42351,10 +42349,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="33" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C55" s="48" t="s">
         <v>3246</v>
-      </c>
-      <c r="C55" s="48" t="s">
-        <v>3247</v>
       </c>
       <c r="D55" s="38" t="s">
         <v>2686</v>
@@ -42371,10 +42369,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="D56" s="38" t="s">
         <v>2687</v>
@@ -42391,13 +42389,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="33" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C57" s="48" t="s">
         <v>3249</v>
       </c>
-      <c r="C57" s="48" t="s">
-        <v>3250</v>
-      </c>
       <c r="D57" s="38" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="E57" s="35">
         <v>1</v>
@@ -42409,10 +42407,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="33" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C58" s="48" t="s">
         <v>3251</v>
-      </c>
-      <c r="C58" s="48" t="s">
-        <v>3252</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>2688</v>
@@ -42429,10 +42427,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="D59" s="38" t="s">
         <v>2687</v>
@@ -42449,13 +42447,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="E60" s="35">
         <v>1</v>
@@ -42467,7 +42465,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>1899</v>
@@ -42495,7 +42493,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -42515,7 +42513,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -42541,13 +42539,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>2025</v>
       </c>
       <c r="D65" s="50" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="E65" s="35">
         <v>0</v>
@@ -43076,7 +43074,7 @@
       <c r="C97" s="33"/>
       <c r="D97" s="38"/>
       <c r="E97" s="35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F97" s="33"/>
       <c r="H97" t="s">
@@ -43534,10 +43532,10 @@
         <v>1667</v>
       </c>
       <c r="C124" s="33" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D124" s="38" t="s">
         <v>3255</v>
-      </c>
-      <c r="D124" s="38" t="s">
-        <v>3256</v>
       </c>
       <c r="E124" s="35">
         <v>2</v>
@@ -43620,7 +43618,7 @@
       </c>
       <c r="D129" s="38"/>
       <c r="E129" s="35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F129" s="33"/>
     </row>
@@ -44991,8 +44989,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H478"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D312" sqref="D312"/>
+    <sheetView topLeftCell="B316" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F330" sqref="F330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45013,10 +45011,10 @@
         <v>2379</v>
       </c>
       <c r="C1" s="85" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>3162</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>3163</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>1982</v>
@@ -45033,10 +45031,10 @@
         <v>1713</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="E2" s="35">
         <v>0</v>
@@ -45069,7 +45067,7 @@
         <v>1766</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>1767</v>
@@ -45161,7 +45159,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>1441</v>
@@ -45177,10 +45175,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>3260</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>3261</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="35">
@@ -45193,10 +45191,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>3262</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>3263</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="35">
@@ -45209,10 +45207,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>3264</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>3265</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="35">
@@ -45225,10 +45223,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>3266</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>3267</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="35">
@@ -45241,10 +45239,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>3268</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>3269</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>177</v>
@@ -45259,10 +45257,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>3270</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>3271</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="35">
@@ -45275,10 +45273,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>3272</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>3273</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="35">
@@ -45291,10 +45289,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>3274</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>3275</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="35">
@@ -45307,10 +45305,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>3276</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>3277</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="35">
@@ -45323,10 +45321,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>3278</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>3279</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="35">
@@ -45339,10 +45337,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="33" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>3280</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>3281</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="35">
@@ -45355,10 +45353,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="33" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>3282</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>3283</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="35">
@@ -45371,10 +45369,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="35">
@@ -45387,10 +45385,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="35">
@@ -45403,10 +45401,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="33" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>3286</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>3287</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="35">
@@ -45419,10 +45417,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="33" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>3288</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>3289</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="35">
@@ -45435,10 +45433,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="33" t="s">
+        <v>3289</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>3290</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>3291</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="35">
@@ -45451,10 +45449,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="33" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>3292</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>3293</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="35">
@@ -45467,10 +45465,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="33" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>3294</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>3295</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="35">
@@ -45857,10 +45855,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="33" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C52" s="33" t="s">
         <v>3296</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>3297</v>
       </c>
       <c r="D52" s="33"/>
       <c r="E52" s="35">
@@ -47377,7 +47375,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="C146" s="33" t="s">
         <v>1044</v>
@@ -47874,16 +47872,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="33" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="C177" s="33" t="s">
         <v>1075</v>
       </c>
       <c r="D177" s="33" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="E177" s="35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" t="s">
@@ -47979,7 +47977,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="33" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="C183" s="33" t="s">
         <v>1077</v>
@@ -48022,7 +48020,7 @@
       </c>
       <c r="F185" s="33"/>
       <c r="G185" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -48357,7 +48355,7 @@
         <v>2568</v>
       </c>
       <c r="E205" s="35">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F205" s="33"/>
       <c r="G205" t="s">
@@ -48957,7 +48955,7 @@
         <v>1776</v>
       </c>
       <c r="C241" s="33" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="D241" s="33" t="s">
         <v>1573</v>
@@ -49233,7 +49231,7 @@
       </c>
       <c r="D257" s="33"/>
       <c r="E257" s="35">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F257" s="33">
         <v>137</v>
@@ -49325,7 +49323,7 @@
         <v>1175</v>
       </c>
       <c r="E262" s="35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F262" s="33">
         <v>535</v>
@@ -49420,7 +49418,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="33" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="C268" s="33"/>
       <c r="D268" s="33"/>
@@ -49747,7 +49745,7 @@
       </c>
       <c r="D288" s="33"/>
       <c r="E288" s="35">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F288" s="33"/>
     </row>
@@ -49799,7 +49797,7 @@
       </c>
       <c r="D291" s="33"/>
       <c r="E291" s="35">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F291" s="33">
         <v>356</v>
@@ -49853,7 +49851,7 @@
       </c>
       <c r="D294" s="33"/>
       <c r="E294" s="35">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F294" s="33">
         <v>696</v>
@@ -49871,7 +49869,7 @@
       </c>
       <c r="D295" s="33"/>
       <c r="E295" s="35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F295" s="33">
         <v>696</v>
@@ -49907,7 +49905,7 @@
       </c>
       <c r="D297" s="33"/>
       <c r="E297" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F297" s="33"/>
     </row>
@@ -49932,20 +49930,20 @@
         <v>298</v>
       </c>
       <c r="B299" s="33" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="C299" s="33" t="s">
         <v>1813</v>
       </c>
       <c r="D299" s="33" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="E299" s="1">
         <v>0</v>
       </c>
       <c r="F299" s="33"/>
       <c r="G299" s="35" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -50039,7 +50037,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="33" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="C305" s="33" t="s">
         <v>1995</v>
@@ -50345,7 +50343,7 @@
         <v>46</v>
       </c>
       <c r="F322" s="33" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -50360,7 +50358,7 @@
       </c>
       <c r="D323" s="33"/>
       <c r="E323" s="35">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F323" s="33">
         <v>1050</v>
@@ -50403,13 +50401,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="33" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="C326" s="33" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D326" s="33" t="s">
         <v>3334</v>
-      </c>
-      <c r="D326" s="33" t="s">
-        <v>3335</v>
       </c>
       <c r="E326" s="35">
         <v>5</v>
@@ -50423,7 +50421,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="33" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="C327" s="33" t="s">
         <v>2255</v>
@@ -50433,7 +50431,7 @@
         <v>9</v>
       </c>
       <c r="F327" s="33" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -50441,7 +50439,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="33" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="C328" s="33" t="s">
         <v>2258</v>
@@ -50461,7 +50459,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="33" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="C329" s="33" t="s">
         <v>2258</v>
@@ -50481,16 +50479,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="33" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="C330" s="33" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="D330" s="33" t="s">
         <v>1751</v>
       </c>
       <c r="E330" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F330" s="33">
         <v>9634</v>
@@ -50501,7 +50499,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="33" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="C331" s="33" t="s">
         <v>2284</v>
@@ -50519,7 +50517,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="33" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="C332" s="33" t="s">
         <v>2297</v>
@@ -50539,7 +50537,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="33" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="C333" s="33" t="s">
         <v>2298</v>
@@ -50559,7 +50557,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="33" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C334" s="33"/>
       <c r="D334" s="33"/>
@@ -50573,7 +50571,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="33" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="C335" s="33" t="s">
         <v>2297</v>
@@ -50611,7 +50609,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="33" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="C337" s="33" t="s">
         <v>2297</v>
@@ -50629,13 +50627,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="33" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="C338" s="33" t="s">
+        <v>3336</v>
+      </c>
+      <c r="D338" s="33" t="s">
         <v>3337</v>
-      </c>
-      <c r="D338" s="33" t="s">
-        <v>3338</v>
       </c>
       <c r="E338" s="35">
         <v>2</v>
@@ -50649,14 +50647,14 @@
         <v>338</v>
       </c>
       <c r="B339" s="33" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="C339" s="33" t="s">
         <v>2608</v>
       </c>
       <c r="D339" s="33"/>
       <c r="E339" s="35" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="F339" s="33">
         <v>6944</v>
@@ -50667,13 +50665,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="52" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="C340" s="33" t="s">
         <v>2698</v>
       </c>
       <c r="D340" s="33" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="E340" s="35">
         <v>1</v>
@@ -50687,7 +50685,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="33" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="C341" s="33" t="s">
         <v>2303</v>
@@ -50703,7 +50701,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="33" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="C342" s="33" t="s">
         <v>2620</v>
@@ -50721,7 +50719,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="33" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="C343" s="33"/>
       <c r="D343" s="33"/>
@@ -50735,13 +50733,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="33" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="C344" s="33" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D344" s="33" t="s">
         <v>3340</v>
-      </c>
-      <c r="D344" s="33" t="s">
-        <v>3341</v>
       </c>
       <c r="E344" s="35">
         <v>1</v>
@@ -50755,7 +50753,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="33" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="C345" s="33" t="s">
         <v>2620</v>
@@ -50773,7 +50771,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="33" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="C346" s="33" t="s">
         <v>2620</v>
@@ -50791,7 +50789,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="33" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="C347" s="33" t="s">
         <v>2620</v>
@@ -50809,7 +50807,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="33" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="C348" s="33" t="s">
         <v>2698</v>
@@ -50825,7 +50823,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="33" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="C349" s="33" t="s">
         <v>2698</v>
@@ -50843,7 +50841,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="33" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="C350" s="33" t="s">
         <v>2759</v>
@@ -50897,7 +50895,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="33" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="C353" s="33"/>
       <c r="D353" s="33"/>
@@ -50945,7 +50943,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="42" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="C356" s="53" t="s">
         <v>2620</v>
@@ -50961,10 +50959,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="53" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="C357" s="53" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="D357" s="33"/>
       <c r="E357" s="35">
@@ -50977,10 +50975,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="33" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="C358" s="53" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="D358" s="33"/>
       <c r="E358" s="35">
@@ -50995,10 +50993,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="33" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="C359" s="53" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="D359" s="33"/>
       <c r="E359" s="35">
@@ -51013,10 +51011,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="33" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="C360" s="33" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="D360" s="33"/>
       <c r="E360" s="35">
@@ -51029,10 +51027,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="33" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="C361" s="33" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="D361" s="33" t="s">
         <v>1859</v>
@@ -51047,7 +51045,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="33" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="C362" s="33" t="s">
         <v>2620</v>
@@ -51065,7 +51063,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="33" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="C363" s="33" t="s">
         <v>2297</v>
@@ -51083,10 +51081,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C364" s="33" t="s">
         <v>2978</v>
-      </c>
-      <c r="C364" s="33" t="s">
-        <v>2979</v>
       </c>
       <c r="D364" s="33"/>
       <c r="E364" s="35">
@@ -51101,10 +51099,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="33" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C365" s="33" t="s">
         <v>2980</v>
-      </c>
-      <c r="C365" s="33" t="s">
-        <v>2981</v>
       </c>
       <c r="D365" s="33"/>
       <c r="E365" s="35">
@@ -51119,10 +51117,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="33" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="C366" s="33" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="D366" s="33"/>
       <c r="E366" s="35">
@@ -51137,7 +51135,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="33" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="C367" s="33" t="s">
         <v>2620</v>
@@ -51155,10 +51153,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="33" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="C368" s="33" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="D368" s="33"/>
       <c r="E368" s="35">
@@ -51173,10 +51171,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="33" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="C369" s="33" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="D369" s="33"/>
       <c r="E369" s="35">
@@ -51191,10 +51189,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="33" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C370" s="33" t="s">
         <v>3011</v>
-      </c>
-      <c r="C370" s="33" t="s">
-        <v>3012</v>
       </c>
       <c r="D370" s="33"/>
       <c r="E370" s="35">
@@ -51209,7 +51207,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="33" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="C371" s="33" t="s">
         <v>2297</v>
@@ -51227,10 +51225,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="33" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C372" s="33" t="s">
         <v>3057</v>
-      </c>
-      <c r="C372" s="33" t="s">
-        <v>3058</v>
       </c>
       <c r="D372" s="33"/>
       <c r="E372" s="35">
@@ -51245,7 +51243,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="33" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="C373" s="33" t="s">
         <v>257</v>
@@ -51263,10 +51261,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="33" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="C374" s="33" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D374" s="33" t="s">
         <v>1751</v>
@@ -51283,10 +51281,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="33" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="C375" s="33" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="D375" s="33"/>
       <c r="E375" s="35">
@@ -51301,10 +51299,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="33" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="C376" s="33" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="D376" s="33"/>
       <c r="E376" s="35">
@@ -51456,8 +51454,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G571"/>
   <sheetViews>
-    <sheetView topLeftCell="B167" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView topLeftCell="B177" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51479,10 +51477,10 @@
         <v>2379</v>
       </c>
       <c r="C1" s="85" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>3162</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>3163</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>1982</v>
@@ -51768,7 +51766,7 @@
         <v>2722</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="56">
@@ -51871,7 +51869,7 @@
         <v>2700</v>
       </c>
       <c r="E24" s="56">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="35" t="s">
         <v>2824</v>
@@ -52061,7 +52059,7 @@
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="E35" s="56">
         <v>0</v>
@@ -52310,7 +52308,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>1632</v>
@@ -52444,7 +52442,7 @@
         <v>2703</v>
       </c>
       <c r="E58" s="56">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F58" s="35">
         <v>285</v>
@@ -53004,10 +53002,10 @@
         <v>741</v>
       </c>
       <c r="C90" s="33" t="s">
+        <v>3345</v>
+      </c>
+      <c r="D90" s="33" t="s">
         <v>3346</v>
-      </c>
-      <c r="D90" s="33" t="s">
-        <v>3347</v>
       </c>
       <c r="E90" s="56">
         <v>1</v>
@@ -53044,10 +53042,10 @@
         <v>743</v>
       </c>
       <c r="C92" s="33" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D92" s="33" t="s">
         <v>3348</v>
-      </c>
-      <c r="D92" s="33" t="s">
-        <v>3349</v>
       </c>
       <c r="E92" s="56">
         <v>10</v>
@@ -53156,7 +53154,7 @@
         <v>2706</v>
       </c>
       <c r="E98" s="56">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F98" s="56">
         <v>1320</v>
@@ -53182,7 +53180,7 @@
         <v>12</v>
       </c>
       <c r="F99" s="35" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -53296,7 +53294,7 @@
         <v>8</v>
       </c>
       <c r="F106" s="35" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -53308,7 +53306,7 @@
       </c>
       <c r="C107" s="33"/>
       <c r="D107" s="33" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="E107" s="56">
         <v>7</v>
@@ -53402,7 +53400,7 @@
         <v>10</v>
       </c>
       <c r="F112" s="35" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -53711,7 +53709,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>1957</v>
@@ -53739,7 +53737,7 @@
         <v>12</v>
       </c>
       <c r="F131" s="35" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -53774,7 +53772,7 @@
         <v>2709</v>
       </c>
       <c r="E133" s="56">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F133" s="35" t="s">
         <v>2790</v>
@@ -53875,7 +53873,7 @@
         <v>1863</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="E138" s="56">
         <v>1</v>
@@ -54119,7 +54117,7 @@
         <v>14</v>
       </c>
       <c r="F151" s="35" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -54130,10 +54128,10 @@
         <v>794</v>
       </c>
       <c r="C152" s="33" t="s">
+        <v>3351</v>
+      </c>
+      <c r="D152" s="33" t="s">
         <v>3352</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>3353</v>
       </c>
       <c r="E152" s="56">
         <v>0</v>
@@ -54306,13 +54304,13 @@
         <v>586</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="E161" s="56">
         <v>9</v>
       </c>
       <c r="F161" s="35" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -54361,7 +54359,7 @@
         <v>1893</v>
       </c>
       <c r="E164" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F164" s="35" t="s">
         <v>2736</v>
@@ -54438,7 +54436,7 @@
         <v>5</v>
       </c>
       <c r="F168" s="35" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -54487,7 +54485,7 @@
         <v>2708</v>
       </c>
       <c r="E171" s="56">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F171" s="35">
         <v>1287</v>
@@ -54594,7 +54592,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="33" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="C177" s="33" t="s">
         <v>1550</v>
@@ -54785,7 +54783,7 @@
         <v>21</v>
       </c>
       <c r="F186" s="35" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -54809,7 +54807,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="33" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="C188" s="33" t="s">
         <v>268</v>
@@ -54970,7 +54968,7 @@
         <v>2733</v>
       </c>
       <c r="E196" s="56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F196" s="35">
         <v>1087</v>
@@ -54981,7 +54979,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="33" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="C197" s="33" t="s">
         <v>1550</v>
@@ -55020,10 +55018,10 @@
         <v>1717</v>
       </c>
       <c r="C199" s="33" t="s">
+        <v>3354</v>
+      </c>
+      <c r="D199" s="33" t="s">
         <v>3355</v>
-      </c>
-      <c r="D199" s="33" t="s">
-        <v>3356</v>
       </c>
       <c r="E199" s="56">
         <v>13</v>
@@ -55057,7 +55055,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="33" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="C201" s="33"/>
       <c r="D201" s="33"/>
@@ -55071,7 +55069,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="33" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="C202" s="33"/>
       <c r="D202" s="33"/>
@@ -55157,7 +55155,7 @@
         <v>13</v>
       </c>
       <c r="F206" s="35" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -55323,7 +55321,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="33" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="C216" s="33" t="s">
         <v>1957</v>
@@ -55558,10 +55556,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="33" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C229" s="33" t="s">
         <v>2857</v>
-      </c>
-      <c r="C229" s="33" t="s">
-        <v>2858</v>
       </c>
       <c r="D229" s="33"/>
       <c r="E229" s="56">
@@ -55592,7 +55590,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="33" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="C231" s="33"/>
       <c r="D231" s="33"/>
@@ -57108,6 +57106,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:G231"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1207">
@@ -57138,8 +57137,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView topLeftCell="B96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView topLeftCell="B171" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57161,10 +57160,10 @@
         <v>2379</v>
       </c>
       <c r="C1" s="85" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>3162</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>3163</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>1982</v>
@@ -57199,7 +57198,7 @@
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F3" s="35">
         <v>161</v>
@@ -57217,7 +57216,7 @@
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F4" s="35">
         <v>146</v>
@@ -57308,7 +57307,7 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F9" s="35">
         <v>193</v>
@@ -57340,11 +57339,11 @@
         <v>2227</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33">
-        <v>892</v>
+        <v>802</v>
       </c>
       <c r="F11" s="35">
         <v>184</v>
@@ -57376,10 +57375,10 @@
         <v>1213</v>
       </c>
       <c r="C13" s="33" t="s">
+        <v>3356</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>3357</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>3358</v>
       </c>
       <c r="E13" s="42">
         <v>12</v>
@@ -57397,10 +57396,10 @@
         <v>1214</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="E14" s="42">
         <v>11</v>
@@ -57471,7 +57470,7 @@
         <v>1217</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33">
@@ -57507,10 +57506,10 @@
         <v>2513</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="E20" s="33">
         <v>5</v>
@@ -57527,7 +57526,7 @@
         <v>1453</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33">
@@ -57615,7 +57614,7 @@
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="35">
         <v>1118</v>
@@ -57629,10 +57628,10 @@
         <v>2684</v>
       </c>
       <c r="C27" s="33" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D27" s="33" t="s">
         <v>3365</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>3366</v>
       </c>
       <c r="E27" s="53">
         <v>5</v>
@@ -57649,10 +57648,10 @@
         <v>2056</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="E28" s="60">
         <v>17</v>
@@ -57669,10 +57668,10 @@
         <v>2107</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="E29" s="60">
         <v>27</v>
@@ -57689,10 +57688,10 @@
         <v>2581</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="E30" s="60">
         <v>18</v>
@@ -57709,10 +57708,10 @@
         <v>2057</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="E31" s="60">
         <v>29</v>
@@ -57729,10 +57728,10 @@
         <v>2690</v>
       </c>
       <c r="C32" s="33" t="s">
+        <v>3370</v>
+      </c>
+      <c r="D32" s="33" t="s">
         <v>3371</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>3372</v>
       </c>
       <c r="E32" s="60">
         <v>4</v>
@@ -57770,10 +57769,10 @@
         <v>2146</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="E34" s="60">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34" s="35">
         <v>1118</v>
@@ -57787,7 +57786,7 @@
         <v>2447</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="D35" s="33">
         <v>239</v>
@@ -57807,10 +57806,10 @@
         <v>2667</v>
       </c>
       <c r="C36" s="33" t="s">
+        <v>3374</v>
+      </c>
+      <c r="D36" s="33" t="s">
         <v>3375</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>3376</v>
       </c>
       <c r="E36" s="33">
         <v>3</v>
@@ -57824,13 +57823,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="E37" s="33">
         <v>6</v>
@@ -57944,7 +57943,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -57970,13 +57969,13 @@
         <v>45</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="E45" s="60">
         <v>30</v>
@@ -57990,11 +57989,11 @@
         <v>46</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="E46" s="60">
         <v>2</v>
@@ -58008,11 +58007,11 @@
         <v>47</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="E47" s="60">
         <v>0</v>
@@ -58024,7 +58023,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
@@ -58110,7 +58109,7 @@
         <v>1226</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="E53" s="42">
         <v>10</v>
@@ -58184,7 +58183,7 @@
         <v>2383</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="E57" s="42">
         <v>3</v>
@@ -58439,7 +58438,7 @@
       </c>
       <c r="D72" s="33"/>
       <c r="E72" s="42">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F72" s="35">
         <v>295</v>
@@ -58456,7 +58455,7 @@
         <v>2383</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="E73" s="42">
         <v>0</v>
@@ -58476,7 +58475,7 @@
         <v>1226</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="E74" s="42">
         <v>5</v>
@@ -58579,10 +58578,10 @@
         <v>1258</v>
       </c>
       <c r="C80" s="33" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D80" s="33" t="s">
         <v>3386</v>
-      </c>
-      <c r="D80" s="33" t="s">
-        <v>3387</v>
       </c>
       <c r="E80" s="33">
         <v>14</v>
@@ -58634,7 +58633,7 @@
         <v>2383</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="E83" s="33">
         <v>8</v>
@@ -58651,10 +58650,10 @@
         <v>1262</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="E84" s="33">
         <v>23</v>
@@ -58671,10 +58670,10 @@
         <v>2756</v>
       </c>
       <c r="C85" s="33" t="s">
+        <v>3389</v>
+      </c>
+      <c r="D85" s="33" t="s">
         <v>3390</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>3391</v>
       </c>
       <c r="E85" s="33">
         <v>1</v>
@@ -58691,13 +58690,13 @@
         <v>1263</v>
       </c>
       <c r="C86" s="33" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D86" s="33" t="s">
         <v>3392</v>
       </c>
-      <c r="D86" s="33" t="s">
-        <v>3393</v>
-      </c>
       <c r="E86" s="33">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F86" s="33">
         <v>330</v>
@@ -58714,7 +58713,7 @@
         <v>2383</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="E87" s="33">
         <v>0</v>
@@ -58826,7 +58825,7 @@
         <v>2</v>
       </c>
       <c r="F93" s="61" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -58840,7 +58839,7 @@
         <v>1226</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="E94" s="33">
         <v>3</v>
@@ -58887,13 +58886,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>1226</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="E97" s="33">
         <v>2</v>
@@ -58935,7 +58934,7 @@
         <v>66</v>
       </c>
       <c r="F99" s="35" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -59004,10 +59003,10 @@
         <v>2177</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E103" s="33">
         <v>14</v>
@@ -59024,10 +59023,10 @@
         <v>2212</v>
       </c>
       <c r="C104" s="33" t="s">
+        <v>3395</v>
+      </c>
+      <c r="D104" s="33" t="s">
         <v>3396</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>3397</v>
       </c>
       <c r="E104" s="60">
         <v>15</v>
@@ -59044,10 +59043,10 @@
         <v>2083</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="E105" s="60">
         <v>16</v>
@@ -59064,7 +59063,7 @@
         <v>1973</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="D106" s="33" t="s">
         <v>1521</v>
@@ -59105,7 +59104,7 @@
         <v>2482</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="E108" s="33">
         <v>14</v>
@@ -59215,7 +59214,7 @@
         <v>2175</v>
       </c>
       <c r="D114" s="33" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="E114" s="33">
         <v>3</v>
@@ -59297,10 +59296,10 @@
         <v>122</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="C119" s="33" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="D119" s="33" t="s">
         <v>1573</v>
@@ -59389,7 +59388,7 @@
         <v>1279</v>
       </c>
       <c r="D124" s="57" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="E124" s="33">
         <v>3</v>
@@ -59429,10 +59428,10 @@
         <v>1283</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="E126" s="33">
         <v>0</v>
@@ -59518,10 +59517,10 @@
         <v>2240</v>
       </c>
       <c r="C131" s="33" t="s">
+        <v>3400</v>
+      </c>
+      <c r="D131" s="33" t="s">
         <v>3401</v>
-      </c>
-      <c r="D131" s="33" t="s">
-        <v>3402</v>
       </c>
       <c r="E131" s="33">
         <v>0</v>
@@ -59554,10 +59553,10 @@
         <v>1407</v>
       </c>
       <c r="C133" s="33" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D133" s="33" t="s">
         <v>3403</v>
-      </c>
-      <c r="D133" s="33" t="s">
-        <v>3404</v>
       </c>
       <c r="E133" s="33">
         <v>2</v>
@@ -59578,7 +59577,7 @@
       </c>
       <c r="D134" s="33"/>
       <c r="E134" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F134" s="35">
         <v>1400</v>
@@ -59625,13 +59624,13 @@
         <v>144</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="E137" s="33">
         <v>5</v>
@@ -59711,10 +59710,10 @@
         <v>1279</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="E141" s="35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F141" s="33">
         <v>1804</v>
@@ -59802,7 +59801,7 @@
         <v>1279</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="E146" s="33">
         <v>0</v>
@@ -59849,10 +59848,10 @@
         <v>2742</v>
       </c>
       <c r="C149" s="33" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D149" s="33" t="s">
         <v>3406</v>
-      </c>
-      <c r="D149" s="33" t="s">
-        <v>3407</v>
       </c>
       <c r="E149" s="33">
         <v>1</v>
@@ -59869,10 +59868,10 @@
         <v>2743</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="E150" s="33">
         <v>1</v>
@@ -59974,7 +59973,7 @@
       </c>
       <c r="D156" s="33"/>
       <c r="E156" s="35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F156" s="33">
         <v>150</v>
@@ -59985,7 +59984,7 @@
         <v>175</v>
       </c>
       <c r="B157" s="90" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="C157" s="90"/>
       <c r="D157" s="90"/>
@@ -60000,7 +59999,7 @@
         <v>2020</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="D158" s="33" t="s">
         <v>836</v>
@@ -60020,13 +60019,13 @@
         <v>1815</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="D159" s="33" t="s">
         <v>1859</v>
       </c>
       <c r="E159" s="33">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="F159" s="35">
         <v>234</v>
@@ -60040,7 +60039,7 @@
         <v>2106</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="D160" s="33" t="s">
         <v>2424</v>
@@ -60060,10 +60059,10 @@
         <v>2381</v>
       </c>
       <c r="C161" s="57" t="s">
+        <v>3416</v>
+      </c>
+      <c r="D161" s="57" t="s">
         <v>3417</v>
-      </c>
-      <c r="D161" s="57" t="s">
-        <v>3418</v>
       </c>
       <c r="E161" s="33">
         <v>59</v>
@@ -60080,13 +60079,13 @@
         <v>2001</v>
       </c>
       <c r="C162" s="33" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D162" s="33" t="s">
         <v>3419</v>
       </c>
-      <c r="D162" s="33" t="s">
-        <v>3420</v>
-      </c>
       <c r="E162" s="33">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F162" s="35">
         <v>686</v>
@@ -60100,10 +60099,10 @@
         <v>2263</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="E163" s="60">
         <v>20</v>
@@ -60120,10 +60119,10 @@
         <v>2368</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="D164" s="33" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="E164" s="60">
         <v>4</v>
@@ -60140,16 +60139,16 @@
         <v>2000</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="D165" s="33" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="E165" s="33">
         <v>8</v>
       </c>
       <c r="F165" s="35" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -60160,7 +60159,7 @@
         <v>2002</v>
       </c>
       <c r="C166" s="33" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="D166" s="33" t="s">
         <v>2555</v>
@@ -60169,7 +60168,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="35" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -60180,10 +60179,10 @@
         <v>1223</v>
       </c>
       <c r="C167" s="33" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D167" s="33" t="s">
         <v>3424</v>
-      </c>
-      <c r="D167" s="33" t="s">
-        <v>3425</v>
       </c>
       <c r="E167" s="33">
         <v>76</v>
@@ -60200,10 +60199,10 @@
         <v>1942</v>
       </c>
       <c r="C168" s="33" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D168" s="33" t="s">
         <v>3426</v>
-      </c>
-      <c r="D168" s="33" t="s">
-        <v>3427</v>
       </c>
       <c r="E168" s="33">
         <v>13</v>
@@ -60220,10 +60219,10 @@
         <v>2341</v>
       </c>
       <c r="C169" s="33" t="s">
+        <v>3427</v>
+      </c>
+      <c r="D169" s="33" t="s">
         <v>3428</v>
-      </c>
-      <c r="D169" s="33" t="s">
-        <v>3429</v>
       </c>
       <c r="E169" s="33">
         <v>2</v>
@@ -60240,10 +60239,10 @@
         <v>2327</v>
       </c>
       <c r="C170" s="33" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="E170" s="33">
         <v>5</v>
@@ -60260,13 +60259,13 @@
         <v>2485</v>
       </c>
       <c r="C171" s="33" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D171" s="33" t="s">
         <v>3431</v>
       </c>
-      <c r="D171" s="33" t="s">
-        <v>3432</v>
-      </c>
       <c r="E171" s="33">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="F171" s="35">
         <v>649</v>
@@ -60280,13 +60279,13 @@
         <v>2489</v>
       </c>
       <c r="C172" s="33" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="D172" s="33" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="E172" s="33">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F172" s="35">
         <v>759</v>
@@ -60300,10 +60299,10 @@
         <v>2488</v>
       </c>
       <c r="C173" s="33" t="s">
+        <v>3433</v>
+      </c>
+      <c r="D173" s="33" t="s">
         <v>3434</v>
-      </c>
-      <c r="D173" s="33" t="s">
-        <v>3435</v>
       </c>
       <c r="E173" s="33">
         <v>36</v>
@@ -60320,7 +60319,7 @@
         <v>2340</v>
       </c>
       <c r="C174" s="33" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="D174" s="33" t="s">
         <v>2531</v>
@@ -60340,10 +60339,10 @@
         <v>2648</v>
       </c>
       <c r="C175" s="33" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D175" s="33" t="s">
         <v>3436</v>
-      </c>
-      <c r="D175" s="33" t="s">
-        <v>3437</v>
       </c>
       <c r="E175" s="33">
         <v>21</v>
@@ -60360,10 +60359,10 @@
         <v>2746</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="D176" s="33" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="E176" s="33">
         <v>5</v>
@@ -60380,10 +60379,10 @@
         <v>2650</v>
       </c>
       <c r="C177" s="33" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="D177" s="33" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="E177" s="33">
         <v>29</v>
@@ -60397,11 +60396,11 @@
         <v>198</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="C178" s="33"/>
       <c r="D178" s="33" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="E178" s="33">
         <v>4</v>
@@ -60418,10 +60417,10 @@
         <v>2748</v>
       </c>
       <c r="C179" s="33" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="D179" s="33" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="E179" s="33">
         <v>14</v>
@@ -60435,7 +60434,7 @@
         <v>203</v>
       </c>
       <c r="B180" s="90" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="C180" s="90"/>
       <c r="D180" s="90"/>
@@ -60450,10 +60449,10 @@
         <v>1254</v>
       </c>
       <c r="C181" s="33" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="D181" s="33" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="E181" s="33">
         <v>0</v>
@@ -60470,13 +60469,13 @@
         <v>1255</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="D182" s="33" t="s">
         <v>290</v>
       </c>
       <c r="E182" s="33">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F182" s="35">
         <v>170</v>
@@ -60490,16 +60489,16 @@
         <v>1264</v>
       </c>
       <c r="C183" s="33" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="D183" s="33" t="s">
         <v>318</v>
       </c>
       <c r="E183" s="33">
-        <v>0</v>
-      </c>
-      <c r="F183" s="35" t="s">
-        <v>2842</v>
+        <v>50</v>
+      </c>
+      <c r="F183" s="35">
+        <v>186</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -60510,10 +60509,10 @@
         <v>1546</v>
       </c>
       <c r="C184" s="33" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="D184" s="33" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="E184" s="33">
         <v>24</v>
@@ -60533,7 +60532,7 @@
         <v>2383</v>
       </c>
       <c r="D185" s="33" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="E185" s="33">
         <v>33</v>
@@ -60576,7 +60575,7 @@
         <v>2248</v>
       </c>
       <c r="E187" s="33">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F187" s="35">
         <v>229</v>
@@ -60593,7 +60592,7 @@
         <v>2383</v>
       </c>
       <c r="D188" s="33" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="E188" s="33">
         <v>36</v>
@@ -60613,13 +60612,13 @@
         <v>2383</v>
       </c>
       <c r="D189" s="33" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="E189" s="33">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="F189" s="33" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -60630,10 +60629,10 @@
         <v>1543</v>
       </c>
       <c r="C190" s="33" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D190" s="33" t="s">
         <v>3446</v>
-      </c>
-      <c r="D190" s="33" t="s">
-        <v>3447</v>
       </c>
       <c r="E190" s="33">
         <v>34</v>
@@ -60653,7 +60652,7 @@
         <v>2383</v>
       </c>
       <c r="D191" s="33" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="E191" s="33">
         <v>33</v>
@@ -60692,7 +60691,7 @@
         <v>2804</v>
       </c>
       <c r="E193" s="42">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F193" s="35">
         <v>170</v>
@@ -60709,13 +60708,13 @@
         <v>2383</v>
       </c>
       <c r="D194" s="33" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="E194" s="42">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F194" s="35" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -60745,7 +60744,7 @@
         <v>1226</v>
       </c>
       <c r="D196" s="33" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="E196" s="33">
         <v>14</v>
@@ -60762,10 +60761,10 @@
         <v>1272</v>
       </c>
       <c r="C197" s="33" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="D197" s="33" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="E197" s="33">
         <v>4</v>
@@ -60783,7 +60782,7 @@
       </c>
       <c r="C198" s="33"/>
       <c r="D198" s="33" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="E198" s="33">
         <v>28</v>
@@ -60803,10 +60802,10 @@
         <v>2383</v>
       </c>
       <c r="D199" s="33" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="E199" s="33">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F199" s="35">
         <v>155</v>
@@ -60820,7 +60819,7 @@
         <v>2359</v>
       </c>
       <c r="C200" s="33" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="D200" s="33" t="s">
         <v>2440</v>
@@ -60840,16 +60839,16 @@
         <v>2342</v>
       </c>
       <c r="C201" s="33" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="D201" s="33" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="E201" s="33">
         <v>32</v>
       </c>
       <c r="F201" s="35" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -60860,16 +60859,16 @@
         <v>2328</v>
       </c>
       <c r="C202" s="33" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="D202" s="33" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="E202" s="33">
         <v>16</v>
       </c>
       <c r="F202" s="35" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -60880,10 +60879,10 @@
         <v>2329</v>
       </c>
       <c r="C203" s="33" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="D203" s="33" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="E203" s="33">
         <v>3</v>
@@ -60900,10 +60899,10 @@
         <v>2331</v>
       </c>
       <c r="C204" s="33" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="D204" s="33" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="E204" s="33">
         <v>5</v>
@@ -60920,10 +60919,10 @@
         <v>2332</v>
       </c>
       <c r="C205" s="33" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="D205" s="33" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="E205" s="33">
         <v>19</v>
@@ -60940,7 +60939,7 @@
         <v>2561</v>
       </c>
       <c r="C206" s="33" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="D206" s="33" t="s">
         <v>2410</v>
@@ -60960,10 +60959,10 @@
         <v>2480</v>
       </c>
       <c r="C207" s="33" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="D207" s="33" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="E207" s="33">
         <v>17</v>
@@ -60980,10 +60979,10 @@
         <v>2491</v>
       </c>
       <c r="C208" s="33" t="s">
+        <v>3458</v>
+      </c>
+      <c r="D208" s="33" t="s">
         <v>3459</v>
-      </c>
-      <c r="D208" s="33" t="s">
-        <v>3460</v>
       </c>
       <c r="E208" s="33">
         <v>91</v>
@@ -61001,7 +61000,7 @@
       </c>
       <c r="C209" s="33"/>
       <c r="D209" s="33" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="E209" s="33">
         <v>2</v>
@@ -61013,7 +61012,7 @@
         <v>237</v>
       </c>
       <c r="B210" s="90" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="C210" s="90"/>
       <c r="D210" s="90"/>
@@ -61028,7 +61027,7 @@
         <v>1971</v>
       </c>
       <c r="C211" s="33" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="D211" s="33" t="s">
         <v>836</v>
@@ -61048,10 +61047,10 @@
         <v>2369</v>
       </c>
       <c r="C212" s="33" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="D212" s="33" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="E212" s="33">
         <v>48</v>
@@ -61068,16 +61067,16 @@
         <v>2313</v>
       </c>
       <c r="C213" s="33" t="s">
+        <v>3461</v>
+      </c>
+      <c r="D213" s="33" t="s">
         <v>3462</v>
-      </c>
-      <c r="D213" s="33" t="s">
-        <v>3463</v>
       </c>
       <c r="E213" s="33">
         <v>18</v>
       </c>
       <c r="F213" s="33" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -61088,10 +61087,10 @@
         <v>2314</v>
       </c>
       <c r="C214" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D214" s="33" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="E214" s="33">
         <v>21</v>
@@ -61108,10 +61107,10 @@
         <v>2315</v>
       </c>
       <c r="C215" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D215" s="33" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="E215" s="33">
         <v>45</v>
@@ -61128,16 +61127,16 @@
         <v>2316</v>
       </c>
       <c r="C216" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D216" s="33" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="E216" s="33">
         <v>14</v>
       </c>
       <c r="F216" s="33" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -61148,7 +61147,7 @@
         <v>2317</v>
       </c>
       <c r="C217" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D217" s="33" t="s">
         <v>2394</v>
@@ -61168,10 +61167,10 @@
         <v>2318</v>
       </c>
       <c r="C218" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D218" s="33" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="E218" s="33">
         <v>11</v>
@@ -61188,10 +61187,10 @@
         <v>2471</v>
       </c>
       <c r="C219" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D219" s="33" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="E219" s="33">
         <v>21</v>
@@ -61208,7 +61207,7 @@
         <v>2319</v>
       </c>
       <c r="C220" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D220" s="33" t="s">
         <v>2407</v>
@@ -61217,7 +61216,7 @@
         <v>6</v>
       </c>
       <c r="F220" s="33" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -61228,10 +61227,10 @@
         <v>2360</v>
       </c>
       <c r="C221" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D221" s="33" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="E221" s="33">
         <v>16</v>
@@ -61248,10 +61247,10 @@
         <v>2320</v>
       </c>
       <c r="C222" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D222" s="33" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="E222" s="33">
         <v>39</v>
@@ -61268,10 +61267,10 @@
         <v>2321</v>
       </c>
       <c r="C223" s="33" t="s">
+        <v>3469</v>
+      </c>
+      <c r="D223" s="33" t="s">
         <v>3470</v>
-      </c>
-      <c r="D223" s="33" t="s">
-        <v>3471</v>
       </c>
       <c r="E223" s="33">
         <v>19</v>
@@ -61285,13 +61284,13 @@
         <v>253</v>
       </c>
       <c r="B224" s="33" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="C224" s="33" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="D224" s="33" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="E224" s="33">
         <v>9</v>
@@ -61308,16 +61307,16 @@
         <v>2322</v>
       </c>
       <c r="C225" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D225" s="33" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="E225" s="33">
         <v>19</v>
       </c>
       <c r="F225" s="33" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -61328,13 +61327,13 @@
         <v>2323</v>
       </c>
       <c r="C226" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D226" s="33" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="E226" s="33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F226" s="33" t="s">
         <v>2831</v>
@@ -61348,10 +61347,10 @@
         <v>2324</v>
       </c>
       <c r="C227" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D227" s="33" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="E227" s="33">
         <v>0</v>
@@ -61368,10 +61367,10 @@
         <v>2325</v>
       </c>
       <c r="C228" s="33" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="D228" s="33" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="E228" s="33">
         <v>18</v>
@@ -61388,10 +61387,10 @@
         <v>2326</v>
       </c>
       <c r="C229" s="33" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="D229" s="33" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="E229" s="33">
         <v>34</v>
@@ -61408,10 +61407,10 @@
         <v>2335</v>
       </c>
       <c r="C230" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D230" s="33" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="E230" s="33">
         <v>7</v>
@@ -61428,13 +61427,13 @@
         <v>1683</v>
       </c>
       <c r="C231" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D231" s="33" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="E231" s="33">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F231" s="35">
         <v>353</v>
@@ -61448,16 +61447,16 @@
         <v>2347</v>
       </c>
       <c r="C232" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D232" s="33" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="E232" s="33">
         <v>19</v>
       </c>
       <c r="F232" s="35" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -61468,10 +61467,10 @@
         <v>2367</v>
       </c>
       <c r="C233" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D233" s="33" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="E233" s="33">
         <v>41</v>
@@ -61488,10 +61487,10 @@
         <v>2348</v>
       </c>
       <c r="C234" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D234" s="33" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="E234" s="33">
         <v>51</v>
@@ -61508,10 +61507,10 @@
         <v>2349</v>
       </c>
       <c r="C235" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D235" s="33" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="E235" s="33">
         <v>38</v>
@@ -61528,10 +61527,10 @@
         <v>2361</v>
       </c>
       <c r="C236" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D236" s="33" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="E236" s="33">
         <v>37</v>
@@ -61548,10 +61547,10 @@
         <v>2483</v>
       </c>
       <c r="C237" s="33" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="D237" s="33" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="E237" s="33">
         <v>12</v>
@@ -61568,10 +61567,10 @@
         <v>2490</v>
       </c>
       <c r="C238" s="33" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="D238" s="33" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="E238" s="33">
         <v>13</v>
@@ -61585,13 +61584,13 @@
         <v>268</v>
       </c>
       <c r="B239" s="33" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="C239" s="33" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="D239" s="33" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="E239" s="33">
         <v>10</v>
@@ -61608,10 +61607,10 @@
         <v>2537</v>
       </c>
       <c r="C240" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D240" s="33" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="E240" s="33">
         <v>16</v>
@@ -61628,7 +61627,7 @@
         <v>2656</v>
       </c>
       <c r="C241" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D241" s="33" t="s">
         <v>2440</v>
@@ -61648,7 +61647,7 @@
         <v>2739</v>
       </c>
       <c r="C242" s="33" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="D242" s="33" t="s">
         <v>2425</v>
@@ -61668,10 +61667,10 @@
         <v>2740</v>
       </c>
       <c r="C243" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D243" s="33" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E243" s="33">
         <v>4</v>
@@ -61688,10 +61687,10 @@
         <v>2741</v>
       </c>
       <c r="C244" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D244" s="33" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="E244" s="33">
         <v>4</v>
@@ -61708,10 +61707,10 @@
         <v>2744</v>
       </c>
       <c r="C245" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D245" s="33" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="E245" s="33">
         <v>66</v>
@@ -61728,10 +61727,10 @@
         <v>2745</v>
       </c>
       <c r="C246" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D246" s="33" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="E246" s="33">
         <v>22</v>
@@ -61748,10 +61747,10 @@
         <v>2747</v>
       </c>
       <c r="C247" s="33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D247" s="33" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="E247" s="33">
         <v>13</v>
@@ -61768,14 +61767,14 @@
         <v>2822</v>
       </c>
       <c r="C248" s="33" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="D248" s="33"/>
       <c r="E248" s="33">
         <v>6</v>
       </c>
       <c r="F248" s="35" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -61783,13 +61782,13 @@
         <v>279</v>
       </c>
       <c r="B249" s="33" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="C249" s="33" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="D249" s="33" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="E249" s="33">
         <v>6</v>
@@ -61803,13 +61802,13 @@
         <v>280</v>
       </c>
       <c r="B250" s="33" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="C250" s="33" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="D250" s="33" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="E250" s="33">
         <v>8</v>
@@ -61823,13 +61822,13 @@
         <v>281</v>
       </c>
       <c r="B251" s="33" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C251" s="33" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="E251" s="33">
         <v>8</v>
@@ -61843,13 +61842,13 @@
         <v>282</v>
       </c>
       <c r="B252" s="33" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="C252" s="33" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="D252" s="33" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="E252" s="33">
         <v>18</v>
@@ -61863,13 +61862,13 @@
         <v>283</v>
       </c>
       <c r="B253" s="33" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="C253" s="33" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="D253" s="33" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="E253" s="33">
         <v>16</v>
@@ -61883,10 +61882,10 @@
         <v>284</v>
       </c>
       <c r="B254" s="33" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="C254" s="33" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="D254" s="33" t="s">
         <v>2426</v>
@@ -61903,13 +61902,13 @@
         <v>285</v>
       </c>
       <c r="B255" s="33" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="C255" s="33" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="D255" s="33" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="E255" s="33">
         <v>9</v>
@@ -61923,10 +61922,10 @@
         <v>286</v>
       </c>
       <c r="B256" s="33" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C256" s="33" t="s">
         <v>2990</v>
-      </c>
-      <c r="C256" s="33" t="s">
-        <v>2991</v>
       </c>
       <c r="D256" s="33"/>
       <c r="E256" s="33">
@@ -61941,13 +61940,13 @@
         <v>287</v>
       </c>
       <c r="B257" s="33" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C257" s="33" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D257" s="33" t="s">
         <v>2995</v>
-      </c>
-      <c r="C257" s="33" t="s">
-        <v>2991</v>
-      </c>
-      <c r="D257" s="33" t="s">
-        <v>2996</v>
       </c>
       <c r="E257" s="33">
         <v>4</v>
@@ -61961,13 +61960,13 @@
         <v>288</v>
       </c>
       <c r="B258" s="33" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="C258" s="33" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="D258" s="33" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="E258" s="33">
         <v>5</v>
@@ -61981,13 +61980,13 @@
         <v>289</v>
       </c>
       <c r="B259" s="33" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="C259" s="33" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="D259" s="33" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="E259" s="33">
         <v>9</v>
@@ -62001,13 +62000,13 @@
         <v>290</v>
       </c>
       <c r="B260" s="33" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="C260" s="33" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="D260" s="33" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="E260" s="33">
         <v>5</v>
@@ -62021,13 +62020,13 @@
         <v>291</v>
       </c>
       <c r="B261" s="33" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="C261" s="33" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="D261" s="33" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="E261" s="33">
         <v>3</v>
@@ -62041,13 +62040,13 @@
         <v>292</v>
       </c>
       <c r="B262" s="33" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="C262" s="33" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="D262" s="33" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="E262" s="33">
         <v>12</v>
@@ -62061,13 +62060,13 @@
         <v>293</v>
       </c>
       <c r="B263" s="33" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="C263" s="33" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="D263" s="33" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="E263" s="33">
         <v>5</v>
@@ -62081,13 +62080,13 @@
         <v>294</v>
       </c>
       <c r="B264" s="33" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="C264" s="33" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="D264" s="33" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="E264" s="33">
         <v>5</v>
@@ -62101,7 +62100,7 @@
         <v>299</v>
       </c>
       <c r="B265" s="90" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="C265" s="90"/>
       <c r="D265" s="90"/>
@@ -62119,7 +62118,7 @@
         <v>2382</v>
       </c>
       <c r="D266" s="33" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="E266" s="33">
         <v>14</v>
@@ -62136,7 +62135,7 @@
         <v>2339</v>
       </c>
       <c r="C267" s="33" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="D267" s="33" t="s">
         <v>683</v>
@@ -62156,7 +62155,7 @@
         <v>2362</v>
       </c>
       <c r="C268" s="33" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="D268" s="33" t="s">
         <v>2407</v>
@@ -62165,7 +62164,7 @@
         <v>27</v>
       </c>
       <c r="F268" s="33" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="G268" s="2">
         <v>399</v>
@@ -62179,10 +62178,10 @@
         <v>2363</v>
       </c>
       <c r="C269" s="33" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="D269" s="33" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="E269" s="33">
         <v>18</v>
@@ -62199,10 +62198,10 @@
         <v>2391</v>
       </c>
       <c r="C270" s="33" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="D270" s="33" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="E270" s="33">
         <v>9</v>
@@ -62219,10 +62218,10 @@
         <v>2364</v>
       </c>
       <c r="C271" s="33" t="s">
+        <v>3499</v>
+      </c>
+      <c r="D271" s="33" t="s">
         <v>3500</v>
-      </c>
-      <c r="D271" s="33" t="s">
-        <v>3501</v>
       </c>
       <c r="E271" s="33">
         <v>9</v>
@@ -62236,13 +62235,13 @@
         <v>308</v>
       </c>
       <c r="B272" s="33" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="C272" s="33" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="D272" s="33" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="E272" s="33">
         <v>12</v>
@@ -62259,10 +62258,10 @@
         <v>2365</v>
       </c>
       <c r="C273" s="33" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="D273" s="33" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="E273" s="33">
         <v>12</v>
@@ -62279,10 +62278,10 @@
         <v>2388</v>
       </c>
       <c r="C274" s="33" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="D274" s="33" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="E274" s="33">
         <v>5</v>
@@ -62314,7 +62313,7 @@
         <v>312</v>
       </c>
       <c r="B276" s="33" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="C276" s="33"/>
       <c r="D276" s="33" t="s">
@@ -62335,7 +62334,7 @@
         <v>2652</v>
       </c>
       <c r="C277" s="33" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="D277" s="33" t="s">
         <v>2446</v>
@@ -62355,16 +62354,16 @@
         <v>2678</v>
       </c>
       <c r="C278" s="33" t="s">
+        <v>3504</v>
+      </c>
+      <c r="D278" s="33" t="s">
         <v>3505</v>
-      </c>
-      <c r="D278" s="33" t="s">
-        <v>3506</v>
       </c>
       <c r="E278" s="33">
         <v>37</v>
       </c>
       <c r="F278" s="35" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -62372,11 +62371,11 @@
         <v>315</v>
       </c>
       <c r="B279" s="33" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="C279" s="33"/>
       <c r="D279" s="33" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="E279" s="33">
         <v>11</v>
@@ -62390,11 +62389,11 @@
         <v>316</v>
       </c>
       <c r="B280" s="33" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="C280" s="33"/>
       <c r="D280" s="33" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="E280" s="33">
         <v>19</v>
@@ -62408,11 +62407,11 @@
         <v>317</v>
       </c>
       <c r="B281" s="33" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="C281" s="33"/>
       <c r="D281" s="33" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="E281" s="33">
         <v>14</v>
@@ -62426,11 +62425,11 @@
         <v>318</v>
       </c>
       <c r="B282" s="33" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="C282" s="33"/>
       <c r="D282" s="33" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="E282" s="33">
         <v>17</v>
@@ -62444,11 +62443,11 @@
         <v>319</v>
       </c>
       <c r="B283" s="33" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="C283" s="33"/>
       <c r="D283" s="33" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="E283" s="33">
         <v>6</v>
@@ -62462,11 +62461,11 @@
         <v>320</v>
       </c>
       <c r="B284" s="33" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="C284" s="33"/>
       <c r="D284" s="33" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="E284" s="33">
         <v>2</v>
@@ -62480,11 +62479,11 @@
         <v>321</v>
       </c>
       <c r="B285" s="33" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="C285" s="33"/>
       <c r="D285" s="33" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E285" s="33">
         <v>5</v>
@@ -62498,11 +62497,11 @@
         <v>322</v>
       </c>
       <c r="B286" s="33" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C286" s="33"/>
       <c r="D286" s="33" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="E286" s="33">
         <v>3</v>
@@ -62516,7 +62515,7 @@
         <v>323</v>
       </c>
       <c r="B287" s="33" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="C287" s="33"/>
       <c r="D287" s="33" t="s">
@@ -62534,7 +62533,7 @@
         <v>324</v>
       </c>
       <c r="B288" s="33" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="C288" s="33"/>
       <c r="D288" s="33"/>
@@ -62548,7 +62547,7 @@
         <v>325</v>
       </c>
       <c r="B289" s="33" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="C289" s="33"/>
       <c r="D289" s="33"/>
@@ -62558,6 +62557,7 @@
       <c r="F289" s="35"/>
     </row>
   </sheetData>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:J289"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1045">
@@ -62606,10 +62606,10 @@
         <v>2379</v>
       </c>
       <c r="C1" s="85" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>3162</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>3163</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>1982</v>
@@ -63489,7 +63489,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -63507,7 +63507,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -64109,8 +64109,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64130,10 +64130,10 @@
         <v>2379</v>
       </c>
       <c r="C1" s="85" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>3162</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>3163</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>1982</v>
@@ -64176,7 +64176,7 @@
         <v>290</v>
       </c>
       <c r="E3" s="35">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="33">
         <v>1465</v>
@@ -64302,7 +64302,7 @@
         <v>2248</v>
       </c>
       <c r="E10" s="35">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F10" s="33">
         <v>696</v>
@@ -64349,13 +64349,13 @@
         <v>23</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>2906</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="D13" s="33" t="s">
         <v>2907</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>2908</v>
       </c>
       <c r="E13" s="35">
         <v>47</v>
@@ -64369,13 +64369,13 @@
         <v>25</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="C14" s="33" t="s">
+        <v>2959</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>2960</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>2961</v>
       </c>
       <c r="E14" s="35">
         <v>10</v>
@@ -64389,16 +64389,16 @@
         <v>27</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>1907</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="E15" s="35">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F15" s="33">
         <v>368</v>
@@ -64429,7 +64429,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>2505</v>
@@ -64471,10 +64471,10 @@
         <v>1907</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="E19" s="35">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F19" s="33">
         <v>338</v>
@@ -64491,10 +64491,10 @@
         <v>1907</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="E20" s="35">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F20" s="33">
         <v>404</v>
@@ -64511,7 +64511,7 @@
         <v>1907</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="E21" s="35">
         <v>22</v>
@@ -64531,7 +64531,7 @@
         <v>1906</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="E22" s="35">
         <v>53</v>
@@ -64551,7 +64551,7 @@
         <v>1906</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="E23" s="35">
         <v>11</v>
@@ -64565,7 +64565,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>296</v>
@@ -64608,7 +64608,7 @@
         <v>300</v>
       </c>
       <c r="E26" s="35">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F26" s="33">
         <v>350</v>
@@ -64703,7 +64703,7 @@
         <v>66</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
@@ -64735,7 +64735,7 @@
         <v>71</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>1514</v>
@@ -64787,7 +64787,7 @@
         <v>80</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -64801,13 +64801,13 @@
         <v>82</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="E38" s="35">
         <v>10</v>
@@ -64821,13 +64821,13 @@
         <v>83</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="E39" s="35">
         <v>15</v>
@@ -64841,13 +64841,13 @@
         <v>84</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="C40" s="33" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D40" s="33" t="s">
         <v>3150</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>3151</v>
       </c>
       <c r="E40" s="35">
         <v>15</v>
@@ -64861,7 +64861,7 @@
         <v>85</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -64875,13 +64875,13 @@
         <v>86</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="E42" s="35">
         <v>10</v>
@@ -64895,7 +64895,7 @@
         <v>87</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
@@ -64923,8 +64923,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64944,10 +64944,10 @@
         <v>2379</v>
       </c>
       <c r="C1" s="85" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>3162</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>3163</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>1982</v>
@@ -64979,10 +64979,10 @@
         <v>410</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="E3" s="35">
         <v>0</v>
@@ -65000,7 +65000,7 @@
         <v>2196</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="E4" s="35">
         <v>10</v>
@@ -65017,7 +65017,7 @@
         <v>412</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="35">
@@ -65072,7 +65072,7 @@
         <v>2196</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="E8" s="35">
         <v>3</v>
@@ -65091,7 +65091,7 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="35">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>2819</v>
@@ -65108,7 +65108,7 @@
         <v>2196</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="E10" s="35">
         <v>1</v>
@@ -65145,7 +65145,7 @@
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="35">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F12" s="33">
         <v>155</v>
@@ -65166,7 +65166,7 @@
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="35">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F13" s="33">
         <v>195</v>
@@ -65349,10 +65349,10 @@
         <v>430</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="E24" s="35">
         <v>26</v>
@@ -65369,7 +65369,7 @@
         <v>431</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>432</v>
@@ -65387,7 +65387,7 @@
         <v>433</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="35">
@@ -65421,7 +65421,7 @@
         <v>434</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="35">
@@ -65437,7 +65437,7 @@
         <v>435</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="35">
@@ -65455,7 +65455,7 @@
         <v>436</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="35">
@@ -65473,7 +65473,7 @@
         <v>1556</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="35">
@@ -65523,7 +65523,7 @@
         <v>437</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="35">
@@ -65541,7 +65541,7 @@
         <v>438</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="35">
@@ -65798,7 +65798,7 @@
         <v>54</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="23.25">
@@ -65806,7 +65806,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="91" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="C50" s="91"/>
       <c r="D50" s="91"/>

--- a/public/BOSCH_STOCK1.xlsx
+++ b/public/BOSCH_STOCK1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="12240" windowHeight="9240" tabRatio="730" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="12240" windowHeight="9240" tabRatio="730" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ELEMENT" sheetId="1" r:id="rId1"/>
@@ -12184,8 +12184,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J440"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView topLeftCell="A152" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15466,7 +15466,7 @@
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F157" s="17"/>
       <c r="G157" s="17"/>
@@ -16092,8 +16092,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A270" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16208,7 +16208,7 @@
         <v>3518</v>
       </c>
       <c r="E5" s="75">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="74">
         <v>2443</v>
@@ -31185,8 +31185,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H310"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -31318,7 +31318,7 @@
         <v>1296</v>
       </c>
       <c r="E6" s="19">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F6" s="17">
         <v>2595</v>
@@ -31442,7 +31442,7 @@
         <v>1303</v>
       </c>
       <c r="E12" s="19">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F12" s="17">
         <v>2698</v>
@@ -31568,7 +31568,7 @@
         <v>1297</v>
       </c>
       <c r="E18" s="19">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F18" s="17">
         <v>2881</v>
@@ -31673,7 +31673,7 @@
         <v>1314</v>
       </c>
       <c r="E23" s="19">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="F23" s="17">
         <v>446</v>
@@ -31799,7 +31799,7 @@
         <v>2374</v>
       </c>
       <c r="E29" s="19">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F29" s="17">
         <v>1709</v>
@@ -32091,7 +32091,7 @@
         <v>1331</v>
       </c>
       <c r="E43" s="19">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="F43" s="17">
         <v>247</v>
@@ -32152,7 +32152,7 @@
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="32"/>
@@ -32388,7 +32388,7 @@
         <v>2894</v>
       </c>
       <c r="E58" s="84">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F58" s="32">
         <v>497</v>
@@ -32476,7 +32476,7 @@
       </c>
       <c r="D62" s="32"/>
       <c r="E62" s="84">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F62" s="32">
         <v>115</v>
@@ -32544,7 +32544,7 @@
         <v>2894</v>
       </c>
       <c r="E65" s="84">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F65" s="32">
         <v>2417</v>
@@ -33084,7 +33084,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
@@ -35878,8 +35878,8 @@
   </sheetPr>
   <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A233" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40636,7 +40636,7 @@
         <v>1735</v>
       </c>
       <c r="E241" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F241" s="9"/>
       <c r="G241" t="s">
@@ -41311,8 +41311,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H772"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43586,7 +43586,7 @@
       <c r="C127" s="33"/>
       <c r="D127" s="38"/>
       <c r="E127" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F127" s="33"/>
     </row>
@@ -44989,8 +44989,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H478"/>
   <sheetViews>
-    <sheetView topLeftCell="B316" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F330" sqref="F330"/>
+    <sheetView topLeftCell="A132" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50982,7 +50982,7 @@
       </c>
       <c r="D358" s="33"/>
       <c r="E358" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F358" s="33">
         <v>2735</v>
@@ -51454,8 +51454,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G571"/>
   <sheetViews>
-    <sheetView topLeftCell="B177" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E188" sqref="E188"/>
+    <sheetView topLeftCell="A140" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52717,7 +52717,7 @@
         <v>2706</v>
       </c>
       <c r="E74" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="35">
         <v>1525</v>
@@ -54034,7 +54034,7 @@
         <v>2702</v>
       </c>
       <c r="E147" s="56">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F147" s="35">
         <v>554</v>
@@ -54485,7 +54485,7 @@
         <v>2708</v>
       </c>
       <c r="E171" s="56">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F171" s="35">
         <v>1287</v>
@@ -57137,8 +57137,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView topLeftCell="B171" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView topLeftCell="B13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57216,7 +57216,7 @@
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="F4" s="35">
         <v>146</v>
@@ -57307,7 +57307,7 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F9" s="35">
         <v>193</v>
@@ -58166,7 +58166,7 @@
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="33">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F56" s="35">
         <v>260</v>
@@ -58254,7 +58254,7 @@
       </c>
       <c r="D61" s="33"/>
       <c r="E61" s="33">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F61" s="35">
         <v>298</v>
@@ -58272,7 +58272,7 @@
       </c>
       <c r="D62" s="33"/>
       <c r="E62" s="33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F62" s="35">
         <v>345</v>
@@ -58438,7 +58438,7 @@
       </c>
       <c r="D72" s="33"/>
       <c r="E72" s="42">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F72" s="35">
         <v>295</v>
@@ -58496,7 +58496,7 @@
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="33">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F75" s="35">
         <v>239</v>
@@ -58532,7 +58532,7 @@
       </c>
       <c r="D77" s="33"/>
       <c r="E77" s="33">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F77" s="35">
         <v>253</v>
@@ -58656,7 +58656,7 @@
         <v>3388</v>
       </c>
       <c r="E84" s="33">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F84" s="35">
         <v>286</v>
@@ -58859,7 +58859,7 @@
       </c>
       <c r="D95" s="33"/>
       <c r="E95" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F95" s="35">
         <v>288</v>
@@ -58951,7 +58951,7 @@
         <v>1847</v>
       </c>
       <c r="E100" s="33">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F100" s="33">
         <v>372</v>
@@ -59127,7 +59127,7 @@
         <v>1573</v>
       </c>
       <c r="E109" s="33">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F109" s="35">
         <v>494</v>
@@ -59713,7 +59713,7 @@
         <v>3413</v>
       </c>
       <c r="E141" s="35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F141" s="33">
         <v>1804</v>
@@ -60025,7 +60025,7 @@
         <v>1859</v>
       </c>
       <c r="E159" s="33">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F159" s="35">
         <v>234</v>
@@ -60265,7 +60265,7 @@
         <v>3431</v>
       </c>
       <c r="E171" s="33">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="F171" s="35">
         <v>649</v>
@@ -60575,7 +60575,7 @@
         <v>2248</v>
       </c>
       <c r="E187" s="33">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F187" s="35">
         <v>229</v>
@@ -60615,7 +60615,7 @@
         <v>3444</v>
       </c>
       <c r="E189" s="33">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="F189" s="33" t="s">
         <v>3029</v>
@@ -61093,7 +61093,7 @@
         <v>3463</v>
       </c>
       <c r="E214" s="33">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F214" s="33">
         <v>311</v>
@@ -61153,7 +61153,7 @@
         <v>2394</v>
       </c>
       <c r="E217" s="33">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F217" s="33">
         <v>244</v>
@@ -61453,7 +61453,7 @@
         <v>3479</v>
       </c>
       <c r="E232" s="33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F232" s="35" t="s">
         <v>2948</v>
@@ -61771,7 +61771,7 @@
       </c>
       <c r="D248" s="33"/>
       <c r="E248" s="33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F248" s="35" t="s">
         <v>2949</v>
@@ -61791,7 +61791,7 @@
         <v>2889</v>
       </c>
       <c r="E249" s="33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F249" s="35">
         <v>613</v>
@@ -61811,7 +61811,7 @@
         <v>2890</v>
       </c>
       <c r="E250" s="33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F250" s="35">
         <v>567</v>
@@ -62302,7 +62302,7 @@
         <v>2484</v>
       </c>
       <c r="E275" s="33">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F275" s="33">
         <v>309</v>
@@ -64110,7 +64110,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="B16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64608,7 +64608,7 @@
         <v>300</v>
       </c>
       <c r="E26" s="35">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F26" s="33">
         <v>350</v>
@@ -64923,8 +64923,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -65335,7 +65335,7 @@
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="35">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F23" s="33">
         <v>105</v>
@@ -65715,7 +65715,7 @@
         <v>2392</v>
       </c>
       <c r="E45" s="35">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F45" s="33" t="s">
         <v>2820</v>

--- a/public/BOSCH_STOCK1.xlsx
+++ b/public/BOSCH_STOCK1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyus\OneDrive\Desktop\bk\stock\stock\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE39672-F3AD-46BE-A442-E75EB861D3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="12240" windowHeight="9240" tabRatio="730" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELEMENT" sheetId="1" r:id="rId1"/>
@@ -42,7 +48,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'DIESEL FILTER&amp;OIL FILTER'!$A$3:$N$630</definedName>
     <definedName name="Z_8145F22A_AD74_4799_898B_BCECC4FA34F9_.wvu.PrintArea" localSheetId="5" hidden="1">'DIESEL FILTER&amp;OIL FILTER'!$A$3:$N$630</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="pcs - Personal View" guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="800" windowHeight="379" tabRatio="628" activeSheetId="5"/>
   </customWorkbookViews>
@@ -10922,10 +10928,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_ &quot;Rs.&quot;\ * #,##0.00_ ;_ &quot;Rs.&quot;\ * \-#,##0.00_ ;_ &quot;Rs.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;Rs.&quot;\ * #,##0.00_ ;_ &quot;Rs.&quot;\ * \-#,##0.00_ ;_ &quot;Rs.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -11235,7 +11241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -11446,7 +11452,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11489,10 +11495,10 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="32">
@@ -11894,9 +11900,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11934,7 +11940,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -11968,6 +11974,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -12002,9 +12009,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12177,12 +12185,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J440"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12230,7 +12238,7 @@
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -16070,8 +16078,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F172"/>
+  <autoFilter ref="A1:F172" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A104">
       <selection activeCell="G107" sqref="G107"/>
@@ -16085,7 +16092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H292"/>
   <sheetViews>
@@ -21973,7 +21980,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:I292"/>
+  <autoFilter ref="A1:I292" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1208">
       <selection activeCell="D1139" sqref="D1139"/>
@@ -22018,7 +22025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H1391"/>
   <sheetViews>
@@ -31155,7 +31162,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H54"/>
+  <autoFilter ref="A1:H54" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="120" topLeftCell="A52">
       <selection activeCell="D57" sqref="D57"/>
@@ -31176,7 +31183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H310"/>
   <sheetViews>
@@ -33058,7 +33065,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H91"/>
+  <autoFilter ref="A1:H91" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="115" topLeftCell="A35">
       <selection activeCell="D44" sqref="D44"/>
@@ -33075,7 +33082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:F98"/>
   <sheetViews>
@@ -34990,7 +34997,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F98"/>
+  <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}">
       <selection activeCell="A2" sqref="A2"/>
@@ -35006,7 +35013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -35092,7 +35099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K50"/>
   <sheetViews>
@@ -35689,7 +35696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A3:I20"/>
   <sheetViews>
@@ -35867,7 +35874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -41288,7 +41295,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:G275"/>
+  <autoFilter ref="A1:G275" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" topLeftCell="A335">
       <selection activeCell="C348" sqref="C348"/>
@@ -41302,7 +41309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H772"/>
   <sheetViews>
@@ -44960,7 +44967,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H129"/>
+  <autoFilter ref="A1:H129" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A239">
       <selection activeCell="D241" sqref="D241"/>
@@ -44974,7 +44981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H478"/>
   <sheetViews>
@@ -51425,7 +51432,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H376"/>
+  <autoFilter ref="A1:H376" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A2437">
       <selection activeCell="D2444" sqref="D2444"/>
@@ -51439,7 +51446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G571"/>
   <sheetViews>
@@ -57096,7 +57103,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:G231"/>
+  <autoFilter ref="A1:G231" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1207">
       <selection activeCell="F1213" sqref="F1213"/>
@@ -57122,11 +57129,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -62546,7 +62553,7 @@
       <c r="F289" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J289"/>
+  <autoFilter ref="A1:J289" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1045">
       <selection activeCell="D1055" sqref="D1055"/>
@@ -62570,7 +62577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -64096,7 +64103,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F80"/>
+  <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A503">
       <selection activeCell="E514" sqref="E514"/>
@@ -64109,7 +64116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F43"/>
   <sheetViews>
@@ -64910,7 +64917,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F43"/>
+  <autoFilter ref="A1:F43" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="120" topLeftCell="A217">
       <selection activeCell="C224" sqref="C224"/>
@@ -64923,7 +64930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G119"/>
   <sheetViews>
@@ -66934,7 +66941,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:G119"/>
+  <autoFilter ref="A1:G119" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="116" topLeftCell="A1179">
       <selection activeCell="F1188" sqref="F1188"/>

--- a/public/BOSCH_STOCK1.xlsx
+++ b/public/BOSCH_STOCK1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyus\OneDrive\Desktop\bk\stock\stock\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE39672-F3AD-46BE-A442-E75EB861D3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5D9DF3-8A4C-42EF-934D-F2DEA29AA7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12190,7 +12190,7 @@
   <dimension ref="A1:J440"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12238,7 +12238,7 @@
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>

--- a/public/BOSCH_STOCK1.xlsx
+++ b/public/BOSCH_STOCK1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyus\OneDrive\Desktop\bk\stock\stock\public\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5D9DF3-8A4C-42EF-934D-F2DEA29AA7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="12240" windowHeight="9240" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="ELEMENT" sheetId="1" r:id="rId1"/>
@@ -48,7 +42,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'DIESEL FILTER&amp;OIL FILTER'!$A$3:$N$630</definedName>
     <definedName name="Z_8145F22A_AD74_4799_898B_BCECC4FA34F9_.wvu.PrintArea" localSheetId="5" hidden="1">'DIESEL FILTER&amp;OIL FILTER'!$A$3:$N$630</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <customWorkbookViews>
     <customWorkbookView name="pcs - Personal View" guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="800" windowHeight="379" tabRatio="628" activeSheetId="5"/>
   </customWorkbookViews>
@@ -72,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5774" uniqueCount="3589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5791" uniqueCount="3582">
   <si>
     <t>0 433 175 443</t>
   </si>
@@ -10484,9 +10478,6 @@
     <t>SCORPIO      y</t>
   </si>
   <si>
-    <t xml:space="preserve">O/F </t>
-  </si>
-  <si>
     <t xml:space="preserve"> HYUNDAI I10,20 PETORL</t>
   </si>
   <si>
@@ -10523,9 +10514,6 @@
     <t>NANO</t>
   </si>
   <si>
-    <t>O/FILTER</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bolero bs6 &amp;Maxi truck</t>
   </si>
   <si>
@@ -10634,21 +10622,9 @@
     <t xml:space="preserve"> I20 ELITE</t>
   </si>
   <si>
-    <t xml:space="preserve">CABIN FILTER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABIN         </t>
-  </si>
-  <si>
     <t>INNOVA    y</t>
   </si>
   <si>
-    <t xml:space="preserve">cabin </t>
-  </si>
-  <si>
     <t>maruti ignis           y ALTO N/M</t>
   </si>
   <si>
@@ -10659,9 +10635,6 @@
   </si>
   <si>
     <t>HYUNDAI I20 CRDI</t>
-  </si>
-  <si>
-    <t>cabin</t>
   </si>
   <si>
     <t xml:space="preserve"> hyundai creta</t>
@@ -10928,10 +10901,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_ &quot;Rs.&quot;\ * #,##0.00_ ;_ &quot;Rs.&quot;\ * \-#,##0.00_ ;_ &quot;Rs.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ &quot;Rs.&quot;\ * #,##0.00_ ;_ &quot;Rs.&quot;\ * \-#,##0.00_ ;_ &quot;Rs.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -11241,7 +11214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -11452,7 +11425,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11495,10 +11468,10 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2" xfId="5"/>
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="32">
@@ -11900,9 +11873,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11940,7 +11913,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -11974,7 +11947,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -12009,10 +11981,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12185,12 +12156,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J440"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -16078,7 +16049,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F172" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:F172"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A104">
       <selection activeCell="G107" sqref="G107"/>
@@ -16092,12 +16064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16168,7 +16140,7 @@
         <v>1826</v>
       </c>
       <c r="E3" s="75">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="74">
         <v>1974</v>
@@ -16209,10 +16181,10 @@
         <v>598</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>3515</v>
+        <v>3508</v>
       </c>
       <c r="E5" s="75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="74">
         <v>2443</v>
@@ -17568,7 +17540,7 @@
         <v>1794</v>
       </c>
       <c r="E75" s="75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F75" s="74" t="s">
         <v>3127</v>
@@ -18380,7 +18352,7 @@
         <v>598</v>
       </c>
       <c r="E118" s="75">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F118" s="74" t="s">
         <v>2851</v>
@@ -18635,7 +18607,7 @@
         <v>625</v>
       </c>
       <c r="D131" s="74" t="s">
-        <v>3516</v>
+        <v>3509</v>
       </c>
       <c r="E131" s="75">
         <v>2</v>
@@ -18657,7 +18629,7 @@
         <v>625</v>
       </c>
       <c r="D132" s="74" t="s">
-        <v>3517</v>
+        <v>3510</v>
       </c>
       <c r="E132" s="75">
         <v>0</v>
@@ -18760,7 +18732,7 @@
         <v>2076</v>
       </c>
       <c r="E137" s="75">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F137" s="74" t="s">
         <v>2797</v>
@@ -18860,7 +18832,7 @@
         <v>822</v>
       </c>
       <c r="E142" s="75">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F142" s="74">
         <v>746</v>
@@ -18981,7 +18953,7 @@
         <v>825</v>
       </c>
       <c r="D148" s="74" t="s">
-        <v>3518</v>
+        <v>3511</v>
       </c>
       <c r="E148" s="75">
         <v>16</v>
@@ -19021,7 +18993,7 @@
         <v>825</v>
       </c>
       <c r="D150" s="74" t="s">
-        <v>3519</v>
+        <v>3512</v>
       </c>
       <c r="E150" s="75">
         <v>3</v>
@@ -19105,7 +19077,7 @@
         <v>598</v>
       </c>
       <c r="D154" s="74" t="s">
-        <v>3520</v>
+        <v>3513</v>
       </c>
       <c r="E154" s="75">
         <v>3</v>
@@ -19214,7 +19186,7 @@
         <v>2706</v>
       </c>
       <c r="E159" s="75">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F159" s="74">
         <v>100</v>
@@ -19530,7 +19502,7 @@
         <v>2706</v>
       </c>
       <c r="E175" s="75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F175" s="74">
         <v>1947</v>
@@ -19552,7 +19524,7 @@
       </c>
       <c r="D176" s="74"/>
       <c r="E176" s="75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" s="74">
         <v>1478</v>
@@ -20252,7 +20224,7 @@
       </c>
       <c r="D211" s="74"/>
       <c r="E211" s="75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F211" s="74">
         <v>2560</v>
@@ -20858,7 +20830,7 @@
         <v>2443</v>
       </c>
       <c r="E240" s="75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240" s="74">
         <v>12511</v>
@@ -20990,7 +20962,7 @@
         <v>2414</v>
       </c>
       <c r="E246" s="75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246" s="74" t="s">
         <v>2985</v>
@@ -21980,7 +21952,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:I292" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A1:I292"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1208">
       <selection activeCell="D1139" sqref="D1139"/>
@@ -22025,12 +21997,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H1391"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22073,7 +22045,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>3550</v>
+        <v>3543</v>
       </c>
       <c r="C2" s="92"/>
       <c r="D2" s="92"/>
@@ -22090,10 +22062,10 @@
         <v>1633</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>3533</v>
+        <v>3526</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>3521</v>
+        <v>3514</v>
       </c>
       <c r="E3" s="71">
         <v>267</v>
@@ -22114,13 +22086,13 @@
         <v>1630</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>3536</v>
+        <v>3529</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>3522</v>
+        <v>3515</v>
       </c>
       <c r="E4" s="71">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F4" s="70">
         <v>287</v>
@@ -22136,10 +22108,10 @@
         <v>1984</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>3533</v>
+        <v>3526</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>3523</v>
+        <v>3516</v>
       </c>
       <c r="E5" s="71">
         <v>101</v>
@@ -22158,13 +22130,13 @@
         <v>1985</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>3533</v>
+        <v>3526</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>3524</v>
+        <v>3517</v>
       </c>
       <c r="E6" s="71">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F6" s="70">
         <v>182</v>
@@ -22182,10 +22154,10 @@
         <v>1986</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>3533</v>
+        <v>3526</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>3525</v>
+        <v>3518</v>
       </c>
       <c r="E7" s="71">
         <v>241</v>
@@ -22206,10 +22178,10 @@
         <v>1987</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>3533</v>
+        <v>3526</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>3526</v>
+        <v>3519</v>
       </c>
       <c r="E8" s="71">
         <v>129</v>
@@ -22228,13 +22200,13 @@
         <v>1988</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>3533</v>
+        <v>3526</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>3527</v>
+        <v>3520</v>
       </c>
       <c r="E9" s="71">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F9" s="70">
         <v>219</v>
@@ -22250,10 +22222,10 @@
         <v>1989</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>3533</v>
+        <v>3526</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>3528</v>
+        <v>3521</v>
       </c>
       <c r="E10" s="71">
         <v>306</v>
@@ -22274,10 +22246,10 @@
         <v>1990</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>3533</v>
+        <v>3526</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>3529</v>
+        <v>3522</v>
       </c>
       <c r="E11" s="71">
         <v>78</v>
@@ -22298,10 +22270,10 @@
         <v>1991</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>3533</v>
+        <v>3526</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>3530</v>
+        <v>3523</v>
       </c>
       <c r="E12" s="71">
         <v>1106</v>
@@ -22322,10 +22294,10 @@
         <v>1992</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>3533</v>
+        <v>3526</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>3531</v>
+        <v>3524</v>
       </c>
       <c r="E13" s="71">
         <v>286</v>
@@ -22346,10 +22318,10 @@
         <v>1993</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>3533</v>
+        <v>3526</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>3532</v>
+        <v>3525</v>
       </c>
       <c r="E14" s="71">
         <v>282</v>
@@ -22365,7 +22337,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>3534</v>
+        <v>3527</v>
       </c>
       <c r="C15" s="93"/>
       <c r="D15" s="93"/>
@@ -22382,7 +22354,7 @@
         <v>690</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>3537</v>
+        <v>3530</v>
       </c>
       <c r="D16" s="69" t="s">
         <v>2234</v>
@@ -22404,7 +22376,7 @@
         <v>2068</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>3538</v>
+        <v>3531</v>
       </c>
       <c r="D17" s="69" t="s">
         <v>2609</v>
@@ -22426,7 +22398,7 @@
         <v>691</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>3539</v>
+        <v>3532</v>
       </c>
       <c r="D18" s="69" t="s">
         <v>2610</v>
@@ -22448,7 +22420,7 @@
         <v>692</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>3540</v>
+        <v>3533</v>
       </c>
       <c r="D19" s="69" t="s">
         <v>2611</v>
@@ -22470,7 +22442,7 @@
         <v>693</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>3541</v>
+        <v>3534</v>
       </c>
       <c r="D20" s="69" t="s">
         <v>2233</v>
@@ -22492,7 +22464,7 @@
         <v>694</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>3542</v>
+        <v>3535</v>
       </c>
       <c r="D21" s="69" t="s">
         <v>2232</v>
@@ -22511,7 +22483,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="93" t="s">
-        <v>3535</v>
+        <v>3528</v>
       </c>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
@@ -22528,7 +22500,7 @@
         <v>2618</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>3543</v>
+        <v>3536</v>
       </c>
       <c r="D23" s="69" t="s">
         <v>2612</v>
@@ -22550,7 +22522,7 @@
         <v>2049</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>3544</v>
+        <v>3537</v>
       </c>
       <c r="D24" s="69" t="s">
         <v>2053</v>
@@ -22572,7 +22544,7 @@
         <v>2094</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>3545</v>
+        <v>3538</v>
       </c>
       <c r="D25" s="69" t="s">
         <v>2095</v>
@@ -22594,7 +22566,7 @@
         <v>2683</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>3546</v>
+        <v>3539</v>
       </c>
       <c r="D26" s="69" t="s">
         <v>1724</v>
@@ -22616,7 +22588,7 @@
         <v>2069</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>3547</v>
+        <v>3540</v>
       </c>
       <c r="D27" s="69" t="s">
         <v>2070</v>
@@ -22638,7 +22610,7 @@
         <v>2054</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>3548</v>
+        <v>3541</v>
       </c>
       <c r="D28" s="69" t="s">
         <v>2055</v>
@@ -22660,7 +22632,7 @@
         <v>2613</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>3549</v>
+        <v>3542</v>
       </c>
       <c r="D29" s="69" t="s">
         <v>2614</v>
@@ -22688,7 +22660,7 @@
         <v>1723</v>
       </c>
       <c r="E30" s="71">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F30" s="70">
         <v>360</v>
@@ -31162,7 +31134,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H54" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <autoFilter ref="A1:H54"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="120" topLeftCell="A52">
       <selection activeCell="D57" sqref="D57"/>
@@ -31183,12 +31155,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H310"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -31320,7 +31292,7 @@
         <v>1296</v>
       </c>
       <c r="E6" s="19">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F6" s="17">
         <v>2595</v>
@@ -31341,7 +31313,7 @@
         <v>1295</v>
       </c>
       <c r="E7" s="19">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F7" s="17">
         <v>3385</v>
@@ -31633,7 +31605,7 @@
         <v>1317</v>
       </c>
       <c r="E21" s="19">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F21" s="17">
         <v>2056</v>
@@ -31969,7 +31941,7 @@
         <v>2356</v>
       </c>
       <c r="E37" s="19">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F37" s="17">
         <v>395</v>
@@ -32093,7 +32065,7 @@
         <v>1331</v>
       </c>
       <c r="E43" s="19">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F43" s="17">
         <v>247</v>
@@ -33065,7 +33037,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H91" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <autoFilter ref="A1:H91"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="115" topLeftCell="A35">
       <selection activeCell="D44" sqref="D44"/>
@@ -33082,13 +33054,13 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33128,7 +33100,7 @@
         <v>417</v>
       </c>
       <c r="C2" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D2" t="s">
         <v>293</v>
@@ -33148,7 +33120,7 @@
         <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D3" t="s">
         <v>2393</v>
@@ -33168,7 +33140,7 @@
         <v>831</v>
       </c>
       <c r="C4" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D4" t="s">
         <v>2394</v>
@@ -33188,7 +33160,7 @@
         <v>2397</v>
       </c>
       <c r="C5" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D5" t="s">
         <v>2395</v>
@@ -33208,7 +33180,7 @@
         <v>2396</v>
       </c>
       <c r="C6" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D6" t="s">
         <v>2248</v>
@@ -33228,7 +33200,7 @@
         <v>402</v>
       </c>
       <c r="C7" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D7" t="s">
         <v>2434</v>
@@ -33248,7 +33220,7 @@
         <v>834</v>
       </c>
       <c r="C8" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D8" t="s">
         <v>3054</v>
@@ -33268,7 +33240,7 @@
         <v>2398</v>
       </c>
       <c r="C9" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D9" t="s">
         <v>2399</v>
@@ -33288,13 +33260,13 @@
         <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D10" t="s">
         <v>2400</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1604</v>
@@ -33308,13 +33280,13 @@
         <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D11" t="s">
         <v>2401</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1135</v>
@@ -33328,13 +33300,13 @@
         <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D12" t="s">
         <v>2402</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>1387</v>
@@ -33348,13 +33320,13 @@
         <v>186</v>
       </c>
       <c r="C13" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D13" t="s">
         <v>2403</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>1820</v>
@@ -33368,7 +33340,7 @@
         <v>2404</v>
       </c>
       <c r="C14" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D14" t="s">
         <v>2405</v>
@@ -33388,7 +33360,7 @@
         <v>2406</v>
       </c>
       <c r="C15" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D15" t="s">
         <v>2452</v>
@@ -33408,7 +33380,7 @@
         <v>835</v>
       </c>
       <c r="C16" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D16" t="s">
         <v>2407</v>
@@ -33428,7 +33400,7 @@
         <v>641</v>
       </c>
       <c r="C17" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D17" t="s">
         <v>2408</v>
@@ -33448,7 +33420,7 @@
         <v>410</v>
       </c>
       <c r="C18" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D18" t="s">
         <v>3029</v>
@@ -33468,13 +33440,13 @@
         <v>640</v>
       </c>
       <c r="C19" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D19" t="s">
         <v>2409</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1199</v>
@@ -33488,13 +33460,13 @@
         <v>609</v>
       </c>
       <c r="C20" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D20" t="s">
         <v>2410</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1030</v>
@@ -33508,7 +33480,7 @@
         <v>525</v>
       </c>
       <c r="C21" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D21" t="s">
         <v>2604</v>
@@ -33528,7 +33500,7 @@
         <v>649</v>
       </c>
       <c r="C22" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D22" t="s">
         <v>2412</v>
@@ -33548,7 +33520,7 @@
         <v>2411</v>
       </c>
       <c r="C23" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D23" t="s">
         <v>2413</v>
@@ -33568,7 +33540,7 @@
         <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D24" t="s">
         <v>2414</v>
@@ -33588,7 +33560,7 @@
         <v>605</v>
       </c>
       <c r="C25" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D25" t="s">
         <v>2415</v>
@@ -33608,7 +33580,7 @@
         <v>403</v>
       </c>
       <c r="C26" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D26" t="s">
         <v>2416</v>
@@ -33628,7 +33600,7 @@
         <v>406</v>
       </c>
       <c r="C27" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D27" t="s">
         <v>318</v>
@@ -33648,7 +33620,7 @@
         <v>401</v>
       </c>
       <c r="C28" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D28" t="s">
         <v>2419</v>
@@ -33668,7 +33640,7 @@
         <v>638</v>
       </c>
       <c r="C29" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D29" t="s">
         <v>2417</v>
@@ -33688,7 +33660,7 @@
         <v>650</v>
       </c>
       <c r="C30" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D30" t="s">
         <v>2418</v>
@@ -33708,7 +33680,7 @@
         <v>832</v>
       </c>
       <c r="C31" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D31" t="s">
         <v>3119</v>
@@ -33728,7 +33700,7 @@
         <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D32" t="s">
         <v>2420</v>
@@ -33748,7 +33720,7 @@
         <v>836</v>
       </c>
       <c r="C33" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D33" t="s">
         <v>2421</v>
@@ -33768,7 +33740,7 @@
         <v>193</v>
       </c>
       <c r="C34" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D34" t="s">
         <v>2422</v>
@@ -33788,7 +33760,7 @@
         <v>2423</v>
       </c>
       <c r="C35" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D35" t="s">
         <v>836</v>
@@ -33808,7 +33780,7 @@
         <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D36" t="s">
         <v>2424</v>
@@ -33828,7 +33800,7 @@
         <v>197</v>
       </c>
       <c r="C37" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D37" t="s">
         <v>2425</v>
@@ -33848,7 +33820,7 @@
         <v>198</v>
       </c>
       <c r="C38" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D38" t="s">
         <v>2426</v>
@@ -33868,7 +33840,7 @@
         <v>999</v>
       </c>
       <c r="C39" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D39" t="s">
         <v>2428</v>
@@ -33888,7 +33860,7 @@
         <v>2427</v>
       </c>
       <c r="C40" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D40" t="s">
         <v>2424</v>
@@ -33908,7 +33880,7 @@
         <v>2429</v>
       </c>
       <c r="C41" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D41" t="s">
         <v>2507</v>
@@ -33928,7 +33900,7 @@
         <v>683</v>
       </c>
       <c r="C42" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D42" t="s">
         <v>1751</v>
@@ -33948,7 +33920,7 @@
         <v>983</v>
       </c>
       <c r="C43" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D43" t="s">
         <v>2407</v>
@@ -33968,7 +33940,7 @@
         <v>652</v>
       </c>
       <c r="C44" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D44" t="s">
         <v>2430</v>
@@ -33988,7 +33960,7 @@
         <v>828</v>
       </c>
       <c r="C45" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D45" t="s">
         <v>2431</v>
@@ -34008,7 +33980,7 @@
         <v>2432</v>
       </c>
       <c r="C46" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D46" t="s">
         <v>779</v>
@@ -34028,7 +34000,7 @@
         <v>188</v>
       </c>
       <c r="C47" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D47" t="s">
         <v>2440</v>
@@ -34048,7 +34020,7 @@
         <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D48" t="s">
         <v>2441</v>
@@ -34068,7 +34040,7 @@
         <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D49" t="s">
         <v>3120</v>
@@ -34088,7 +34060,7 @@
         <v>2572</v>
       </c>
       <c r="C50" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D50" t="s">
         <v>2475</v>
@@ -34108,7 +34080,7 @@
         <v>2478</v>
       </c>
       <c r="C51" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D51" t="s">
         <v>2573</v>
@@ -34128,7 +34100,7 @@
         <v>2817</v>
       </c>
       <c r="C52" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D52" t="s">
         <v>2446</v>
@@ -34148,7 +34120,7 @@
         <v>684</v>
       </c>
       <c r="C53" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D53" t="s">
         <v>2574</v>
@@ -34168,7 +34140,7 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D54" t="s">
         <v>3118</v>
@@ -34188,13 +34160,13 @@
         <v>653</v>
       </c>
       <c r="C55" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D55" t="s">
         <v>2498</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>1295</v>
@@ -34208,7 +34180,7 @@
         <v>447</v>
       </c>
       <c r="C56" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D56" t="s">
         <v>2499</v>
@@ -34228,7 +34200,7 @@
         <v>2500</v>
       </c>
       <c r="C57" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D57" t="s">
         <v>2501</v>
@@ -34248,7 +34220,7 @@
         <v>2503</v>
       </c>
       <c r="C58" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D58" t="s">
         <v>2502</v>
@@ -34268,7 +34240,7 @@
         <v>438</v>
       </c>
       <c r="C59" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D59" t="s">
         <v>2509</v>
@@ -34288,7 +34260,7 @@
         <v>2508</v>
       </c>
       <c r="C60" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D60" t="s">
         <v>2510</v>
@@ -34308,7 +34280,7 @@
         <v>448</v>
       </c>
       <c r="C61" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D61" t="s">
         <v>2511</v>
@@ -34328,7 +34300,7 @@
         <v>639</v>
       </c>
       <c r="C62" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D62" t="s">
         <v>2531</v>
@@ -34348,7 +34320,7 @@
         <v>607</v>
       </c>
       <c r="C63" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -34362,7 +34334,7 @@
         <v>2941</v>
       </c>
       <c r="C64" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D64" t="s">
         <v>2942</v>
@@ -34382,7 +34354,7 @@
         <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D65" t="s">
         <v>3043</v>
@@ -34399,7 +34371,7 @@
         <v>3030</v>
       </c>
       <c r="C66" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D66" t="s">
         <v>3031</v>
@@ -34419,7 +34391,7 @@
         <v>3032</v>
       </c>
       <c r="C67" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D67" t="s">
         <v>3033</v>
@@ -34439,7 +34411,7 @@
         <v>442</v>
       </c>
       <c r="C68" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D68" t="s">
         <v>3130</v>
@@ -34456,7 +34428,7 @@
         <v>3137</v>
       </c>
       <c r="C69" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D69" t="s">
         <v>3138</v>
@@ -34476,7 +34448,7 @@
         <v>430</v>
       </c>
       <c r="C70" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -34493,7 +34465,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D71" t="s">
         <v>3139</v>
@@ -34507,13 +34479,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="B72" s="6" t="s">
-        <v>3583</v>
+        <v>3576</v>
       </c>
       <c r="C72" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="D72" t="s">
-        <v>3584</v>
+        <v>3577</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -34540,10 +34512,10 @@
         <v>378</v>
       </c>
       <c r="C74" t="s">
-        <v>3552</v>
+        <v>3545</v>
       </c>
       <c r="D74" t="s">
-        <v>3553</v>
+        <v>3546</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -34560,10 +34532,10 @@
         <v>892</v>
       </c>
       <c r="C75" t="s">
-        <v>3554</v>
+        <v>3547</v>
       </c>
       <c r="D75" t="s">
-        <v>3555</v>
+        <v>3548</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -34580,10 +34552,10 @@
         <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>3556</v>
+        <v>3549</v>
       </c>
       <c r="D76" t="s">
-        <v>3557</v>
+        <v>3550</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -34600,10 +34572,10 @@
         <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>3554</v>
+        <v>3547</v>
       </c>
       <c r="D77" t="s">
-        <v>3558</v>
+        <v>3551</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -34620,10 +34592,10 @@
         <v>2634</v>
       </c>
       <c r="C78" t="s">
-        <v>3554</v>
+        <v>3547</v>
       </c>
       <c r="D78" t="s">
-        <v>3559</v>
+        <v>3552</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -34637,7 +34609,7 @@
         <v>318026</v>
       </c>
       <c r="C79" t="s">
-        <v>3560</v>
+        <v>3553</v>
       </c>
       <c r="D79" t="s">
         <v>836</v>
@@ -34657,10 +34629,10 @@
         <v>3034</v>
       </c>
       <c r="C80" t="s">
-        <v>3561</v>
+        <v>3554</v>
       </c>
       <c r="D80" t="s">
-        <v>3562</v>
+        <v>3555</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -34677,10 +34649,10 @@
         <v>2865</v>
       </c>
       <c r="C81" t="s">
-        <v>3561</v>
+        <v>3554</v>
       </c>
       <c r="D81" t="s">
-        <v>3563</v>
+        <v>3556</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -34697,7 +34669,7 @@
         <v>2930</v>
       </c>
       <c r="C82" t="s">
-        <v>3564</v>
+        <v>3557</v>
       </c>
       <c r="D82" t="s">
         <v>1859</v>
@@ -34717,7 +34689,7 @@
         <v>3037</v>
       </c>
       <c r="C83" t="s">
-        <v>3564</v>
+        <v>3557</v>
       </c>
       <c r="D83" t="s">
         <v>683</v>
@@ -34747,10 +34719,10 @@
         <v>2629</v>
       </c>
       <c r="C85" t="s">
-        <v>3565</v>
+        <v>3558</v>
       </c>
       <c r="D85" t="s">
-        <v>3566</v>
+        <v>3559</v>
       </c>
       <c r="E85">
         <v>21</v>
@@ -34767,10 +34739,10 @@
         <v>963</v>
       </c>
       <c r="C86" t="s">
-        <v>3565</v>
+        <v>3558</v>
       </c>
       <c r="D86" t="s">
-        <v>3567</v>
+        <v>3560</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -34787,10 +34759,10 @@
         <v>671</v>
       </c>
       <c r="C87" t="s">
-        <v>3568</v>
+        <v>3561</v>
       </c>
       <c r="D87" t="s">
-        <v>3569</v>
+        <v>3562</v>
       </c>
       <c r="E87">
         <v>10</v>
@@ -34807,7 +34779,7 @@
         <v>2835</v>
       </c>
       <c r="C88" t="s">
-        <v>3565</v>
+        <v>3558</v>
       </c>
       <c r="D88" t="s">
         <v>2422</v>
@@ -34850,7 +34822,7 @@
         <v>3156</v>
       </c>
       <c r="D90" t="s">
-        <v>3570</v>
+        <v>3563</v>
       </c>
       <c r="E90">
         <v>3</v>
@@ -34867,10 +34839,10 @@
         <v>3084</v>
       </c>
       <c r="C91" t="s">
-        <v>3571</v>
+        <v>3564</v>
       </c>
       <c r="D91" t="s">
-        <v>3572</v>
+        <v>3565</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -34887,10 +34859,10 @@
         <v>8001</v>
       </c>
       <c r="C92" t="s">
-        <v>3573</v>
+        <v>3566</v>
       </c>
       <c r="D92" t="s">
-        <v>3574</v>
+        <v>3567</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -34904,10 +34876,10 @@
         <v>3149</v>
       </c>
       <c r="C93" t="s">
-        <v>3575</v>
+        <v>3568</v>
       </c>
       <c r="D93" t="s">
-        <v>3576</v>
+        <v>3569</v>
       </c>
       <c r="E93">
         <v>10</v>
@@ -34924,10 +34896,10 @@
         <v>3152</v>
       </c>
       <c r="C94" t="s">
-        <v>3577</v>
+        <v>3570</v>
       </c>
       <c r="D94" t="s">
-        <v>3578</v>
+        <v>3571</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -34983,10 +34955,10 @@
         <v>2575</v>
       </c>
       <c r="C98" t="s">
-        <v>3579</v>
+        <v>3572</v>
       </c>
       <c r="D98" t="s">
-        <v>3580</v>
+        <v>3573</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -34997,7 +34969,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
+  <autoFilter ref="A1:F98"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}">
       <selection activeCell="A2" sqref="A2"/>
@@ -35013,7 +34985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -35099,7 +35071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K50"/>
   <sheetViews>
@@ -35696,7 +35668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A3:I20"/>
   <sheetViews>
@@ -35874,13 +35846,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A221" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
@@ -41295,7 +41267,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:G275" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G275"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" topLeftCell="A335">
       <selection activeCell="C348" sqref="C348"/>
@@ -41309,7 +41281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H772"/>
   <sheetViews>
@@ -44967,7 +44939,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H129" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:H129"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A239">
       <selection activeCell="D241" sqref="D241"/>
@@ -44981,12 +44953,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H478"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D257" sqref="D257"/>
+    <sheetView topLeftCell="A309" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47148,7 +47120,7 @@
       </c>
       <c r="D132" s="33"/>
       <c r="E132" s="35">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F132" s="33">
         <v>247</v>
@@ -49263,7 +49235,7 @@
         <v>2726</v>
       </c>
       <c r="E259" s="35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F259" s="33">
         <v>327</v>
@@ -49741,7 +49713,7 @@
       </c>
       <c r="D288" s="33"/>
       <c r="E288" s="35">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F288" s="33"/>
     </row>
@@ -49847,7 +49819,7 @@
       </c>
       <c r="D294" s="33"/>
       <c r="E294" s="35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F294" s="33">
         <v>696</v>
@@ -49865,7 +49837,7 @@
       </c>
       <c r="D295" s="33"/>
       <c r="E295" s="35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F295" s="33">
         <v>696</v>
@@ -50228,7 +50200,7 @@
       </c>
       <c r="D316" s="33"/>
       <c r="E316" s="35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F316" s="33">
         <v>865</v>
@@ -51432,7 +51404,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H376" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:H376"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A2437">
       <selection activeCell="D2444" sqref="D2444"/>
@@ -51446,12 +51418,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G571"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+    <sheetView topLeftCell="A143" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51827,7 +51799,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>3588</v>
+        <v>3581</v>
       </c>
       <c r="G22" t="s">
         <v>2706</v>
@@ -53831,7 +53803,7 @@
         <v>518894</v>
       </c>
       <c r="E136" s="56">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F136" s="35" t="s">
         <v>2727</v>
@@ -54090,7 +54062,7 @@
         <v>2705</v>
       </c>
       <c r="E150" s="56">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F150" s="35">
         <v>893</v>
@@ -54615,7 +54587,7 @@
         <v>2706</v>
       </c>
       <c r="E178" s="56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F178" s="35">
         <v>1676</v>
@@ -54776,7 +54748,7 @@
         <v>2711</v>
       </c>
       <c r="E186" s="56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F186" s="35" t="s">
         <v>3128</v>
@@ -57103,7 +57075,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:G231" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:G231"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1207">
       <selection activeCell="F1213" sqref="F1213"/>
@@ -57129,12 +57101,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A191" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57194,7 +57166,7 @@
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F3" s="35">
         <v>161</v>
@@ -57212,7 +57184,7 @@
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F4" s="35">
         <v>146</v>
@@ -57303,7 +57275,7 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33">
-        <v>437</v>
+        <v>341</v>
       </c>
       <c r="F9" s="35">
         <v>193</v>
@@ -57339,7 +57311,7 @@
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="F11" s="35">
         <v>184</v>
@@ -57526,7 +57498,7 @@
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F21" s="35">
         <v>363</v>
@@ -57768,7 +57740,7 @@
         <v>3369</v>
       </c>
       <c r="E34" s="60">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F34" s="35">
         <v>1118</v>
@@ -57939,7 +57911,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>3586</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -58144,7 +58116,7 @@
       </c>
       <c r="D55" s="33"/>
       <c r="E55" s="33">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F55" s="35">
         <v>120</v>
@@ -58162,7 +58134,7 @@
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="33">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F56" s="35">
         <v>260</v>
@@ -58434,7 +58406,7 @@
       </c>
       <c r="D72" s="33"/>
       <c r="E72" s="42">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F72" s="35">
         <v>295</v>
@@ -58492,7 +58464,7 @@
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="33">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F75" s="35">
         <v>239</v>
@@ -58580,7 +58552,7 @@
         <v>3383</v>
       </c>
       <c r="E80" s="33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F80" s="35">
         <v>537</v>
@@ -58821,7 +58793,7 @@
         <v>2</v>
       </c>
       <c r="F93" s="61" t="s">
-        <v>3585</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -59005,7 +58977,7 @@
         <v>3391</v>
       </c>
       <c r="E103" s="33">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F103" s="35">
         <v>345</v>
@@ -59025,7 +58997,7 @@
         <v>3393</v>
       </c>
       <c r="E104" s="60">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F104" s="33">
         <v>378</v>
@@ -59045,7 +59017,7 @@
         <v>3394</v>
       </c>
       <c r="E105" s="60">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F105" s="35">
         <v>396</v>
@@ -59103,7 +59075,7 @@
         <v>3395</v>
       </c>
       <c r="E108" s="33">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F108" s="35">
         <v>247</v>
@@ -59349,7 +59321,7 @@
       </c>
       <c r="D122" s="33"/>
       <c r="E122" s="33">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F122" s="35">
         <v>197</v>
@@ -59483,7 +59455,7 @@
       </c>
       <c r="D129" s="33"/>
       <c r="E129" s="33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F129" s="35">
         <v>3546</v>
@@ -60021,7 +59993,7 @@
         <v>1859</v>
       </c>
       <c r="E159" s="33">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F159" s="35">
         <v>234</v>
@@ -60101,7 +60073,7 @@
         <v>3417</v>
       </c>
       <c r="E163" s="60">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F163" s="33">
         <v>868</v>
@@ -60281,7 +60253,7 @@
         <v>3429</v>
       </c>
       <c r="E172" s="33">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F172" s="35">
         <v>759</v>
@@ -60381,7 +60353,7 @@
         <v>3435</v>
       </c>
       <c r="E177" s="33">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F177" s="35">
         <v>288</v>
@@ -60465,7 +60437,7 @@
         <v>1255</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>3388</v>
+        <v>3382</v>
       </c>
       <c r="D182" s="33" t="s">
         <v>290</v>
@@ -60525,7 +60497,7 @@
         <v>1265</v>
       </c>
       <c r="C185" s="33" t="s">
-        <v>2383</v>
+        <v>3382</v>
       </c>
       <c r="D185" s="33" t="s">
         <v>3439</v>
@@ -60545,7 +60517,7 @@
         <v>1266</v>
       </c>
       <c r="C186" s="33" t="s">
-        <v>2383</v>
+        <v>3382</v>
       </c>
       <c r="D186" s="33" t="s">
         <v>2424</v>
@@ -60565,13 +60537,13 @@
         <v>1268</v>
       </c>
       <c r="C187" s="33" t="s">
-        <v>2383</v>
+        <v>3382</v>
       </c>
       <c r="D187" s="33" t="s">
         <v>2248</v>
       </c>
       <c r="E187" s="33">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="F187" s="35">
         <v>229</v>
@@ -60585,7 +60557,7 @@
         <v>1269</v>
       </c>
       <c r="C188" s="33" t="s">
-        <v>2383</v>
+        <v>3382</v>
       </c>
       <c r="D188" s="33" t="s">
         <v>3440</v>
@@ -60605,13 +60577,13 @@
         <v>1270</v>
       </c>
       <c r="C189" s="33" t="s">
-        <v>2383</v>
+        <v>3382</v>
       </c>
       <c r="D189" s="33" t="s">
         <v>3441</v>
       </c>
       <c r="E189" s="33">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F189" s="33" t="s">
         <v>3028</v>
@@ -60625,10 +60597,10 @@
         <v>1543</v>
       </c>
       <c r="C190" s="33" t="s">
+        <v>3382</v>
+      </c>
+      <c r="D190" s="33" t="s">
         <v>3442</v>
-      </c>
-      <c r="D190" s="33" t="s">
-        <v>3443</v>
       </c>
       <c r="E190" s="33">
         <v>34</v>
@@ -60645,10 +60617,10 @@
         <v>1890</v>
       </c>
       <c r="C191" s="33" t="s">
-        <v>2383</v>
+        <v>3382</v>
       </c>
       <c r="D191" s="33" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="E191" s="33">
         <v>33</v>
@@ -60665,7 +60637,7 @@
         <v>1273</v>
       </c>
       <c r="C192" s="33" t="s">
-        <v>2383</v>
+        <v>3382</v>
       </c>
       <c r="D192" s="33"/>
       <c r="E192" s="33">
@@ -60682,12 +60654,14 @@
       <c r="B193" s="33" t="s">
         <v>1779</v>
       </c>
-      <c r="C193" s="33"/>
+      <c r="C193" s="33" t="s">
+        <v>3382</v>
+      </c>
       <c r="D193" s="33" t="s">
         <v>2804</v>
       </c>
       <c r="E193" s="42">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="F193" s="35">
         <v>170</v>
@@ -60701,10 +60675,10 @@
         <v>1701</v>
       </c>
       <c r="C194" s="33" t="s">
-        <v>2383</v>
+        <v>3382</v>
       </c>
       <c r="D194" s="33" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="E194" s="42">
         <v>7</v>
@@ -60720,7 +60694,9 @@
       <c r="B195" s="33" t="s">
         <v>1429</v>
       </c>
-      <c r="C195" s="33"/>
+      <c r="C195" s="33" t="s">
+        <v>3382</v>
+      </c>
       <c r="D195" s="33" t="s">
         <v>1860</v>
       </c>
@@ -60737,10 +60713,10 @@
         <v>1271</v>
       </c>
       <c r="C196" s="33" t="s">
-        <v>1226</v>
+        <v>3382</v>
       </c>
       <c r="D196" s="33" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="E196" s="33">
         <v>14</v>
@@ -60760,7 +60736,7 @@
         <v>3382</v>
       </c>
       <c r="D197" s="33" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="E197" s="33">
         <v>4</v>
@@ -60776,12 +60752,14 @@
       <c r="B198" s="33" t="s">
         <v>2795</v>
       </c>
-      <c r="C198" s="33"/>
+      <c r="C198" s="33" t="s">
+        <v>3382</v>
+      </c>
       <c r="D198" s="33" t="s">
         <v>3150</v>
       </c>
       <c r="E198" s="33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F198" s="35">
         <v>199</v>
@@ -60795,10 +60773,10 @@
         <v>2003</v>
       </c>
       <c r="C199" s="33" t="s">
-        <v>2383</v>
+        <v>3382</v>
       </c>
       <c r="D199" s="33" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="E199" s="33">
         <v>100</v>
@@ -60815,7 +60793,7 @@
         <v>2359</v>
       </c>
       <c r="C200" s="33" t="s">
-        <v>3442</v>
+        <v>3382</v>
       </c>
       <c r="D200" s="33" t="s">
         <v>2440</v>
@@ -60835,10 +60813,10 @@
         <v>2342</v>
       </c>
       <c r="C201" s="33" t="s">
-        <v>3442</v>
+        <v>3382</v>
       </c>
       <c r="D201" s="33" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="E201" s="33">
         <v>32</v>
@@ -60855,10 +60833,10 @@
         <v>2328</v>
       </c>
       <c r="C202" s="33" t="s">
-        <v>3442</v>
+        <v>3382</v>
       </c>
       <c r="D202" s="33" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="E202" s="33">
         <v>16</v>
@@ -60875,10 +60853,10 @@
         <v>2329</v>
       </c>
       <c r="C203" s="33" t="s">
-        <v>3442</v>
+        <v>3382</v>
       </c>
       <c r="D203" s="33" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="E203" s="33">
         <v>3</v>
@@ -60895,10 +60873,10 @@
         <v>2331</v>
       </c>
       <c r="C204" s="33" t="s">
-        <v>3442</v>
+        <v>3382</v>
       </c>
       <c r="D204" s="33" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="E204" s="33">
         <v>5</v>
@@ -60915,10 +60893,10 @@
         <v>2332</v>
       </c>
       <c r="C205" s="33" t="s">
-        <v>3442</v>
+        <v>3382</v>
       </c>
       <c r="D205" s="33" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="E205" s="33">
         <v>19</v>
@@ -60935,7 +60913,7 @@
         <v>2561</v>
       </c>
       <c r="C206" s="33" t="s">
-        <v>3442</v>
+        <v>3382</v>
       </c>
       <c r="D206" s="33" t="s">
         <v>2410</v>
@@ -60955,10 +60933,10 @@
         <v>2480</v>
       </c>
       <c r="C207" s="33" t="s">
-        <v>3442</v>
+        <v>3382</v>
       </c>
       <c r="D207" s="33" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="E207" s="33">
         <v>17</v>
@@ -60975,10 +60953,10 @@
         <v>2491</v>
       </c>
       <c r="C208" s="33" t="s">
-        <v>3455</v>
+        <v>3382</v>
       </c>
       <c r="D208" s="33" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="E208" s="33">
         <v>81</v>
@@ -60994,7 +60972,9 @@
       <c r="B209" s="33" t="s">
         <v>2241</v>
       </c>
-      <c r="C209" s="33"/>
+      <c r="C209" s="33" t="s">
+        <v>3382</v>
+      </c>
       <c r="D209" s="33" t="s">
         <v>2844</v>
       </c>
@@ -61046,7 +61026,7 @@
         <v>3396</v>
       </c>
       <c r="D212" s="33" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
       <c r="E212" s="33">
         <v>43</v>
@@ -61063,10 +61043,10 @@
         <v>2313</v>
       </c>
       <c r="C213" s="33" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
       <c r="D213" s="33" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="E213" s="33">
         <v>18</v>
@@ -61086,7 +61066,7 @@
         <v>3402</v>
       </c>
       <c r="D214" s="33" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="E214" s="33">
         <v>16</v>
@@ -61106,7 +61086,7 @@
         <v>3402</v>
       </c>
       <c r="D215" s="33" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="E215" s="33">
         <v>45</v>
@@ -61126,7 +61106,7 @@
         <v>3402</v>
       </c>
       <c r="D216" s="33" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="E216" s="33">
         <v>14</v>
@@ -61166,7 +61146,7 @@
         <v>3402</v>
       </c>
       <c r="D218" s="33" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="E218" s="33">
         <v>11</v>
@@ -61186,7 +61166,7 @@
         <v>3402</v>
       </c>
       <c r="D219" s="33" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="E219" s="33">
         <v>21</v>
@@ -61226,7 +61206,7 @@
         <v>3402</v>
       </c>
       <c r="D221" s="33" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="E221" s="33">
         <v>16</v>
@@ -61263,10 +61243,10 @@
         <v>2321</v>
       </c>
       <c r="C223" s="33" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="D223" s="33" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
       <c r="E223" s="33">
         <v>19</v>
@@ -61283,10 +61263,10 @@
         <v>2921</v>
       </c>
       <c r="C224" s="33" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D224" s="33" t="s">
         <v>3466</v>
-      </c>
-      <c r="D224" s="33" t="s">
-        <v>3468</v>
       </c>
       <c r="E224" s="33">
         <v>9</v>
@@ -61306,7 +61286,7 @@
         <v>3402</v>
       </c>
       <c r="D225" s="33" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
       <c r="E225" s="33">
         <v>19</v>
@@ -61326,7 +61306,7 @@
         <v>3402</v>
       </c>
       <c r="D226" s="33" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
       <c r="E226" s="33">
         <v>20</v>
@@ -61346,7 +61326,7 @@
         <v>3402</v>
       </c>
       <c r="D227" s="33" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="E227" s="33">
         <v>0</v>
@@ -61363,10 +61343,10 @@
         <v>2325</v>
       </c>
       <c r="C228" s="33" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="D228" s="33" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
       <c r="E228" s="33">
         <v>18</v>
@@ -61383,10 +61363,10 @@
         <v>2326</v>
       </c>
       <c r="C229" s="33" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="D229" s="33" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
       <c r="E229" s="33">
         <v>34</v>
@@ -61406,7 +61386,7 @@
         <v>3402</v>
       </c>
       <c r="D230" s="33" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
       <c r="E230" s="33">
         <v>7</v>
@@ -61426,7 +61406,7 @@
         <v>3402</v>
       </c>
       <c r="D231" s="33" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
       <c r="E231" s="33">
         <v>43</v>
@@ -61446,7 +61426,7 @@
         <v>3402</v>
       </c>
       <c r="D232" s="33" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="E232" s="33">
         <v>17</v>
@@ -61466,7 +61446,7 @@
         <v>3402</v>
       </c>
       <c r="D233" s="33" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
       <c r="E233" s="33">
         <v>41</v>
@@ -61486,7 +61466,7 @@
         <v>3402</v>
       </c>
       <c r="D234" s="33" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
       <c r="E234" s="33">
         <v>51</v>
@@ -61506,7 +61486,7 @@
         <v>3402</v>
       </c>
       <c r="D235" s="33" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="E235" s="33">
         <v>38</v>
@@ -61526,7 +61506,7 @@
         <v>3402</v>
       </c>
       <c r="D236" s="33" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
       <c r="E236" s="33">
         <v>37</v>
@@ -61546,7 +61526,7 @@
         <v>2989</v>
       </c>
       <c r="D237" s="33" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="E237" s="33">
         <v>11</v>
@@ -61563,10 +61543,10 @@
         <v>2490</v>
       </c>
       <c r="C238" s="33" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
       <c r="D238" s="33" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="E238" s="33">
         <v>13</v>
@@ -61583,10 +61563,10 @@
         <v>2935</v>
       </c>
       <c r="C239" s="33" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
       <c r="D239" s="33" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="E239" s="33">
         <v>10</v>
@@ -61606,7 +61586,7 @@
         <v>3402</v>
       </c>
       <c r="D240" s="33" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
       <c r="E240" s="33">
         <v>16</v>
@@ -61643,7 +61623,7 @@
         <v>2739</v>
       </c>
       <c r="C242" s="33" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="D242" s="33" t="s">
         <v>2425</v>
@@ -61666,7 +61646,7 @@
         <v>3402</v>
       </c>
       <c r="D243" s="33" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
       <c r="E243" s="33">
         <v>4</v>
@@ -61686,7 +61666,7 @@
         <v>3402</v>
       </c>
       <c r="D244" s="33" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="E244" s="33">
         <v>4</v>
@@ -61706,7 +61686,7 @@
         <v>3402</v>
       </c>
       <c r="D245" s="33" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="E245" s="33">
         <v>66</v>
@@ -61726,7 +61706,7 @@
         <v>3402</v>
       </c>
       <c r="D246" s="33" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="E246" s="33">
         <v>22</v>
@@ -61746,7 +61726,7 @@
         <v>3402</v>
       </c>
       <c r="D247" s="33" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="E247" s="33">
         <v>13</v>
@@ -62065,7 +62045,7 @@
         <v>3070</v>
       </c>
       <c r="E263" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F263" s="35">
         <v>430</v>
@@ -62114,7 +62094,7 @@
         <v>2382</v>
       </c>
       <c r="D266" s="33" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="E266" s="33">
         <v>14</v>
@@ -62131,7 +62111,7 @@
         <v>2339</v>
       </c>
       <c r="C267" s="33" t="s">
-        <v>3492</v>
+        <v>2382</v>
       </c>
       <c r="D267" s="33" t="s">
         <v>683</v>
@@ -62151,7 +62131,7 @@
         <v>2362</v>
       </c>
       <c r="C268" s="33" t="s">
-        <v>3493</v>
+        <v>2382</v>
       </c>
       <c r="D268" s="33" t="s">
         <v>2407</v>
@@ -62174,7 +62154,7 @@
         <v>2363</v>
       </c>
       <c r="C269" s="33" t="s">
-        <v>3494</v>
+        <v>2382</v>
       </c>
       <c r="D269" s="33" t="s">
         <v>3426</v>
@@ -62194,10 +62174,10 @@
         <v>2391</v>
       </c>
       <c r="C270" s="33" t="s">
-        <v>3493</v>
+        <v>2382</v>
       </c>
       <c r="D270" s="33" t="s">
-        <v>3495</v>
+        <v>3490</v>
       </c>
       <c r="E270" s="33">
         <v>9</v>
@@ -62214,10 +62194,10 @@
         <v>2364</v>
       </c>
       <c r="C271" s="33" t="s">
-        <v>3496</v>
+        <v>2382</v>
       </c>
       <c r="D271" s="33" t="s">
-        <v>3497</v>
+        <v>3491</v>
       </c>
       <c r="E271" s="33">
         <v>9</v>
@@ -62234,10 +62214,10 @@
         <v>2926</v>
       </c>
       <c r="C272" s="33" t="s">
-        <v>3496</v>
+        <v>2382</v>
       </c>
       <c r="D272" s="33" t="s">
-        <v>3498</v>
+        <v>3492</v>
       </c>
       <c r="E272" s="33">
         <v>12</v>
@@ -62254,10 +62234,10 @@
         <v>2365</v>
       </c>
       <c r="C273" s="33" t="s">
-        <v>3496</v>
+        <v>2382</v>
       </c>
       <c r="D273" s="33" t="s">
-        <v>3499</v>
+        <v>3493</v>
       </c>
       <c r="E273" s="33">
         <v>12</v>
@@ -62274,10 +62254,10 @@
         <v>2388</v>
       </c>
       <c r="C274" s="33" t="s">
-        <v>3493</v>
+        <v>2382</v>
       </c>
       <c r="D274" s="33" t="s">
-        <v>3500</v>
+        <v>3494</v>
       </c>
       <c r="E274" s="33">
         <v>5</v>
@@ -62293,7 +62273,9 @@
       <c r="B275" s="33" t="s">
         <v>2474</v>
       </c>
-      <c r="C275" s="33"/>
+      <c r="C275" s="33" t="s">
+        <v>2382</v>
+      </c>
       <c r="D275" s="33" t="s">
         <v>2484</v>
       </c>
@@ -62311,7 +62293,9 @@
       <c r="B276" s="33" t="s">
         <v>2860</v>
       </c>
-      <c r="C276" s="33"/>
+      <c r="C276" s="33" t="s">
+        <v>2382</v>
+      </c>
       <c r="D276" s="33" t="s">
         <v>2495</v>
       </c>
@@ -62330,7 +62314,7 @@
         <v>2652</v>
       </c>
       <c r="C277" s="33" t="s">
-        <v>3493</v>
+        <v>2382</v>
       </c>
       <c r="D277" s="33" t="s">
         <v>2446</v>
@@ -62350,10 +62334,10 @@
         <v>2678</v>
       </c>
       <c r="C278" s="33" t="s">
-        <v>3501</v>
+        <v>2382</v>
       </c>
       <c r="D278" s="33" t="s">
-        <v>3502</v>
+        <v>3495</v>
       </c>
       <c r="E278" s="33">
         <v>37</v>
@@ -62369,7 +62353,9 @@
       <c r="B279" s="33" t="s">
         <v>2846</v>
       </c>
-      <c r="C279" s="33"/>
+      <c r="C279" s="33" t="s">
+        <v>2382</v>
+      </c>
       <c r="D279" s="33" t="s">
         <v>2894</v>
       </c>
@@ -62387,7 +62373,9 @@
       <c r="B280" s="33" t="s">
         <v>2847</v>
       </c>
-      <c r="C280" s="33"/>
+      <c r="C280" s="33" t="s">
+        <v>2382</v>
+      </c>
       <c r="D280" s="33" t="s">
         <v>2868</v>
       </c>
@@ -62405,7 +62393,9 @@
       <c r="B281" s="33" t="s">
         <v>2878</v>
       </c>
-      <c r="C281" s="33"/>
+      <c r="C281" s="33" t="s">
+        <v>2382</v>
+      </c>
       <c r="D281" s="33" t="s">
         <v>2890</v>
       </c>
@@ -62423,7 +62413,9 @@
       <c r="B282" s="33" t="s">
         <v>2879</v>
       </c>
-      <c r="C282" s="33"/>
+      <c r="C282" s="33" t="s">
+        <v>2382</v>
+      </c>
       <c r="D282" s="33" t="s">
         <v>2919</v>
       </c>
@@ -62441,7 +62433,9 @@
       <c r="B283" s="33" t="s">
         <v>2961</v>
       </c>
-      <c r="C283" s="33"/>
+      <c r="C283" s="33" t="s">
+        <v>2382</v>
+      </c>
       <c r="D283" s="33" t="s">
         <v>3013</v>
       </c>
@@ -62459,7 +62453,9 @@
       <c r="B284" s="33" t="s">
         <v>2963</v>
       </c>
-      <c r="C284" s="33"/>
+      <c r="C284" s="33" t="s">
+        <v>2382</v>
+      </c>
       <c r="D284" s="33" t="s">
         <v>3012</v>
       </c>
@@ -62477,7 +62473,9 @@
       <c r="B285" s="33" t="s">
         <v>3066</v>
       </c>
-      <c r="C285" s="33"/>
+      <c r="C285" s="33" t="s">
+        <v>2382</v>
+      </c>
       <c r="D285" s="33" t="s">
         <v>3076</v>
       </c>
@@ -62495,7 +62493,9 @@
       <c r="B286" s="33" t="s">
         <v>3067</v>
       </c>
-      <c r="C286" s="33"/>
+      <c r="C286" s="33" t="s">
+        <v>2382</v>
+      </c>
       <c r="D286" s="33" t="s">
         <v>3077</v>
       </c>
@@ -62513,7 +62513,9 @@
       <c r="B287" s="33" t="s">
         <v>3058</v>
       </c>
-      <c r="C287" s="33"/>
+      <c r="C287" s="33" t="s">
+        <v>2382</v>
+      </c>
       <c r="D287" s="33" t="s">
         <v>2426</v>
       </c>
@@ -62531,7 +62533,9 @@
       <c r="B288" s="33" t="s">
         <v>3080</v>
       </c>
-      <c r="C288" s="33"/>
+      <c r="C288" s="33" t="s">
+        <v>2382</v>
+      </c>
       <c r="D288" s="33"/>
       <c r="E288" s="33">
         <v>5</v>
@@ -62545,7 +62549,9 @@
       <c r="B289" s="33" t="s">
         <v>3089</v>
       </c>
-      <c r="C289" s="33"/>
+      <c r="C289" s="33" t="s">
+        <v>2382</v>
+      </c>
       <c r="D289" s="33"/>
       <c r="E289" s="33">
         <v>5</v>
@@ -62553,7 +62559,8 @@
       <c r="F289" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J289" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:J289"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1045">
       <selection activeCell="D1055" sqref="D1055"/>
@@ -62577,7 +62584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -63844,7 +63851,7 @@
     <row r="69" spans="1:8">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>3587</v>
+        <v>3580</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -64103,7 +64110,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:F80"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A503">
       <selection activeCell="E514" sqref="E514"/>
@@ -64116,12 +64123,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64187,7 +64194,7 @@
         <v>290</v>
       </c>
       <c r="E3" s="35">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="33">
         <v>1465</v>
@@ -64313,7 +64320,7 @@
         <v>2248</v>
       </c>
       <c r="E10" s="35">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F10" s="33">
         <v>696</v>
@@ -64485,7 +64492,7 @@
         <v>2970</v>
       </c>
       <c r="E19" s="35">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F19" s="33">
         <v>338</v>
@@ -64545,7 +64552,7 @@
         <v>2971</v>
       </c>
       <c r="E22" s="35">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="33">
         <v>435</v>
@@ -64576,7 +64583,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>3581</v>
+        <v>3574</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>296</v>
@@ -64619,7 +64626,7 @@
         <v>300</v>
       </c>
       <c r="E26" s="35">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F26" s="33">
         <v>350</v>
@@ -64714,7 +64721,7 @@
         <v>66</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>3582</v>
+        <v>3575</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
@@ -64861,7 +64868,7 @@
         <v>3147</v>
       </c>
       <c r="E40" s="35">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="F40" s="33">
         <v>153</v>
@@ -64917,7 +64924,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F43" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:F43"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="120" topLeftCell="A217">
       <selection activeCell="C224" sqref="C224"/>
@@ -64930,12 +64937,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64990,10 +64997,10 @@
         <v>410</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>3504</v>
+        <v>3497</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>3503</v>
+        <v>3496</v>
       </c>
       <c r="E3" s="35">
         <v>0</v>
@@ -65028,7 +65035,7 @@
         <v>412</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>3504</v>
+        <v>3497</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="35">
@@ -65102,7 +65109,7 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="35">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>2819</v>
@@ -65156,7 +65163,7 @@
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="35">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="F12" s="33">
         <v>155</v>
@@ -65177,7 +65184,7 @@
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="35">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F13" s="33">
         <v>195</v>
@@ -65325,7 +65332,7 @@
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="35">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="F22" s="33">
         <v>79</v>
@@ -65346,7 +65353,7 @@
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="35">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F23" s="33">
         <v>105</v>
@@ -65360,7 +65367,7 @@
         <v>430</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>3514</v>
+        <v>3507</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>3019</v>
@@ -65380,7 +65387,7 @@
         <v>431</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>3513</v>
+        <v>3506</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>432</v>
@@ -65398,11 +65405,11 @@
         <v>433</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>3512</v>
+        <v>3505</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="35">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="F26" s="33">
         <v>18</v>
@@ -65432,7 +65439,7 @@
         <v>434</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>3511</v>
+        <v>3504</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="35">
@@ -65448,7 +65455,7 @@
         <v>435</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>3510</v>
+        <v>3503</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="35">
@@ -65466,7 +65473,7 @@
         <v>436</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>3509</v>
+        <v>3502</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="35">
@@ -65484,7 +65491,7 @@
         <v>1556</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>3508</v>
+        <v>3501</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="35">
@@ -65534,7 +65541,7 @@
         <v>437</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>3506</v>
+        <v>3499</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="35">
@@ -65552,7 +65559,7 @@
         <v>438</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>3507</v>
+        <v>3500</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="35">
@@ -65817,7 +65824,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="91" t="s">
-        <v>3505</v>
+        <v>3498</v>
       </c>
       <c r="C50" s="91"/>
       <c r="D50" s="91"/>
@@ -66941,7 +66948,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:G119" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:G119"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="116" topLeftCell="A1179">
       <selection activeCell="F1188" sqref="F1188"/>

--- a/public/BOSCH_STOCK1.xlsx
+++ b/public/BOSCH_STOCK1.xlsx
@@ -30,17 +30,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'BULB,FANBELT,HORN'!$A$1:$G$119</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">COMPONENTS!$A$1:$H$376</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DELIVERY VALVE&amp;O.H.KIT'!$A$1:$H$129</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'DIESEL FILTER&amp;OIL FILTER'!$A$1:$J$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'DIESEL FILTER&amp;OIL FILTER'!$A$1:$J$291</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ELEMENT!$A$1:$F$172</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'GLOW PLUG&amp;SPARK PLUG'!$A$1:$F$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">LUBRICANTS!$A$1:$H$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">LUBRICANTS!$A$1:$H$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NOZZLE!$A$1:$G$275</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NOZZLE BODY&amp;PUMP BODY&amp;FEEDPUMP'!$A$1:$F$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'STARTER PARTS'!$A$1:$G$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'WIPER BLADE,PIPE,BRAKEPAD'!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'BULB,FANBELT,HORN'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'DIESEL FILTER&amp;OIL FILTER'!$A$3:$N$630</definedName>
-    <definedName name="Z_8145F22A_AD74_4799_898B_BCECC4FA34F9_.wvu.PrintArea" localSheetId="5" hidden="1">'DIESEL FILTER&amp;OIL FILTER'!$A$3:$N$630</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'DIESEL FILTER&amp;OIL FILTER'!$A$3:$N$632</definedName>
+    <definedName name="Z_8145F22A_AD74_4799_898B_BCECC4FA34F9_.wvu.PrintArea" localSheetId="5" hidden="1">'DIESEL FILTER&amp;OIL FILTER'!$A$3:$N$632</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5791" uniqueCount="3582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5797" uniqueCount="3584">
   <si>
     <t>0 433 175 443</t>
   </si>
@@ -10896,6 +10896,12 @@
   </si>
   <si>
     <t>1316/1213</t>
+  </si>
+  <si>
+    <t>F 002 H24 902</t>
+  </si>
+  <si>
+    <t>TATA SUPER ACE</t>
   </si>
 </sst>
 </file>
@@ -12161,7 +12167,7 @@
   <dimension ref="A1:J440"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -16068,8 +16074,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A136" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18832,7 +18838,7 @@
         <v>822</v>
       </c>
       <c r="E142" s="75">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F142" s="74">
         <v>746</v>
@@ -19080,7 +19086,7 @@
         <v>3513</v>
       </c>
       <c r="E154" s="75">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F154" s="74">
         <v>1295</v>
@@ -22001,8 +22007,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H1391"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:F31"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22136,7 +22142,7 @@
         <v>3517</v>
       </c>
       <c r="E6" s="71">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F6" s="70">
         <v>182</v>
@@ -22160,7 +22166,7 @@
         <v>3518</v>
       </c>
       <c r="E7" s="71">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F7" s="70">
         <v>198</v>
@@ -22184,7 +22190,7 @@
         <v>3519</v>
       </c>
       <c r="E8" s="71">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="F8" s="70">
         <v>209</v>
@@ -22206,7 +22212,7 @@
         <v>3520</v>
       </c>
       <c r="E9" s="71">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F9" s="70">
         <v>219</v>
@@ -22228,7 +22234,7 @@
         <v>3521</v>
       </c>
       <c r="E10" s="71">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F10" s="70">
         <v>225</v>
@@ -22252,7 +22258,7 @@
         <v>3522</v>
       </c>
       <c r="E11" s="71">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F11" s="70">
         <v>242</v>
@@ -22276,7 +22282,7 @@
         <v>3523</v>
       </c>
       <c r="E12" s="71">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="F12" s="70">
         <v>254</v>
@@ -22360,7 +22366,7 @@
         <v>2234</v>
       </c>
       <c r="E16" s="71">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="69">
         <v>334</v>
@@ -22528,7 +22534,7 @@
         <v>2053</v>
       </c>
       <c r="E24" s="71">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F24" s="69">
         <v>420</v>
@@ -22550,7 +22556,7 @@
         <v>2095</v>
       </c>
       <c r="E25" s="71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="69">
         <v>444</v>
@@ -22572,7 +22578,7 @@
         <v>1724</v>
       </c>
       <c r="E26" s="71">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F26" s="69">
         <v>357</v>
@@ -22616,7 +22622,7 @@
         <v>2055</v>
       </c>
       <c r="E28" s="71">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F28" s="70">
         <v>444</v>
@@ -31157,10 +31163,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:H311"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -31271,7 +31277,7 @@
         <v>1295</v>
       </c>
       <c r="E5" s="19">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F5" s="17">
         <v>1098</v>
@@ -31542,7 +31548,7 @@
         <v>1297</v>
       </c>
       <c r="E18" s="19">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F18" s="17">
         <v>2881</v>
@@ -31550,595 +31556,599 @@
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" ht="15.75">
-      <c r="A19" s="83">
-        <v>19</v>
-      </c>
+      <c r="A19" s="83"/>
       <c r="B19" s="17" t="s">
-        <v>2938</v>
+        <v>1301</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>1332</v>
+        <v>2372</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>1317</v>
+        <v>1302</v>
       </c>
       <c r="E19" s="19">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F19" s="17">
-        <v>221</v>
+        <v>3742</v>
       </c>
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="83">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1360</v>
+        <v>2938</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>1299</v>
+        <v>1332</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>1317</v>
       </c>
       <c r="E20" s="19">
-        <v>451</v>
+        <v>56</v>
       </c>
       <c r="F20" s="17">
-        <v>418</v>
+        <v>221</v>
       </c>
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="83">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1319</v>
+        <v>1360</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>1317</v>
       </c>
       <c r="E21" s="19">
-        <v>22</v>
+        <v>451</v>
       </c>
       <c r="F21" s="17">
-        <v>2056</v>
+        <v>418</v>
       </c>
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="83">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>1317</v>
       </c>
       <c r="E22" s="19">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F22" s="17">
-        <v>8109</v>
+        <v>2056</v>
       </c>
       <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="83">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>1299</v>
+        <v>1308</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="E23" s="19">
-        <v>412</v>
+        <v>9</v>
       </c>
       <c r="F23" s="17">
-        <v>446</v>
+        <v>8109</v>
       </c>
       <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="83">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>1314</v>
       </c>
       <c r="E24" s="19">
-        <v>54</v>
+        <v>412</v>
       </c>
       <c r="F24" s="17">
-        <v>2190</v>
+        <v>446</v>
       </c>
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="83">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>1314</v>
       </c>
       <c r="E25" s="19">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="F25" s="17">
-        <v>8433</v>
+        <v>2190</v>
       </c>
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="83">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>2343</v>
+        <v>1313</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>1299</v>
+        <v>1308</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>2377</v>
+        <v>1314</v>
       </c>
       <c r="E26" s="19">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="F26" s="17">
-        <v>724</v>
+        <v>8433</v>
       </c>
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="83">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>2378</v>
+        <v>1299</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>2377</v>
       </c>
       <c r="E27" s="19">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F27" s="17">
-        <v>1808</v>
+        <v>724</v>
       </c>
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="83">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>2366</v>
+        <v>2344</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>2373</v>
+        <v>2378</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="E28" s="19">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F28" s="17">
-        <v>497</v>
+        <v>1808</v>
       </c>
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="83">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>2264</v>
+        <v>2366</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>2374</v>
       </c>
       <c r="E29" s="19">
-        <v>268</v>
+        <v>37</v>
       </c>
       <c r="F29" s="17">
-        <v>1709</v>
+        <v>497</v>
       </c>
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="83">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>2371</v>
+        <v>2264</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="E30" s="19">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="F30" s="17">
-        <v>705</v>
+        <v>1709</v>
       </c>
       <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="83">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>2386</v>
+        <v>2371</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>2387</v>
+        <v>2373</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>2375</v>
       </c>
       <c r="E31" s="19">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F31" s="17">
-        <v>2740</v>
+        <v>705</v>
       </c>
       <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:7" ht="15.75">
       <c r="A32" s="83">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>2380</v>
+        <v>2386</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>1361</v>
+        <v>2387</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>2271</v>
+        <v>2375</v>
       </c>
       <c r="E32" s="19">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F32" s="17">
-        <v>1199</v>
+        <v>2740</v>
       </c>
       <c r="G32" s="32"/>
     </row>
     <row r="33" spans="1:7" ht="15.75">
       <c r="A33" s="83">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>2352</v>
+        <v>2380</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>1300</v>
+        <v>1361</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>2271</v>
       </c>
       <c r="E33" s="19">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="F33" s="17">
-        <v>1386</v>
+        <v>1199</v>
       </c>
       <c r="G33" s="32"/>
     </row>
     <row r="34" spans="1:7" ht="15.75">
       <c r="A34" s="83">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>2307</v>
+        <v>2352</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>1332</v>
+        <v>1300</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>2308</v>
+        <v>2271</v>
       </c>
       <c r="E34" s="19">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F34" s="17">
-        <v>216</v>
+        <v>1386</v>
       </c>
       <c r="G34" s="32"/>
     </row>
     <row r="35" spans="1:7" ht="15.75">
       <c r="A35" s="83">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>2384</v>
+        <v>2307</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>1299</v>
+        <v>1332</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>2308</v>
       </c>
       <c r="E35" s="19">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="F35" s="17">
-        <v>418</v>
+        <v>216</v>
       </c>
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="83">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>2355</v>
+        <v>2384</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>1361</v>
+        <v>1299</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>2356</v>
+        <v>2308</v>
       </c>
       <c r="E36" s="19">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="F36" s="17">
-        <v>1157</v>
+        <v>418</v>
       </c>
       <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" ht="15.75">
       <c r="A37" s="83">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>2873</v>
+        <v>2355</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>1299</v>
+        <v>1361</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>2356</v>
       </c>
       <c r="E37" s="19">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F37" s="17">
-        <v>395</v>
+        <v>1157</v>
       </c>
       <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="83">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>1323</v>
+        <v>2873</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>1324</v>
+        <v>1299</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>1321</v>
+        <v>2356</v>
       </c>
       <c r="E38" s="19">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F38" s="17">
-        <v>1360</v>
+        <v>395</v>
       </c>
       <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" ht="15.75">
       <c r="A39" s="83">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>1321</v>
       </c>
       <c r="E39" s="19">
-        <v>0</v>
-      </c>
-      <c r="F39" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="F39" s="17">
+        <v>1360</v>
+      </c>
       <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" ht="15.75">
       <c r="A40" s="83">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>1321</v>
       </c>
       <c r="E40" s="19">
-        <v>188</v>
-      </c>
-      <c r="F40" s="17">
-        <v>475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F40" s="17"/>
       <c r="G40" s="32"/>
     </row>
     <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="83">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>1321</v>
       </c>
       <c r="E41" s="19">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="F41" s="17">
-        <v>245</v>
+        <v>475</v>
       </c>
       <c r="G41" s="32"/>
     </row>
     <row r="42" spans="1:7" ht="15.75">
       <c r="A42" s="83">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>1370</v>
+        <v>1330</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>2370</v>
+        <v>1329</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>1321</v>
       </c>
       <c r="E42" s="19">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F42" s="17">
-        <v>101</v>
+        <v>245</v>
       </c>
       <c r="G42" s="32"/>
     </row>
     <row r="43" spans="1:7" ht="15.75">
       <c r="A43" s="83">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>1923</v>
+        <v>1370</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>1924</v>
+        <v>2370</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="E43" s="19">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="F43" s="17">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7" ht="15.75">
       <c r="A44" s="83">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>2282</v>
+        <v>1923</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>2283</v>
+        <v>1924</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>1331</v>
       </c>
       <c r="E44" s="19">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F44" s="17">
-        <v>676</v>
+        <v>247</v>
       </c>
       <c r="G44" s="32"/>
     </row>
     <row r="45" spans="1:7" ht="15.75">
       <c r="A45" s="83">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>2333</v>
+        <v>2282</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>1924</v>
+        <v>2283</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>2334</v>
+        <v>1331</v>
       </c>
       <c r="E45" s="19">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F45" s="17">
-        <v>275</v>
+        <v>676</v>
       </c>
       <c r="G45" s="32"/>
     </row>
     <row r="46" spans="1:7" ht="15.75">
       <c r="A46" s="83">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>2345</v>
+        <v>2333</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>2374</v>
-      </c>
-      <c r="D46" s="17"/>
+        <v>1924</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>2334</v>
+      </c>
       <c r="E46" s="19">
-        <v>0</v>
-      </c>
-      <c r="F46" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="F46" s="17">
+        <v>275</v>
+      </c>
       <c r="G46" s="32"/>
     </row>
     <row r="47" spans="1:7" ht="15.75">
       <c r="A47" s="83">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>2346</v>
-      </c>
-      <c r="C47" s="17"/>
+        <v>2345</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>2374</v>
+      </c>
       <c r="D47" s="17"/>
       <c r="E47" s="19">
         <v>0</v>
@@ -32148,48 +32158,46 @@
     </row>
     <row r="48" spans="1:7" ht="15.75">
       <c r="A48" s="83">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>2435</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>2436</v>
-      </c>
+        <v>2346</v>
+      </c>
+      <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="19">
         <v>0</v>
       </c>
-      <c r="F48" s="17" t="s">
-        <v>2729</v>
-      </c>
+      <c r="F48" s="17"/>
       <c r="G48" s="32"/>
     </row>
     <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="83">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>2437</v>
-      </c>
-      <c r="C49" s="17"/>
+        <v>2435</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>2436</v>
+      </c>
       <c r="D49" s="17"/>
       <c r="E49" s="19">
         <v>0</v>
       </c>
-      <c r="F49" s="17"/>
+      <c r="F49" s="17" t="s">
+        <v>2729</v>
+      </c>
       <c r="G49" s="32"/>
     </row>
     <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="83">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>2565</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>2566</v>
-      </c>
+        <v>2437</v>
+      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="17"/>
       <c r="E50" s="19">
         <v>0</v>
@@ -32199,12 +32207,14 @@
     </row>
     <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="83">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>2567</v>
-      </c>
-      <c r="C51" s="17"/>
+        <v>2565</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>2566</v>
+      </c>
       <c r="D51" s="17"/>
       <c r="E51" s="19">
         <v>0</v>
@@ -32214,290 +32224,284 @@
     </row>
     <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="83">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>2525</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>2526</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>2527</v>
-      </c>
+        <v>2567</v>
+      </c>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="19">
-        <v>6</v>
-      </c>
-      <c r="F52" s="17">
-        <v>1804</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>2837</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="32"/>
     </row>
     <row r="53" spans="1:8" ht="15.75">
       <c r="A53" s="83">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>2535</v>
+        <v>2525</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>2536</v>
+        <v>2526</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>3040</v>
+        <v>2527</v>
       </c>
       <c r="E53" s="19">
-        <v>38</v>
-      </c>
-      <c r="F53" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="F53" s="17">
+        <v>1804</v>
+      </c>
       <c r="G53" s="32" t="s">
-        <v>3092</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>2848</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="83">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>2540</v>
+        <v>2535</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>2536</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="E54" s="19">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="32" t="s">
-        <v>2630</v>
+        <v>3092</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>2848</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75">
       <c r="A55" s="83">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>3122</v>
+        <v>2540</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>2536</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>3121</v>
+        <v>3041</v>
       </c>
       <c r="E55" s="19">
-        <v>120</v>
-      </c>
-      <c r="F55" s="17">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F55" s="17"/>
       <c r="G55" s="32" t="s">
-        <v>3124</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>3123</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75">
       <c r="A56" s="83">
-        <v>56</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>2546</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>2548</v>
-      </c>
-      <c r="E56" s="84">
-        <v>15</v>
-      </c>
-      <c r="F56" s="32">
-        <v>2373</v>
-      </c>
-      <c r="G56" s="32"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E56" s="19">
+        <v>120</v>
+      </c>
+      <c r="F56" s="17">
+        <v>50</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>3124</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>3123</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="83">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D57" s="32" t="s">
         <v>2548</v>
       </c>
       <c r="E57" s="84">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="F57" s="32">
-        <v>482</v>
+        <v>2373</v>
       </c>
       <c r="G57" s="32"/>
     </row>
     <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="83">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>2927</v>
+        <v>2547</v>
       </c>
       <c r="C58" s="32" t="s">
         <v>1299</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>2893</v>
+        <v>2548</v>
       </c>
       <c r="E58" s="84">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="F58" s="32">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="G58" s="32"/>
     </row>
     <row r="59" spans="1:8" ht="15.75">
       <c r="A59" s="83">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>2838</v>
+        <v>2927</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>1361</v>
+        <v>1299</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>2839</v>
+        <v>2893</v>
       </c>
       <c r="E59" s="84">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F59" s="32">
-        <v>1998</v>
-      </c>
-      <c r="G59" s="32" t="s">
-        <v>2858</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="G59" s="32"/>
     </row>
     <row r="60" spans="1:8" ht="15.75">
       <c r="A60" s="83">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>2843</v>
+        <v>2838</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>1300</v>
+        <v>1361</v>
       </c>
       <c r="D60" s="32" t="s">
         <v>2839</v>
       </c>
       <c r="E60" s="84">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F60" s="32">
-        <v>2492</v>
+        <v>1998</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75">
       <c r="A61" s="83">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>2636</v>
+        <v>2843</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>2638</v>
+        <v>1300</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>2640</v>
+        <v>2839</v>
       </c>
       <c r="E61" s="84">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F61" s="32">
-        <v>228</v>
+        <v>2492</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>2849</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75">
       <c r="A62" s="83">
-        <v>62</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>2637</v>
+        <v>61</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>2636</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>2639</v>
-      </c>
-      <c r="D62" s="32"/>
+        <v>2638</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>2640</v>
+      </c>
       <c r="E62" s="84">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F62" s="32">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>3093</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>2931</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75">
       <c r="A63" s="83">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>2869</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>1924</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>2870</v>
-      </c>
+        <v>2637</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D63" s="32"/>
       <c r="E63" s="84">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="F63" s="32">
-        <v>251</v>
-      </c>
-      <c r="G63" s="32"/>
+        <v>115</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>3093</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>2931</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="15.75">
       <c r="A64" s="83">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>2898</v>
+        <v>2869</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>1924</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="E64" s="84">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="F64" s="32">
         <v>251</v>
@@ -32506,56 +32510,58 @@
     </row>
     <row r="65" spans="1:7" ht="15.75">
       <c r="A65" s="83">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>2884</v>
+        <v>2898</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>2892</v>
+        <v>1924</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>2893</v>
+        <v>2872</v>
       </c>
       <c r="E65" s="84">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F65" s="32">
-        <v>2417</v>
+        <v>251</v>
       </c>
       <c r="G65" s="32"/>
     </row>
     <row r="66" spans="1:7" ht="15.75">
       <c r="A66" s="83">
-        <v>66</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>1921</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>1922</v>
+        <v>65</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>2893</v>
       </c>
       <c r="E66" s="84">
-        <v>0</v>
-      </c>
-      <c r="F66" s="32"/>
+        <v>15</v>
+      </c>
+      <c r="F66" s="32">
+        <v>2417</v>
+      </c>
       <c r="G66" s="32"/>
     </row>
     <row r="67" spans="1:7" ht="15.75">
       <c r="A67" s="83">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>1301</v>
+        <v>1920</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>1302</v>
+        <v>1921</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>1303</v>
+        <v>1922</v>
       </c>
       <c r="E67" s="84">
         <v>0</v>
@@ -32565,16 +32571,16 @@
     </row>
     <row r="68" spans="1:7" ht="15.75">
       <c r="A68" s="83">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>1517</v>
+        <v>1301</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D68" s="32">
-        <v>68</v>
+        <v>1302</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>1303</v>
       </c>
       <c r="E68" s="84">
         <v>0</v>
@@ -32584,13 +32590,13 @@
     </row>
     <row r="69" spans="1:7" ht="15.75">
       <c r="A69" s="83">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>1298</v>
+        <v>1308</v>
       </c>
       <c r="D69" s="32">
         <v>68</v>
@@ -32603,15 +32609,17 @@
     </row>
     <row r="70" spans="1:7" ht="15.75">
       <c r="A70" s="83">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>2051</v>
+        <v>1518</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>2052</v>
-      </c>
-      <c r="D70" s="32"/>
+        <v>1298</v>
+      </c>
+      <c r="D70" s="32">
+        <v>68</v>
+      </c>
       <c r="E70" s="84">
         <v>0</v>
       </c>
@@ -32620,78 +32628,78 @@
     </row>
     <row r="71" spans="1:7" ht="15.75">
       <c r="A71" s="83">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>1462</v>
+        <v>2051</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>1464</v>
-      </c>
+        <v>2052</v>
+      </c>
+      <c r="D71" s="32"/>
       <c r="E71" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
     </row>
     <row r="72" spans="1:7" ht="15.75">
       <c r="A72" s="83">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>1320</v>
+        <v>1462</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>1321</v>
+        <v>1463</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>1322</v>
+        <v>1464</v>
       </c>
       <c r="E72" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
     </row>
-    <row r="73" spans="1:7" ht="21">
+    <row r="73" spans="1:7" ht="15.75">
       <c r="A73" s="83">
+        <v>73</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E73" s="84">
+        <v>0</v>
+      </c>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+    </row>
+    <row r="74" spans="1:7" ht="21">
+      <c r="A74" s="83">
         <v>74</v>
       </c>
-      <c r="B73" s="94" t="s">
+      <c r="B74" s="94" t="s">
         <v>1333</v>
       </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="32"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.75">
-      <c r="A74" s="83">
-        <v>75</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="84">
-        <v>1</v>
-      </c>
-      <c r="F74" s="32"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="94"/>
       <c r="G74" s="32"/>
     </row>
     <row r="75" spans="1:7" ht="15.75">
       <c r="A75" s="83">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>1583</v>
+        <v>1479</v>
       </c>
       <c r="C75" s="32" t="s">
         <v>1480</v>
@@ -32705,87 +32713,85 @@
     </row>
     <row r="76" spans="1:7" ht="15.75">
       <c r="A76" s="83">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32" t="s">
-        <v>1296</v>
-      </c>
+        <v>1583</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D76" s="32"/>
       <c r="E76" s="84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
     </row>
     <row r="77" spans="1:7" ht="15.75">
       <c r="A77" s="83">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>1308</v>
-      </c>
+        <v>1478</v>
+      </c>
+      <c r="C77" s="32"/>
       <c r="D77" s="32" t="s">
-        <v>1335</v>
+        <v>1296</v>
       </c>
       <c r="E77" s="84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F77" s="32"/>
       <c r="G77" s="32"/>
     </row>
     <row r="78" spans="1:7" ht="15.75">
       <c r="A78" s="83">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="32" t="s">
         <v>1333</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>1298</v>
+        <v>1308</v>
       </c>
       <c r="D78" s="32" t="s">
         <v>1335</v>
       </c>
       <c r="E78" s="84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="32"/>
     </row>
     <row r="79" spans="1:7" ht="15.75">
       <c r="A79" s="83">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="32" t="s">
         <v>1333</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E79" s="84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F79" s="32"/>
       <c r="G79" s="32"/>
     </row>
     <row r="80" spans="1:7" ht="15.75">
       <c r="A80" s="83">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="32" t="s">
         <v>1333</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>1298</v>
+        <v>1308</v>
       </c>
       <c r="D80" s="32" t="s">
         <v>1336</v>
@@ -32798,13 +32804,13 @@
     </row>
     <row r="81" spans="1:7" ht="15.75">
       <c r="A81" s="83">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B81" s="32" t="s">
         <v>1333</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D81" s="32" t="s">
         <v>1336</v>
@@ -32817,138 +32823,140 @@
     </row>
     <row r="82" spans="1:7" ht="15.75">
       <c r="A82" s="83">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B82" s="32" t="s">
         <v>1333</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>1324</v>
+        <v>1299</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>1321</v>
+        <v>1336</v>
       </c>
       <c r="E82" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="32"/>
       <c r="G82" s="32"/>
     </row>
     <row r="83" spans="1:7" ht="15.75">
       <c r="A83" s="83">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B83" s="32" t="s">
         <v>1333</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="D83" s="32" t="s">
         <v>1321</v>
       </c>
       <c r="E83" s="84">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="32"/>
     </row>
     <row r="84" spans="1:7" ht="15.75">
       <c r="A84" s="83">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B84" s="32" t="s">
         <v>1333</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D84" s="32" t="s">
         <v>1321</v>
       </c>
       <c r="E84" s="84">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
     </row>
     <row r="85" spans="1:7" ht="15.75">
       <c r="A85" s="83">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>1471</v>
+        <v>1333</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D85" s="32"/>
+        <v>1329</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>1321</v>
+      </c>
       <c r="E85" s="84">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="32"/>
     </row>
     <row r="86" spans="1:7" ht="15.75">
       <c r="A86" s="83">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>1574</v>
+        <v>1471</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>1336</v>
+        <v>1472</v>
       </c>
       <c r="D86" s="32"/>
       <c r="E86" s="84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F86" s="32"/>
       <c r="G86" s="32"/>
     </row>
     <row r="87" spans="1:7" ht="15.75">
       <c r="A87" s="83">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C87" s="32" t="s">
         <v>1336</v>
       </c>
       <c r="D87" s="32"/>
       <c r="E87" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="32"/>
       <c r="G87" s="32"/>
     </row>
     <row r="88" spans="1:7" ht="15.75">
       <c r="A88" s="83">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>1672</v>
+        <v>1575</v>
       </c>
       <c r="C88" s="32" t="s">
         <v>1336</v>
       </c>
       <c r="D88" s="32"/>
       <c r="E88" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" s="32"/>
       <c r="G88" s="32"/>
     </row>
     <row r="89" spans="1:7" ht="15.75">
       <c r="A89" s="83">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B89" s="32" t="s">
         <v>1672</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>1673</v>
+        <v>1336</v>
       </c>
       <c r="D89" s="32"/>
       <c r="E89" s="84">
@@ -32959,28 +32967,24 @@
     </row>
     <row r="90" spans="1:7" ht="15.75">
       <c r="A90" s="83">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>1736</v>
+        <v>1672</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D90" s="32" t="s">
-        <v>1464</v>
-      </c>
+        <v>1673</v>
+      </c>
+      <c r="D90" s="32"/>
       <c r="E90" s="84">
-        <v>38</v>
-      </c>
-      <c r="F90" s="32">
-        <v>2150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F90" s="32"/>
       <c r="G90" s="32"/>
     </row>
     <row r="91" spans="1:7" ht="15.75">
       <c r="A91" s="83">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B91" s="32" t="s">
         <v>1736</v>
@@ -32989,25 +32993,40 @@
         <v>1463</v>
       </c>
       <c r="D91" s="32" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E91" s="84">
+        <v>38</v>
+      </c>
+      <c r="F91" s="32">
+        <v>2150</v>
+      </c>
+      <c r="G91" s="32"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75">
+      <c r="A92" s="83">
+        <v>123</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D92" s="32" t="s">
         <v>1737</v>
       </c>
-      <c r="E91" s="84">
+      <c r="E92" s="84">
         <v>20</v>
       </c>
-      <c r="F91" s="32">
+      <c r="F92" s="32">
         <v>2050</v>
       </c>
-      <c r="G91" s="32"/>
-    </row>
-    <row r="305" spans="5:5">
-      <c r="E305" s="23">
-        <f t="shared" ref="E305:E310" si="0">(E304+C305-D305)</f>
-        <v>0</v>
-      </c>
+      <c r="G92" s="32"/>
     </row>
     <row r="306" spans="5:5">
       <c r="E306" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E306:E311" si="0">(E305+C306-D306)</f>
         <v>0</v>
       </c>
     </row>
@@ -33035,9 +33054,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="311" spans="5:5">
+      <c r="E311" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H91"/>
+  <autoFilter ref="A1:H92"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="115" topLeftCell="A35">
       <selection activeCell="D44" sqref="D44"/>
@@ -33046,7 +33071,7 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
-    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -33059,8 +33084,8 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35852,8 +35877,8 @@
   </sheetPr>
   <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44957,8 +44982,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H478"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D316" sqref="D316"/>
+    <sheetView topLeftCell="A316" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D325" sqref="D325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49713,7 +49738,7 @@
       </c>
       <c r="D288" s="33"/>
       <c r="E288" s="35">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F288" s="33"/>
     </row>
@@ -49819,7 +49844,7 @@
       </c>
       <c r="D294" s="33"/>
       <c r="E294" s="35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F294" s="33">
         <v>696</v>
@@ -50200,7 +50225,7 @@
       </c>
       <c r="D316" s="33"/>
       <c r="E316" s="35">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F316" s="33">
         <v>865</v>
@@ -50326,7 +50351,7 @@
       </c>
       <c r="D323" s="33"/>
       <c r="E323" s="35">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F323" s="33">
         <v>1050</v>
@@ -51422,8 +51447,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G571"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView topLeftCell="A144" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51817,7 +51842,7 @@
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="56">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F23" s="35">
         <v>584</v>
@@ -53122,7 +53147,7 @@
         <v>2706</v>
       </c>
       <c r="E98" s="56">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F98" s="56">
         <v>1320</v>
@@ -53331,7 +53356,7 @@
         <v>2706</v>
       </c>
       <c r="E110" s="56">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F110" s="35">
         <v>986</v>
@@ -53740,7 +53765,7 @@
         <v>2709</v>
       </c>
       <c r="E133" s="56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F133" s="35" t="s">
         <v>2790</v>
@@ -54062,7 +54087,7 @@
         <v>2705</v>
       </c>
       <c r="E150" s="56">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F150" s="35">
         <v>893</v>
@@ -54082,7 +54107,7 @@
         <v>2715</v>
       </c>
       <c r="E151" s="56">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F151" s="35" t="s">
         <v>3132</v>
@@ -54782,7 +54807,7 @@
       </c>
       <c r="D188" s="33"/>
       <c r="E188" s="56">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F188" s="35">
         <v>1457</v>
@@ -54838,7 +54863,7 @@
         <v>2706</v>
       </c>
       <c r="E191" s="56">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F191" s="35">
         <v>1106</v>
@@ -54936,7 +54961,7 @@
         <v>2733</v>
       </c>
       <c r="E196" s="56">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F196" s="35">
         <v>1087</v>
@@ -57103,10 +57128,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:J289"/>
+  <dimension ref="A1:J291"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57257,7 +57282,7 @@
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F8" s="35">
         <v>121</v>
@@ -57275,7 +57300,7 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="F9" s="35">
         <v>193</v>
@@ -57311,7 +57336,7 @@
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33">
-        <v>764</v>
+        <v>879</v>
       </c>
       <c r="F11" s="35">
         <v>184</v>
@@ -57388,7 +57413,7 @@
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F15" s="35">
         <v>400</v>
@@ -57406,7 +57431,7 @@
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="35">
         <v>396</v>
@@ -57498,7 +57523,7 @@
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="F21" s="35">
         <v>363</v>
@@ -58042,7 +58067,7 @@
       </c>
       <c r="D51" s="33"/>
       <c r="E51" s="33">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F51" s="35">
         <v>95</v>
@@ -58134,7 +58159,7 @@
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="33">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F56" s="35">
         <v>260</v>
@@ -58222,7 +58247,7 @@
       </c>
       <c r="D61" s="33"/>
       <c r="E61" s="33">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F61" s="35">
         <v>298</v>
@@ -58464,7 +58489,7 @@
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="33">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F75" s="35">
         <v>239</v>
@@ -58500,7 +58525,7 @@
       </c>
       <c r="D77" s="33"/>
       <c r="E77" s="33">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F77" s="35">
         <v>253</v>
@@ -59321,7 +59346,7 @@
       </c>
       <c r="D122" s="33"/>
       <c r="E122" s="33">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F122" s="35">
         <v>197</v>
@@ -60053,7 +60078,7 @@
         <v>3416</v>
       </c>
       <c r="E162" s="33">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F162" s="35">
         <v>686</v>
@@ -60073,7 +60098,7 @@
         <v>3417</v>
       </c>
       <c r="E163" s="60">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F163" s="33">
         <v>868</v>
@@ -60133,7 +60158,7 @@
         <v>2555</v>
       </c>
       <c r="E166" s="33">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F166" s="35" t="s">
         <v>2940</v>
@@ -60173,7 +60198,7 @@
         <v>3423</v>
       </c>
       <c r="E168" s="33">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F168" s="35">
         <v>1454</v>
@@ -60233,7 +60258,7 @@
         <v>3428</v>
       </c>
       <c r="E171" s="33">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="F171" s="35">
         <v>649</v>
@@ -60253,7 +60278,7 @@
         <v>3429</v>
       </c>
       <c r="E172" s="33">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F172" s="35">
         <v>759</v>
@@ -60313,7 +60338,7 @@
         <v>3433</v>
       </c>
       <c r="E175" s="33">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F175" s="35">
         <v>282</v>
@@ -60443,7 +60468,7 @@
         <v>290</v>
       </c>
       <c r="E182" s="33">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F182" s="35">
         <v>170</v>
@@ -60463,7 +60488,7 @@
         <v>318</v>
       </c>
       <c r="E183" s="33">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F183" s="35">
         <v>186</v>
@@ -60583,7 +60608,7 @@
         <v>3441</v>
       </c>
       <c r="E189" s="33">
-        <v>106</v>
+        <v>346</v>
       </c>
       <c r="F189" s="33" t="s">
         <v>3028</v>
@@ -60779,7 +60804,7 @@
         <v>3447</v>
       </c>
       <c r="E199" s="33">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F199" s="35">
         <v>155</v>
@@ -60799,7 +60824,7 @@
         <v>2440</v>
       </c>
       <c r="E200" s="33">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F200" s="35">
         <v>200</v>
@@ -61309,7 +61334,7 @@
         <v>3468</v>
       </c>
       <c r="E226" s="33">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F226" s="33">
         <v>315</v>
@@ -62071,496 +62096,522 @@
         <v>720</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="33" customHeight="1">
-      <c r="A265" s="33">
+    <row r="265" spans="1:7">
+      <c r="A265" s="33"/>
+      <c r="B265" s="33" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C265" s="33" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D265" s="33" t="s">
+        <v>3583</v>
+      </c>
+      <c r="E265" s="33">
+        <v>20</v>
+      </c>
+      <c r="F265" s="35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="33"/>
+      <c r="B266" s="33"/>
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
+      <c r="F266" s="35"/>
+    </row>
+    <row r="267" spans="1:7" ht="33" customHeight="1">
+      <c r="A267" s="33">
         <v>299</v>
       </c>
-      <c r="B265" s="90" t="s">
+      <c r="B267" s="90" t="s">
         <v>3360</v>
       </c>
-      <c r="C265" s="90"/>
-      <c r="D265" s="90"/>
-      <c r="E265" s="90"/>
-      <c r="F265" s="90"/>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="A266" s="33">
-        <v>302</v>
-      </c>
-      <c r="B266" s="33" t="s">
-        <v>2338</v>
-      </c>
-      <c r="C266" s="33" t="s">
-        <v>2382</v>
-      </c>
-      <c r="D266" s="33" t="s">
-        <v>3489</v>
-      </c>
-      <c r="E266" s="33">
-        <v>14</v>
-      </c>
-      <c r="F266" s="33">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="A267" s="33">
-        <v>303</v>
-      </c>
-      <c r="B267" s="33" t="s">
-        <v>2339</v>
-      </c>
-      <c r="C267" s="33" t="s">
-        <v>2382</v>
-      </c>
-      <c r="D267" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="E267" s="33">
-        <v>43</v>
-      </c>
-      <c r="F267" s="33">
-        <v>255</v>
-      </c>
+      <c r="C267" s="90"/>
+      <c r="D267" s="90"/>
+      <c r="E267" s="90"/>
+      <c r="F267" s="90"/>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="33">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B268" s="33" t="s">
-        <v>2362</v>
+        <v>2338</v>
       </c>
       <c r="C268" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D268" s="33" t="s">
-        <v>2407</v>
+        <v>3489</v>
       </c>
       <c r="E268" s="33">
-        <v>27</v>
-      </c>
-      <c r="F268" s="33" t="s">
-        <v>3005</v>
-      </c>
-      <c r="G268" s="2">
-        <v>399</v>
+        <v>14</v>
+      </c>
+      <c r="F268" s="33">
+        <v>289</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="33">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B269" s="33" t="s">
-        <v>2363</v>
+        <v>2339</v>
       </c>
       <c r="C269" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D269" s="33" t="s">
-        <v>3426</v>
+        <v>683</v>
       </c>
       <c r="E269" s="33">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F269" s="33">
-        <v>299</v>
+        <v>255</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="33">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B270" s="33" t="s">
-        <v>2391</v>
+        <v>2362</v>
       </c>
       <c r="C270" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D270" s="33" t="s">
-        <v>3490</v>
+        <v>2407</v>
       </c>
       <c r="E270" s="33">
-        <v>9</v>
-      </c>
-      <c r="F270" s="33">
-        <v>325</v>
+        <v>27</v>
+      </c>
+      <c r="F270" s="33" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G270" s="2">
+        <v>399</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="33">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B271" s="33" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="C271" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D271" s="33" t="s">
-        <v>3491</v>
+        <v>3426</v>
       </c>
       <c r="E271" s="33">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F271" s="33">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="33">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B272" s="33" t="s">
-        <v>2926</v>
+        <v>2391</v>
       </c>
       <c r="C272" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D272" s="33" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
       <c r="E272" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F272" s="33">
-        <v>239</v>
+        <v>325</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="33">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B273" s="33" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C273" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D273" s="33" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="E273" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F273" s="33">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="33">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B274" s="33" t="s">
-        <v>2388</v>
+        <v>2926</v>
       </c>
       <c r="C274" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D274" s="33" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="E274" s="33">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F274" s="33">
-        <v>1712</v>
+        <v>239</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="33">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B275" s="33" t="s">
-        <v>2474</v>
+        <v>2365</v>
       </c>
       <c r="C275" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D275" s="33" t="s">
-        <v>2484</v>
+        <v>3493</v>
       </c>
       <c r="E275" s="33">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F275" s="33">
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="33">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B276" s="33" t="s">
-        <v>2860</v>
+        <v>2388</v>
       </c>
       <c r="C276" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D276" s="33" t="s">
-        <v>2495</v>
+        <v>3494</v>
       </c>
       <c r="E276" s="33">
         <v>5</v>
       </c>
-      <c r="F276" s="33" t="s">
-        <v>2496</v>
+      <c r="F276" s="33">
+        <v>1712</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="33">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B277" s="33" t="s">
-        <v>2652</v>
+        <v>2474</v>
       </c>
       <c r="C277" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D277" s="33" t="s">
-        <v>2446</v>
+        <v>2484</v>
       </c>
       <c r="E277" s="33">
-        <v>41</v>
-      </c>
-      <c r="F277" s="35">
-        <v>389</v>
+        <v>39</v>
+      </c>
+      <c r="F277" s="33">
+        <v>309</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="33">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B278" s="33" t="s">
-        <v>2678</v>
+        <v>2860</v>
       </c>
       <c r="C278" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D278" s="33" t="s">
-        <v>3495</v>
+        <v>2495</v>
       </c>
       <c r="E278" s="33">
-        <v>37</v>
-      </c>
-      <c r="F278" s="35" t="s">
-        <v>2949</v>
+        <v>5</v>
+      </c>
+      <c r="F278" s="33" t="s">
+        <v>2496</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="33">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B279" s="33" t="s">
-        <v>2846</v>
+        <v>2652</v>
       </c>
       <c r="C279" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D279" s="33" t="s">
-        <v>2894</v>
+        <v>2446</v>
       </c>
       <c r="E279" s="33">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F279" s="35">
-        <v>330</v>
+        <v>389</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="33">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B280" s="33" t="s">
-        <v>2847</v>
+        <v>2678</v>
       </c>
       <c r="C280" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D280" s="33" t="s">
-        <v>2868</v>
+        <v>3495</v>
       </c>
       <c r="E280" s="33">
-        <v>19</v>
-      </c>
-      <c r="F280" s="35">
-        <v>339</v>
+        <v>37</v>
+      </c>
+      <c r="F280" s="35" t="s">
+        <v>2949</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="33">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B281" s="33" t="s">
-        <v>2878</v>
+        <v>2846</v>
       </c>
       <c r="C281" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D281" s="33" t="s">
-        <v>2890</v>
+        <v>2894</v>
       </c>
       <c r="E281" s="33">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F281" s="35">
-        <v>251</v>
+        <v>330</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="33">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B282" s="33" t="s">
-        <v>2879</v>
+        <v>2847</v>
       </c>
       <c r="C282" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D282" s="33" t="s">
-        <v>2919</v>
+        <v>2868</v>
       </c>
       <c r="E282" s="33">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F282" s="35">
-        <v>260</v>
+        <v>339</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="33">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B283" s="33" t="s">
-        <v>2961</v>
+        <v>2878</v>
       </c>
       <c r="C283" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D283" s="33" t="s">
-        <v>3013</v>
+        <v>2890</v>
       </c>
       <c r="E283" s="33">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F283" s="35">
-        <v>345</v>
+        <v>251</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="33">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B284" s="33" t="s">
-        <v>2963</v>
+        <v>2879</v>
       </c>
       <c r="C284" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D284" s="33" t="s">
-        <v>3012</v>
+        <v>2919</v>
       </c>
       <c r="E284" s="33">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F284" s="35">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="33">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B285" s="33" t="s">
-        <v>3066</v>
+        <v>2961</v>
       </c>
       <c r="C285" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D285" s="33" t="s">
-        <v>3076</v>
+        <v>3013</v>
       </c>
       <c r="E285" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F285" s="35">
-        <v>285</v>
+        <v>345</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="33">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B286" s="33" t="s">
-        <v>3067</v>
+        <v>2963</v>
       </c>
       <c r="C286" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D286" s="33" t="s">
-        <v>3077</v>
+        <v>3012</v>
       </c>
       <c r="E286" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F286" s="35">
-        <v>209</v>
+        <v>259</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="33">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B287" s="33" t="s">
-        <v>3058</v>
+        <v>3066</v>
       </c>
       <c r="C287" s="33" t="s">
         <v>2382</v>
       </c>
       <c r="D287" s="33" t="s">
-        <v>2426</v>
+        <v>3076</v>
       </c>
       <c r="E287" s="33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F287" s="35">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="33">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B288" s="33" t="s">
-        <v>3080</v>
+        <v>3067</v>
       </c>
       <c r="C288" s="33" t="s">
         <v>2382</v>
       </c>
-      <c r="D288" s="33"/>
+      <c r="D288" s="33" t="s">
+        <v>3077</v>
+      </c>
       <c r="E288" s="33">
-        <v>5</v>
-      </c>
-      <c r="F288" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="F288" s="35">
+        <v>209</v>
+      </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="33">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B289" s="33" t="s">
-        <v>3089</v>
+        <v>3058</v>
       </c>
       <c r="C289" s="33" t="s">
         <v>2382</v>
       </c>
-      <c r="D289" s="33"/>
+      <c r="D289" s="33" t="s">
+        <v>2426</v>
+      </c>
       <c r="E289" s="33">
+        <v>10</v>
+      </c>
+      <c r="F289" s="35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="33">
+        <v>324</v>
+      </c>
+      <c r="B290" s="33" t="s">
+        <v>3080</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D290" s="33"/>
+      <c r="E290" s="33">
         <v>5</v>
       </c>
-      <c r="F289" s="35"/>
+      <c r="F290" s="35"/>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="33">
+        <v>325</v>
+      </c>
+      <c r="B291" s="33" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C291" s="33" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D291" s="33"/>
+      <c r="E291" s="33">
+        <v>5</v>
+      </c>
+      <c r="F291" s="35"/>
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:J289"/>
+  <autoFilter ref="A1:J291"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1045">
       <selection activeCell="D1055" sqref="D1055"/>
@@ -62573,7 +62624,7 @@
     <mergeCell ref="B157:F157"/>
     <mergeCell ref="B180:F180"/>
     <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B267:F267"/>
     <mergeCell ref="B151:F151"/>
     <mergeCell ref="B49:F49"/>
     <mergeCell ref="B121:F121"/>
@@ -62589,7 +62640,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -63734,7 +63785,7 @@
         <v>405</v>
       </c>
       <c r="E62" s="62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F62" s="4">
         <v>2189</v>
@@ -64128,7 +64179,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64941,8 +64992,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -65109,7 +65160,7 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="35">
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>2819</v>
@@ -65184,7 +65235,7 @@
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="35">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="F13" s="33">
         <v>195</v>

--- a/public/BOSCH_STOCK1.xlsx
+++ b/public/BOSCH_STOCK1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abc\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A67ABB-B5A3-4D2D-9136-78AC9285B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="12240" windowHeight="9240" tabRatio="730"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="730" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELEMENT" sheetId="1" r:id="rId1"/>
@@ -42,10 +48,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'DIESEL FILTER&amp;OIL FILTER'!$A$3:$N$632</definedName>
     <definedName name="Z_8145F22A_AD74_4799_898B_BCECC4FA34F9_.wvu.PrintArea" localSheetId="5" hidden="1">'DIESEL FILTER&amp;OIL FILTER'!$A$3:$N$632</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="pcs - Personal View" guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="800" windowHeight="379" tabRatio="628" activeSheetId="5"/>
   </customWorkbookViews>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -10907,10 +10914,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_ &quot;Rs.&quot;\ * #,##0.00_ ;_ &quot;Rs.&quot;\ * \-#,##0.00_ ;_ &quot;Rs.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;Rs.&quot;\ * #,##0.00_ ;_ &quot;Rs.&quot;\ * \-#,##0.00_ ;_ &quot;Rs.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -11220,7 +11227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -11431,7 +11438,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11474,10 +11481,10 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="32">
@@ -11879,9 +11886,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11919,7 +11926,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -11953,6 +11960,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -11987,9 +11995,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12162,12 +12171,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -16056,7 +16065,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F172"/>
+  <autoFilter ref="A1:F172" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A104">
       <selection activeCell="G107" sqref="G107"/>
@@ -16070,7 +16079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H292"/>
   <sheetViews>
@@ -21958,7 +21967,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:I292"/>
+  <autoFilter ref="A1:I292" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1208">
       <selection activeCell="D1139" sqref="D1139"/>
@@ -22003,12 +22012,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H1391"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31140,7 +31149,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H54"/>
+  <autoFilter ref="A1:H54" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="120" topLeftCell="A52">
       <selection activeCell="D57" sqref="D57"/>
@@ -31161,7 +31170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H311"/>
   <sheetViews>
@@ -33062,7 +33071,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H92"/>
+  <autoFilter ref="A1:H92" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="115" topLeftCell="A35">
       <selection activeCell="D44" sqref="D44"/>
@@ -33079,7 +33088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:F98"/>
   <sheetViews>
@@ -34994,7 +35003,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F98"/>
+  <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}">
       <selection activeCell="A2" sqref="A2"/>
@@ -35010,7 +35019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -35096,7 +35105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K50"/>
   <sheetViews>
@@ -35693,7 +35702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A3:I20"/>
   <sheetViews>
@@ -35871,7 +35880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -41292,7 +41301,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:G275"/>
+  <autoFilter ref="A1:G275" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" topLeftCell="A335">
       <selection activeCell="C348" sqref="C348"/>
@@ -41306,7 +41315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H772"/>
   <sheetViews>
@@ -44964,7 +44973,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H129"/>
+  <autoFilter ref="A1:H129" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A239">
       <selection activeCell="D241" sqref="D241"/>
@@ -44978,7 +44987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H478"/>
   <sheetViews>
@@ -51429,7 +51438,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H376"/>
+  <autoFilter ref="A1:H376" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A2437">
       <selection activeCell="D2444" sqref="D2444"/>
@@ -51443,7 +51452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G571"/>
   <sheetViews>
@@ -57100,7 +57109,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:G231"/>
+  <autoFilter ref="A1:G231" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1207">
       <selection activeCell="F1213" sqref="F1213"/>
@@ -57126,7 +57135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J291"/>
   <sheetViews>
@@ -62611,7 +62620,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:J291"/>
+  <autoFilter ref="A1:J291" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1045">
       <selection activeCell="D1055" sqref="D1055"/>
@@ -62635,7 +62644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -64161,7 +64170,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F80"/>
+  <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A503">
       <selection activeCell="E514" sqref="E514"/>
@@ -64174,7 +64183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F43"/>
   <sheetViews>
@@ -64975,7 +64984,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F43"/>
+  <autoFilter ref="A1:F43" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="120" topLeftCell="A217">
       <selection activeCell="C224" sqref="C224"/>
@@ -64988,7 +64997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G119"/>
   <sheetViews>
@@ -66999,7 +67008,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:G119"/>
+  <autoFilter ref="A1:G119" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="116" topLeftCell="A1179">
       <selection activeCell="F1188" sqref="F1188"/>

--- a/public/BOSCH_STOCK1.xlsx
+++ b/public/BOSCH_STOCK1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abc\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A67ABB-B5A3-4D2D-9136-78AC9285B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="730" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="12240" windowHeight="9240" tabRatio="730" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ELEMENT" sheetId="1" r:id="rId1"/>
@@ -48,11 +42,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'DIESEL FILTER&amp;OIL FILTER'!$A$3:$N$632</definedName>
     <definedName name="Z_8145F22A_AD74_4799_898B_BCECC4FA34F9_.wvu.PrintArea" localSheetId="5" hidden="1">'DIESEL FILTER&amp;OIL FILTER'!$A$3:$N$632</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <customWorkbookViews>
     <customWorkbookView name="pcs - Personal View" guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="800" windowHeight="379" tabRatio="628" activeSheetId="5"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -73,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5797" uniqueCount="3584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5798" uniqueCount="3585">
   <si>
     <t>0 433 175 443</t>
   </si>
@@ -10910,14 +10903,17 @@
   <si>
     <t>TATA SUPER ACE</t>
   </si>
+  <si>
+    <t>PREET,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_ &quot;Rs.&quot;\ * #,##0.00_ ;_ &quot;Rs.&quot;\ * \-#,##0.00_ ;_ &quot;Rs.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ &quot;Rs.&quot;\ * #,##0.00_ ;_ &quot;Rs.&quot;\ * \-#,##0.00_ ;_ &quot;Rs.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -11227,7 +11223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -11438,7 +11434,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11481,10 +11477,10 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2" xfId="5"/>
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="32">
@@ -11886,9 +11882,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11926,7 +11922,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -11960,7 +11956,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -11995,10 +11990,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12171,12 +12165,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J440"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A156" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15192,7 +15186,7 @@
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="17"/>
@@ -15476,7 +15470,7 @@
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="19">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F158" s="17"/>
       <c r="G158" s="17"/>
@@ -16065,7 +16059,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F172" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F172"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A104">
       <selection activeCell="G107" sqref="G107"/>
@@ -16079,12 +16073,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16199,7 +16193,7 @@
         <v>3508</v>
       </c>
       <c r="E5" s="75">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F5" s="74">
         <v>2443</v>
@@ -16225,7 +16219,7 @@
         <v>2706</v>
       </c>
       <c r="E6" s="75">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F6" s="74">
         <v>2322</v>
@@ -20657,7 +20651,7 @@
         <v>779</v>
       </c>
       <c r="E231" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F231" s="74">
         <v>10597</v>
@@ -20911,7 +20905,7 @@
         <v>2553</v>
       </c>
       <c r="E243" s="75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F243" s="74">
         <v>12026</v>
@@ -21779,7 +21773,7 @@
         <v>2999</v>
       </c>
       <c r="E283" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F283" s="74">
         <v>15505</v>
@@ -21967,7 +21961,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:I292" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A1:I292"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1208">
       <selection activeCell="D1139" sqref="D1139"/>
@@ -22012,12 +22006,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H1391"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22847,7 +22841,7 @@
       </c>
       <c r="D39" s="71"/>
       <c r="E39" s="71">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F39" s="70">
         <v>408</v>
@@ -22887,7 +22881,7 @@
       </c>
       <c r="D41" s="71"/>
       <c r="E41" s="71">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F41" s="70">
         <v>450</v>
@@ -22907,7 +22901,7 @@
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="71">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F42" s="70">
         <v>515</v>
@@ -31149,7 +31143,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H54" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <autoFilter ref="A1:H54"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="120" topLeftCell="A52">
       <selection activeCell="D57" sqref="D57"/>
@@ -31170,12 +31164,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H311"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -31307,7 +31301,7 @@
         <v>1296</v>
       </c>
       <c r="E6" s="19">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F6" s="17">
         <v>2595</v>
@@ -31431,7 +31425,7 @@
         <v>1303</v>
       </c>
       <c r="E12" s="19">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12" s="17">
         <v>2698</v>
@@ -31536,7 +31530,7 @@
         <v>1298</v>
       </c>
       <c r="E17" s="84">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F17" s="32">
         <v>2088</v>
@@ -31681,7 +31675,7 @@
         <v>1314</v>
       </c>
       <c r="E24" s="19">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="F24" s="17">
         <v>446</v>
@@ -31870,7 +31864,7 @@
         <v>2271</v>
       </c>
       <c r="E33" s="19">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F33" s="17">
         <v>1199</v>
@@ -32160,7 +32154,7 @@
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="32"/>
@@ -32484,7 +32478,7 @@
       </c>
       <c r="D63" s="32"/>
       <c r="E63" s="84">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F63" s="32">
         <v>115</v>
@@ -33071,7 +33065,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H92" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <autoFilter ref="A1:H92"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="115" topLeftCell="A35">
       <selection activeCell="D44" sqref="D44"/>
@@ -33088,13 +33082,13 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58:D58"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33320,7 +33314,7 @@
         <v>2401</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1135</v>
@@ -33560,7 +33554,7 @@
         <v>2413</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>1966</v>
@@ -33720,7 +33714,7 @@
         <v>3119</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>1499</v>
@@ -35003,7 +34997,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
+  <autoFilter ref="A1:F98"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}">
       <selection activeCell="A2" sqref="A2"/>
@@ -35019,7 +35013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -35105,7 +35099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K50"/>
   <sheetViews>
@@ -35702,7 +35696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A3:I20"/>
   <sheetViews>
@@ -35880,14 +35874,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:G275"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36107,7 +36101,7 @@
         <v>1465</v>
       </c>
       <c r="E12" s="10">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>2653</v>
@@ -40765,7 +40759,7 @@
         <v>1764</v>
       </c>
       <c r="E247" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F247" s="9"/>
       <c r="G247" t="s">
@@ -41301,7 +41295,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:G275" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G275"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" topLeftCell="A335">
       <selection activeCell="C348" sqref="C348"/>
@@ -41315,12 +41309,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H772"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42326,7 +42320,7 @@
         <v>2685</v>
       </c>
       <c r="E53" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="33">
         <v>2513</v>
@@ -43009,7 +43003,7 @@
       <c r="C93" s="33"/>
       <c r="D93" s="38"/>
       <c r="E93" s="35">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F93" s="33" t="s">
         <v>2599</v>
@@ -44973,7 +44967,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H129" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:H129"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A239">
       <selection activeCell="D241" sqref="D241"/>
@@ -44987,12 +44981,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H478"/>
   <sheetViews>
-    <sheetView topLeftCell="A316" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D325" sqref="D325"/>
+    <sheetView topLeftCell="A276" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49747,7 +49741,7 @@
       </c>
       <c r="D288" s="33"/>
       <c r="E288" s="35">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F288" s="33"/>
     </row>
@@ -49799,7 +49793,7 @@
       </c>
       <c r="D291" s="33"/>
       <c r="E291" s="35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F291" s="33">
         <v>356</v>
@@ -50234,7 +50228,7 @@
       </c>
       <c r="D316" s="33"/>
       <c r="E316" s="35">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F316" s="33">
         <v>865</v>
@@ -50470,7 +50464,7 @@
         <v>2421</v>
       </c>
       <c r="E329" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F329" s="33">
         <v>6082</v>
@@ -50984,7 +50978,7 @@
       </c>
       <c r="D358" s="33"/>
       <c r="E358" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F358" s="33">
         <v>2735</v>
@@ -51438,7 +51432,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:H376" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:H376"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A2437">
       <selection activeCell="D2444" sqref="D2444"/>
@@ -51452,12 +51446,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G571"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView topLeftCell="A120" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51830,7 +51824,7 @@
         <v>2265</v>
       </c>
       <c r="E22" s="56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>3581</v>
@@ -52424,7 +52418,7 @@
         <v>2700</v>
       </c>
       <c r="E57" s="56">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F57" s="35">
         <v>2075</v>
@@ -53156,7 +53150,7 @@
         <v>2706</v>
       </c>
       <c r="E98" s="56">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F98" s="56">
         <v>1320</v>
@@ -53179,7 +53173,7 @@
         <v>2714</v>
       </c>
       <c r="E99" s="56">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F99" s="35" t="s">
         <v>3144</v>
@@ -53663,7 +53657,7 @@
         <v>2706</v>
       </c>
       <c r="E127" s="56">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F127" s="35">
         <v>772</v>
@@ -53736,7 +53730,7 @@
         <v>2701</v>
       </c>
       <c r="E131" s="56">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F131" s="35" t="s">
         <v>3134</v>
@@ -53774,7 +53768,7 @@
         <v>2709</v>
       </c>
       <c r="E133" s="56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F133" s="35" t="s">
         <v>2790</v>
@@ -54036,7 +54030,7 @@
         <v>2702</v>
       </c>
       <c r="E147" s="56">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F147" s="35">
         <v>554</v>
@@ -54309,7 +54303,7 @@
         <v>3350</v>
       </c>
       <c r="E161" s="56">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F161" s="35" t="s">
         <v>3135</v>
@@ -54415,7 +54409,7 @@
         <v>2708</v>
       </c>
       <c r="E167" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F167" s="35">
         <v>2872</v>
@@ -54487,7 +54481,7 @@
         <v>2708</v>
       </c>
       <c r="E171" s="56">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F171" s="35">
         <v>1287</v>
@@ -54621,10 +54615,10 @@
         <v>2706</v>
       </c>
       <c r="E178" s="56">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F178" s="35">
-        <v>1676</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -54739,7 +54733,7 @@
         <v>2712</v>
       </c>
       <c r="E184" s="56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F184" s="35">
         <v>1739</v>
@@ -54970,7 +54964,7 @@
         <v>2733</v>
       </c>
       <c r="E196" s="56">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F196" s="35">
         <v>1087</v>
@@ -57109,7 +57103,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:G231" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:G231"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1207">
       <selection activeCell="F1213" sqref="F1213"/>
@@ -57135,12 +57129,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J291"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57200,7 +57194,7 @@
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="F3" s="35">
         <v>161</v>
@@ -57218,7 +57212,7 @@
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="F4" s="35">
         <v>146</v>
@@ -57291,7 +57285,7 @@
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F8" s="35">
         <v>121</v>
@@ -57309,7 +57303,7 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33">
-        <v>326</v>
+        <v>153</v>
       </c>
       <c r="F9" s="35">
         <v>193</v>
@@ -57345,7 +57339,7 @@
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F11" s="35">
         <v>184</v>
@@ -57422,7 +57416,7 @@
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F15" s="35">
         <v>400</v>
@@ -57440,7 +57434,7 @@
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F16" s="35">
         <v>396</v>
@@ -57476,7 +57470,7 @@
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>2793</v>
@@ -57656,7 +57650,7 @@
         <v>3363</v>
       </c>
       <c r="E28" s="60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="33">
         <v>379</v>
@@ -57774,7 +57768,7 @@
         <v>3369</v>
       </c>
       <c r="E34" s="60">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F34" s="35">
         <v>1118</v>
@@ -58132,7 +58126,7 @@
       </c>
       <c r="D54" s="33"/>
       <c r="E54" s="33">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F54" s="35">
         <v>276</v>
@@ -58150,7 +58144,7 @@
       </c>
       <c r="D55" s="33"/>
       <c r="E55" s="33">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F55" s="35">
         <v>120</v>
@@ -58168,7 +58162,7 @@
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="33">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="F56" s="35">
         <v>260</v>
@@ -58256,7 +58250,7 @@
       </c>
       <c r="D61" s="33"/>
       <c r="E61" s="33">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F61" s="35">
         <v>298</v>
@@ -58498,7 +58492,7 @@
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="33">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F75" s="35">
         <v>239</v>
@@ -58516,7 +58510,7 @@
       </c>
       <c r="D76" s="33"/>
       <c r="E76" s="42">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F76" s="35">
         <v>124</v>
@@ -58534,7 +58528,7 @@
       </c>
       <c r="D77" s="33"/>
       <c r="E77" s="33">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F77" s="35">
         <v>253</v>
@@ -58698,7 +58692,7 @@
         <v>3389</v>
       </c>
       <c r="E86" s="33">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F86" s="33">
         <v>330</v>
@@ -58933,7 +58927,7 @@
         <v>1910</v>
       </c>
       <c r="E99" s="33">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F99" s="35" t="s">
         <v>2951</v>
@@ -58953,7 +58947,7 @@
         <v>1847</v>
       </c>
       <c r="E100" s="33">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F100" s="33">
         <v>372</v>
@@ -59051,7 +59045,7 @@
         <v>3394</v>
       </c>
       <c r="E105" s="60">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F105" s="35">
         <v>396</v>
@@ -59179,7 +59173,7 @@
       </c>
       <c r="D112" s="33"/>
       <c r="E112" s="33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F112" s="35">
         <v>746</v>
@@ -59219,7 +59213,7 @@
         <v>3407</v>
       </c>
       <c r="E114" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F114" s="42"/>
     </row>
@@ -59355,7 +59349,7 @@
       </c>
       <c r="D122" s="33"/>
       <c r="E122" s="33">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F122" s="35">
         <v>197</v>
@@ -59577,9 +59571,11 @@
       <c r="C134" s="33" t="s">
         <v>1279</v>
       </c>
-      <c r="D134" s="33"/>
+      <c r="D134" s="33" t="s">
+        <v>3584</v>
+      </c>
       <c r="E134" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F134" s="35">
         <v>1400</v>
@@ -59597,7 +59593,7 @@
       </c>
       <c r="D135" s="33"/>
       <c r="E135" s="33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F135" s="33">
         <v>1045</v>
@@ -59736,7 +59732,7 @@
         <v>1859</v>
       </c>
       <c r="E142" s="35">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F142" s="33">
         <v>371</v>
@@ -60027,7 +60023,7 @@
         <v>1859</v>
       </c>
       <c r="E159" s="33">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F159" s="35">
         <v>234</v>
@@ -60087,7 +60083,7 @@
         <v>3416</v>
       </c>
       <c r="E162" s="33">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F162" s="35">
         <v>686</v>
@@ -60187,7 +60183,7 @@
         <v>3421</v>
       </c>
       <c r="E167" s="33">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="F167" s="35">
         <v>451</v>
@@ -60207,7 +60203,7 @@
         <v>3423</v>
       </c>
       <c r="E168" s="33">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F168" s="35">
         <v>1454</v>
@@ -60287,7 +60283,7 @@
         <v>3429</v>
       </c>
       <c r="E172" s="33">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F172" s="35">
         <v>759</v>
@@ -60347,7 +60343,7 @@
         <v>3433</v>
       </c>
       <c r="E175" s="33">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F175" s="35">
         <v>282</v>
@@ -60387,7 +60383,7 @@
         <v>3435</v>
       </c>
       <c r="E177" s="33">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="F177" s="35">
         <v>288</v>
@@ -60425,7 +60421,7 @@
         <v>3436</v>
       </c>
       <c r="E179" s="33">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F179" s="35">
         <v>1004</v>
@@ -60477,7 +60473,7 @@
         <v>290</v>
       </c>
       <c r="E182" s="33">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F182" s="35">
         <v>170</v>
@@ -60537,7 +60533,7 @@
         <v>3439</v>
       </c>
       <c r="E185" s="33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F185" s="35">
         <v>627</v>
@@ -60597,7 +60593,7 @@
         <v>3440</v>
       </c>
       <c r="E188" s="33">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F188" s="35" t="s">
         <v>2792</v>
@@ -60617,7 +60613,7 @@
         <v>3441</v>
       </c>
       <c r="E189" s="33">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="F189" s="33" t="s">
         <v>3028</v>
@@ -60715,7 +60711,7 @@
         <v>3444</v>
       </c>
       <c r="E194" s="42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F194" s="35" t="s">
         <v>3011</v>
@@ -60793,7 +60789,7 @@
         <v>3150</v>
       </c>
       <c r="E198" s="33">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F198" s="35">
         <v>199</v>
@@ -60813,7 +60809,7 @@
         <v>3447</v>
       </c>
       <c r="E199" s="33">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F199" s="35">
         <v>155</v>
@@ -60993,7 +60989,7 @@
         <v>3454</v>
       </c>
       <c r="E208" s="33">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F208" s="35">
         <v>345</v>
@@ -61563,7 +61559,7 @@
         <v>3479</v>
       </c>
       <c r="E237" s="33">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F237" s="35">
         <v>494</v>
@@ -62117,7 +62113,7 @@
         <v>3583</v>
       </c>
       <c r="E265" s="33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F265" s="35">
         <v>536</v>
@@ -62340,7 +62336,7 @@
         <v>2484</v>
       </c>
       <c r="E277" s="33">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F277" s="33">
         <v>309</v>
@@ -62620,7 +62616,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:J291" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A1:J291"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A1045">
       <selection activeCell="D1055" sqref="D1055"/>
@@ -62644,12 +62640,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64170,7 +64166,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:F80"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="110" topLeftCell="A503">
       <selection activeCell="E514" sqref="E514"/>
@@ -64183,12 +64179,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64476,7 +64472,7 @@
         <v>2891</v>
       </c>
       <c r="E15" s="35">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F15" s="33">
         <v>368</v>
@@ -64612,7 +64608,7 @@
         <v>2971</v>
       </c>
       <c r="E22" s="35">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F22" s="33">
         <v>435</v>
@@ -64652,7 +64648,7 @@
         <v>2080</v>
       </c>
       <c r="E24" s="35">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F24" s="33"/>
     </row>
@@ -64686,7 +64682,7 @@
         <v>300</v>
       </c>
       <c r="E26" s="35">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F26" s="33">
         <v>350</v>
@@ -64984,7 +64980,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:F43" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:F43"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="120" topLeftCell="A217">
       <selection activeCell="C224" sqref="C224"/>
@@ -64997,12 +64993,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -65133,7 +65129,7 @@
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="35">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>2818</v>
@@ -65223,7 +65219,7 @@
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="35">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="F12" s="33">
         <v>155</v>
@@ -65244,7 +65240,7 @@
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="35">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="F13" s="33">
         <v>195</v>
@@ -65392,7 +65388,7 @@
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="35">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F22" s="33">
         <v>79</v>
@@ -65413,7 +65409,7 @@
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="35">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F23" s="33">
         <v>105</v>
@@ -65469,7 +65465,7 @@
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="35">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F26" s="33">
         <v>18</v>
@@ -65519,7 +65515,7 @@
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="35">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="F29" s="33">
         <v>21</v>
@@ -65555,7 +65551,7 @@
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="35">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="F31" s="33" t="s">
         <v>2823</v>
@@ -65605,7 +65601,7 @@
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="35">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F34" s="33">
         <v>13</v>
@@ -66982,7 +66978,7 @@
         <v>2337</v>
       </c>
       <c r="E118" s="35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F118" s="33">
         <v>1125</v>
@@ -67008,7 +67004,7 @@
     </row>
   </sheetData>
   <sheetProtection password="CF21" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:G119" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:G119"/>
   <customSheetViews>
     <customSheetView guid="{8145F22A-AD74-4799-898B-BCECC4FA34F9}" scale="116" topLeftCell="A1179">
       <selection activeCell="F1188" sqref="F1188"/>
